--- a/branches/master/StructureDefinition-patient-pemh-profile.xlsx
+++ b/branches/master/StructureDefinition-patient-pemh-profile.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T09:12:07+00:00</t>
+    <t>2022-07-14T09:51:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-patient-pemh-profile.xlsx
+++ b/branches/master/StructureDefinition-patient-pemh-profile.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T09:51:10+00:00</t>
+    <t>2022-07-14T10:13:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-patient-pemh-profile.xlsx
+++ b/branches/master/StructureDefinition-patient-pemh-profile.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T10:13:19+00:00</t>
+    <t>2022-07-14T10:27:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-patient-pemh-profile.xlsx
+++ b/branches/master/StructureDefinition-patient-pemh-profile.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T10:27:58+00:00</t>
+    <t>2022-07-14T10:47:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-patient-pemh-profile.xlsx
+++ b/branches/master/StructureDefinition-patient-pemh-profile.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T10:47:14+00:00</t>
+    <t>2022-07-14T11:00:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-patient-pemh-profile.xlsx
+++ b/branches/master/StructureDefinition-patient-pemh-profile.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T11:00:22+00:00</t>
+    <t>2022-07-14T11:39:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-patient-pemh-profile.xlsx
+++ b/branches/master/StructureDefinition-patient-pemh-profile.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T11:39:56+00:00</t>
+    <t>2022-07-14T12:13:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-patient-pemh-profile.xlsx
+++ b/branches/master/StructureDefinition-patient-pemh-profile.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T12:13:58+00:00</t>
+    <t>2022-07-14T12:15:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-patient-pemh-profile.xlsx
+++ b/branches/master/StructureDefinition-patient-pemh-profile.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T12:15:20+00:00</t>
+    <t>2022-07-14T12:28:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-patient-pemh-profile.xlsx
+++ b/branches/master/StructureDefinition-patient-pemh-profile.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1713" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1713" uniqueCount="367">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T12:28:55+00:00</t>
+    <t>2022-09-22T18:17:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -284,7 +284,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -811,6 +811,10 @@
   </si>
   <si>
     <t>Patient.contact.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -4080,13 +4084,13 @@
         <v>80</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>89</v>
+        <v>255</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4137,7 +4141,7 @@
         <v>80</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>78</v>
@@ -4169,7 +4173,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4198,7 +4202,7 @@
         <v>134</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M24" t="s" s="2">
         <v>136</v>
@@ -4251,7 +4255,7 @@
         <v>80</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>78</v>
@@ -4283,11 +4287,11 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4309,10 +4313,10 @@
         <v>133</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M25" t="s" s="2">
         <v>136</v>
@@ -4367,7 +4371,7 @@
         <v>80</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
@@ -4399,7 +4403,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4425,14 +4429,14 @@
         <v>220</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>80</v>
@@ -4460,10 +4464,10 @@
         <v>224</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>80</v>
@@ -4481,7 +4485,7 @@
         <v>80</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
@@ -4496,7 +4500,7 @@
         <v>99</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>161</v>
@@ -4505,7 +4509,7 @@
         <v>80</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>80</v>
@@ -4513,7 +4517,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4539,14 +4543,14 @@
         <v>164</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>80</v>
@@ -4595,7 +4599,7 @@
         <v>80</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
@@ -4619,7 +4623,7 @@
         <v>80</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>80</v>
@@ -4627,7 +4631,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4653,13 +4657,13 @@
         <v>173</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N28" t="s" s="2">
         <v>177</v>
@@ -4711,7 +4715,7 @@
         <v>80</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -4735,7 +4739,7 @@
         <v>80</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>80</v>
@@ -4743,7 +4747,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4769,14 +4773,14 @@
         <v>211</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>80</v>
@@ -4825,7 +4829,7 @@
         <v>80</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -4849,7 +4853,7 @@
         <v>80</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>80</v>
@@ -4857,7 +4861,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4886,11 +4890,11 @@
         <v>182</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>80</v>
@@ -4939,7 +4943,7 @@
         <v>80</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
@@ -4963,7 +4967,7 @@
         <v>80</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>80</v>
@@ -4971,7 +4975,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4994,17 +4998,17 @@
         <v>80</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>80</v>
@@ -5053,7 +5057,7 @@
         <v>80</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
@@ -5062,13 +5066,13 @@
         <v>87</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>161</v>
@@ -5077,7 +5081,7 @@
         <v>80</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>80</v>
@@ -5085,7 +5089,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5108,13 +5112,13 @@
         <v>80</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5165,7 +5169,7 @@
         <v>80</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
@@ -5180,7 +5184,7 @@
         <v>99</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>161</v>
@@ -5197,7 +5201,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5223,16 +5227,16 @@
         <v>247</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>80</v>
@@ -5281,7 +5285,7 @@
         <v>80</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
@@ -5296,10 +5300,10 @@
         <v>99</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>80</v>
@@ -5313,7 +5317,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5336,13 +5340,13 @@
         <v>80</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>89</v>
+        <v>255</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5393,7 +5397,7 @@
         <v>80</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
@@ -5425,7 +5429,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5454,7 +5458,7 @@
         <v>134</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M35" t="s" s="2">
         <v>136</v>
@@ -5507,7 +5511,7 @@
         <v>80</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
@@ -5539,11 +5543,11 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5565,10 +5569,10 @@
         <v>133</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M36" t="s" s="2">
         <v>136</v>
@@ -5623,7 +5627,7 @@
         <v>80</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
@@ -5655,7 +5659,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5681,16 +5685,16 @@
         <v>220</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>80</v>
@@ -5739,7 +5743,7 @@
         <v>80</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>87</v>
@@ -5754,16 +5758,16 @@
         <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>80</v>
@@ -5771,7 +5775,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5797,16 +5801,16 @@
         <v>154</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>80</v>
@@ -5855,7 +5859,7 @@
         <v>80</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
@@ -5870,16 +5874,16 @@
         <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>80</v>
@@ -5887,11 +5891,11 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -5910,16 +5914,16 @@
         <v>80</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -5969,7 +5973,7 @@
         <v>80</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -5984,7 +5988,7 @@
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>161</v>
@@ -5993,7 +5997,7 @@
         <v>80</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>80</v>
@@ -6001,7 +6005,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6024,19 +6028,19 @@
         <v>88</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>80</v>
@@ -6085,7 +6089,7 @@
         <v>80</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
@@ -6100,10 +6104,10 @@
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>80</v>
@@ -6117,7 +6121,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6143,16 +6147,16 @@
         <v>247</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>80</v>
@@ -6201,7 +6205,7 @@
         <v>80</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
@@ -6216,7 +6220,7 @@
         <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>161</v>
@@ -6233,7 +6237,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6256,13 +6260,13 @@
         <v>80</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>89</v>
+        <v>255</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6313,7 +6317,7 @@
         <v>80</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
@@ -6345,7 +6349,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6374,7 +6378,7 @@
         <v>134</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M43" t="s" s="2">
         <v>136</v>
@@ -6427,7 +6431,7 @@
         <v>80</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -6459,11 +6463,11 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6485,10 +6489,10 @@
         <v>133</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M44" t="s" s="2">
         <v>136</v>
@@ -6543,7 +6547,7 @@
         <v>80</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
@@ -6575,7 +6579,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6598,16 +6602,16 @@
         <v>88</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -6657,7 +6661,7 @@
         <v>80</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>87</v>
@@ -6681,7 +6685,7 @@
         <v>80</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>80</v>
@@ -6689,7 +6693,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6715,10 +6719,10 @@
         <v>107</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6748,10 +6752,10 @@
         <v>186</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>80</v>
@@ -6769,7 +6773,7 @@
         <v>80</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>87</v>
@@ -6784,7 +6788,7 @@
         <v>99</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>161</v>

--- a/branches/master/StructureDefinition-patient-pemh-profile.xlsx
+++ b/branches/master/StructureDefinition-patient-pemh-profile.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$172</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$193</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6603" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7397" uniqueCount="766">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T20:39:01+00:00</t>
+    <t>2023-02-09T22:10:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1280,6 +1280,173 @@
     <t>PID-5, PID-9</t>
   </si>
   <si>
+    <t>Patient.name.id</t>
+  </si>
+  <si>
+    <t>Patient.name.extension</t>
+  </si>
+  <si>
+    <t>Patient.name.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | nickname | anonymous | old | maiden</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this name.</t>
+  </si>
+  <si>
+    <t>This is labeled as "Is Modifier" because applications should not mistake a temporary or old name etc.for a current/permanent one. Applications can assume that a name is current unless it explicitly says that it is temporary or old.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate name for a particular context of use to be selected from among a set of names.</t>
+  </si>
+  <si>
+    <t>The use of a human name</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/name-use</t>
+  </si>
+  <si>
+    <t>HumanName.use</t>
+  </si>
+  <si>
+    <t>unique(./use)</t>
+  </si>
+  <si>
+    <t>XPN.7, but often indicated by which field contains the name</t>
+  </si>
+  <si>
+    <t>Patient.name.text</t>
+  </si>
+  <si>
+    <t>Nome completo do utente</t>
+  </si>
+  <si>
+    <t>A full text representation of the name.</t>
+  </si>
+  <si>
+    <t>Can provide both a text representation and structured parts.</t>
+  </si>
+  <si>
+    <t>A renderable, unencoded form.</t>
+  </si>
+  <si>
+    <t>HumanName.text</t>
+  </si>
+  <si>
+    <t>./formatted</t>
+  </si>
+  <si>
+    <t>implied by XPN.11</t>
+  </si>
+  <si>
+    <t>Patient.name.family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">surname
+</t>
+  </si>
+  <si>
+    <t>Apelidos do utente</t>
+  </si>
+  <si>
+    <t>The part of a name that links to the genealogy. In some cultures (e.g. Eritrea) the family name of a son is the first name of his father.</t>
+  </si>
+  <si>
+    <t>Family Name may be decomposed into specific parts using extensions (de, nl, es related cultures).</t>
+  </si>
+  <si>
+    <t>HumanName.family</t>
+  </si>
+  <si>
+    <t>./part[partType = FAM]</t>
+  </si>
+  <si>
+    <t>XPN.1/FN.1</t>
+  </si>
+  <si>
+    <t>Patient.name.given</t>
+  </si>
+  <si>
+    <t>first name
+middle name</t>
+  </si>
+  <si>
+    <t>Nomes próprios do utente</t>
+  </si>
+  <si>
+    <t>Given name.</t>
+  </si>
+  <si>
+    <t>If only initials are recorded, they may be used in place of the full name.  Not called "first name" since given names do not always come first.</t>
+  </si>
+  <si>
+    <t>HumanName.given</t>
+  </si>
+  <si>
+    <t>./part[partType = GIV]</t>
+  </si>
+  <si>
+    <t>XPN.2 + XPN.3</t>
+  </si>
+  <si>
+    <t>Patient.name.prefix</t>
+  </si>
+  <si>
+    <t>Parts that come before the name</t>
+  </si>
+  <si>
+    <t>Part of the name that is acquired as a title due to academic, legal, employment or nobility status, etc. and that appears at the start of the name.</t>
+  </si>
+  <si>
+    <t>HumanName.prefix</t>
+  </si>
+  <si>
+    <t>./part[partType = PFX]</t>
+  </si>
+  <si>
+    <t>XPN.5</t>
+  </si>
+  <si>
+    <t>Patient.name.suffix</t>
+  </si>
+  <si>
+    <t>Parts that come after the name</t>
+  </si>
+  <si>
+    <t>Part of the name that is acquired as a title due to academic, legal, employment or nobility status, etc. and that appears at the end of the name.</t>
+  </si>
+  <si>
+    <t>HumanName.suffix</t>
+  </si>
+  <si>
+    <t>./part[partType = SFX]</t>
+  </si>
+  <si>
+    <t>XPN/4</t>
+  </si>
+  <si>
+    <t>Patient.name.period</t>
+  </si>
+  <si>
+    <t>Time period when name was/is in use</t>
+  </si>
+  <si>
+    <t>Indicates the period of time when this name was valid for the named person.</t>
+  </si>
+  <si>
+    <t>Allows names to be placed in historical context.</t>
+  </si>
+  <si>
+    <t>HumanName.period</t>
+  </si>
+  <si>
+    <t>./usablePeriod[type="IVL&lt;TS&gt;"]</t>
+  </si>
+  <si>
+    <t>XPN.13 + XPN.14</t>
+  </si>
+  <si>
     <t>Patient.telecom</t>
   </si>
   <si>
@@ -1287,7 +1454,7 @@
 </t>
   </si>
   <si>
-    <t>A contact detail for the individual</t>
+    <t>Informações de contacto do utente</t>
   </si>
   <si>
     <t>A contact detail (e.g. a telephone number or an email address) by which the individual may be contacted.</t>
@@ -1421,6 +1588,262 @@
   </si>
   <si>
     <t>PID-11</t>
+  </si>
+  <si>
+    <t>Patient.address.id</t>
+  </si>
+  <si>
+    <t>As extensões apresentadas suportam a normalização para o formato de morada em Portugal assim como para moradas estrangeiras de uma forma sistémica. Opcionalmente os elementos "address.text" e "address.line" poderão ser utilizados para uma representação não normalizada.
+Para informar a morada de cada tipo de address abaixo, além de preencher os elementos consistidos pelas extensions, deverão ser utilizados os elementos do datatype address (como country, district, etc) com os valores preenchidos nos elementos display das extensions correspondentes em seus valueCodeableConcept (e.g.; caso address[0]. extension[0].extension[0].valueCodeableConcept. coding[0].display seja igual a "Portugal", address[0]. country também deverá ser igual a "Portugal").
+Caso a morada seja preferencial (campo &lt;Preferenci al&gt;), deve ser usado o tipo de endereço "MA" (Main Address)
+Podem ser enviadas quantas moradas forem necessárias.</t>
+  </si>
+  <si>
+    <t>Patient.address.extension</t>
+  </si>
+  <si>
+    <t>Patient.address.use</t>
+  </si>
+  <si>
+    <t>home | work | temp | old - purpose of this address</t>
+  </si>
+  <si>
+    <t>The purpose of this address.</t>
+  </si>
+  <si>
+    <t>This is labeled as "Is Modifier" because applications should not mistake a temporary or old address etc.for a current/permanent one. Applications can assume that an address is current unless it explicitly says that it is temporary or old.</t>
+  </si>
+  <si>
+    <t>Allows an appropriate address to be chosen from a list of many.</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>The use of an address</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/address-use</t>
+  </si>
+  <si>
+    <t>Address.use</t>
+  </si>
+  <si>
+    <t>XAD.7</t>
+  </si>
+  <si>
+    <t>Patient.address.type</t>
+  </si>
+  <si>
+    <t>postal | physical | both</t>
+  </si>
+  <si>
+    <t>Distinguishes between physical addresses (those you can visit) and mailing addresses (e.g. PO Boxes and care-of addresses). Most addresses are both.</t>
+  </si>
+  <si>
+    <t>both</t>
+  </si>
+  <si>
+    <t>The type of an address (physical / postal)</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/address-type</t>
+  </si>
+  <si>
+    <t>Address.type</t>
+  </si>
+  <si>
+    <t>XAD.18</t>
+  </si>
+  <si>
+    <t>Patient.address.text</t>
+  </si>
+  <si>
+    <t>Para informar o texto que representa a morada, de uma forma não normalizada, em alternativa ou em complemento da forma normalizada representada pelas extensões do elemento address.</t>
+  </si>
+  <si>
+    <t>A full text representation of the address.</t>
+  </si>
+  <si>
+    <t>Can provide both a text representation and parts.</t>
+  </si>
+  <si>
+    <t>137 Nowhere Street, Erewhon 9132</t>
+  </si>
+  <si>
+    <t>Address.text</t>
+  </si>
+  <si>
+    <t>XAD.1 + XAD.2 + XAD.3 + XAD.4 + XAD.5 + XAD.6</t>
+  </si>
+  <si>
+    <t>Patient.address.line</t>
+  </si>
+  <si>
+    <t>Para informar a(s) linha(a) que representa(m) a morada, de uma forma não normalizada, em alternativa ou em complemento da forma normalizada representada pelas extensões do elemento address.</t>
+  </si>
+  <si>
+    <t>This component contains the house number, apartment number, street name, street direction,  P.O. Box number, delivery hints, and similar address information.</t>
+  </si>
+  <si>
+    <t>home | work | temp | old - purpose of this address.</t>
+  </si>
+  <si>
+    <t>137 Nowhere Street</t>
+  </si>
+  <si>
+    <t>Address.line</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = AL]</t>
+  </si>
+  <si>
+    <t>XAD.1 + XAD.2 (note: XAD.1 and XAD.2 have different meanings for a company address than for a person address)</t>
+  </si>
+  <si>
+    <t>Patient.address.city</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Municpality
+</t>
+  </si>
+  <si>
+    <t>Name of city, town etc.</t>
+  </si>
+  <si>
+    <t>The name of the city, town, village or other community or delivery center.</t>
+  </si>
+  <si>
+    <t>Erewhon</t>
+  </si>
+  <si>
+    <t>Address.city</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = CTY]</t>
+  </si>
+  <si>
+    <t>XAD.3</t>
+  </si>
+  <si>
+    <t>Patient.address.district</t>
+  </si>
+  <si>
+    <t xml:space="preserve">County
+</t>
+  </si>
+  <si>
+    <t>District name (aka county)</t>
+  </si>
+  <si>
+    <t>The name of the administrative area (county).</t>
+  </si>
+  <si>
+    <t>District is sometimes known as county, but in some regions 'county' is used in place of city (municipality), so county name should be conveyed in city instead.</t>
+  </si>
+  <si>
+    <t>Madison</t>
+  </si>
+  <si>
+    <t>Address.district</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = CNT | CPA]</t>
+  </si>
+  <si>
+    <t>XAD.9</t>
+  </si>
+  <si>
+    <t>Patient.address.state</t>
+  </si>
+  <si>
+    <t>Province
+Territory</t>
+  </si>
+  <si>
+    <t>Sub-unit of country (abbreviations ok)</t>
+  </si>
+  <si>
+    <t>Sub-unit of a country with limited sovereignty in a federally organized country. A code may be used if codes are in common use (i.e. US 2 letter state codes).</t>
+  </si>
+  <si>
+    <t>Address.state</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = STA]</t>
+  </si>
+  <si>
+    <t>XAD.4</t>
+  </si>
+  <si>
+    <t>Patient.address.postalCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zip
+</t>
+  </si>
+  <si>
+    <t>Postal code for area</t>
+  </si>
+  <si>
+    <t>A postal code designating a region defined by the postal service.</t>
+  </si>
+  <si>
+    <t>9132</t>
+  </si>
+  <si>
+    <t>Address.postalCode</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = ZIP]</t>
+  </si>
+  <si>
+    <t>XAD.5</t>
+  </si>
+  <si>
+    <t>Patient.address.country</t>
+  </si>
+  <si>
+    <t>Country (e.g. can be ISO 3166 2 or 3 letter code)</t>
+  </si>
+  <si>
+    <t>Country - a nation as commonly understood or generally accepted.</t>
+  </si>
+  <si>
+    <t>ISO 3166 3 letter codes can be used in place of a full country name.</t>
+  </si>
+  <si>
+    <t>Address.country</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = CNT]</t>
+  </si>
+  <si>
+    <t>XAD.6</t>
+  </si>
+  <si>
+    <t>Patient.address.period</t>
+  </si>
+  <si>
+    <t>Time period when address was/is in use</t>
+  </si>
+  <si>
+    <t>Time period when address was/is in use.</t>
+  </si>
+  <si>
+    <t>Allows addresses to be placed in historical context.</t>
+  </si>
+  <si>
+    <t>&lt;valuePeriod xmlns="http://hl7.org/fhir"&gt;
+  &lt;start value="2010-03-23"/&gt;
+  &lt;end value="2010-07-01"/&gt;
+&lt;/valuePeriod&gt;</t>
+  </si>
+  <si>
+    <t>Address.period</t>
+  </si>
+  <si>
+    <t>XAD.12 / XAD.13 + XAD.14</t>
   </si>
   <si>
     <t>Patient.maritalStatus</t>
@@ -1547,7 +1970,7 @@
     <t>Patient.contact.relationship</t>
   </si>
   <si>
-    <t>The kind of relationship</t>
+    <t>Para informar que o contacto é de emergência (ContactoEmergencia)</t>
   </si>
   <si>
     <t>The nature of the relationship between the patient and the contact person.</t>
@@ -2268,7 +2691,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP172"/>
+  <dimension ref="A1:AP193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2296,7 +2719,7 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="39.97265625" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
@@ -2315,7 +2738,7 @@
     <col min="37" max="37" width="156.828125" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="40.8125" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="45.6171875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="107.3984375" customWidth="true" bestFit="true"/>
     <col min="41" max="41" width="40.0703125" customWidth="true" bestFit="true"/>
     <col min="42" max="42" width="24.359375" customWidth="true" bestFit="true"/>
   </cols>
@@ -18216,7 +18639,7 @@
         <v>80</v>
       </c>
       <c r="G133" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H133" t="s" s="2">
         <v>82</v>
@@ -18225,23 +18648,19 @@
         <v>82</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>413</v>
+        <v>156</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>414</v>
+        <v>157</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="N133" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="O133" t="s" s="2">
-        <v>417</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="N133" s="2"/>
+      <c r="O133" s="2"/>
       <c r="P133" t="s" s="2">
         <v>82</v>
       </c>
@@ -18289,13 +18708,13 @@
         <v>82</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>412</v>
+        <v>159</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH133" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI133" t="s" s="2">
         <v>82</v>
@@ -18304,16 +18723,16 @@
         <v>82</v>
       </c>
       <c r="AK133" t="s" s="2">
-        <v>418</v>
+        <v>160</v>
       </c>
       <c r="AL133" t="s" s="2">
-        <v>419</v>
+        <v>82</v>
       </c>
       <c r="AM133" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN133" t="s" s="2">
-        <v>420</v>
+        <v>82</v>
       </c>
       <c r="AO133" t="s" s="2">
         <v>82</v>
@@ -18324,21 +18743,21 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="E134" s="2"/>
       <c r="F134" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G134" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H134" t="s" s="2">
         <v>82</v>
@@ -18347,23 +18766,21 @@
         <v>82</v>
       </c>
       <c r="J134" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>422</v>
+        <v>137</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>423</v>
+        <v>162</v>
       </c>
       <c r="N134" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="O134" t="s" s="2">
-        <v>425</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="O134" s="2"/>
       <c r="P134" t="s" s="2">
         <v>82</v>
       </c>
@@ -18387,37 +18804,37 @@
         <v>82</v>
       </c>
       <c r="X134" t="s" s="2">
-        <v>171</v>
+        <v>82</v>
       </c>
       <c r="Y134" t="s" s="2">
-        <v>426</v>
+        <v>82</v>
       </c>
       <c r="Z134" t="s" s="2">
-        <v>427</v>
+        <v>82</v>
       </c>
       <c r="AA134" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB134" t="s" s="2">
-        <v>82</v>
+        <v>163</v>
       </c>
       <c r="AC134" t="s" s="2">
-        <v>82</v>
+        <v>164</v>
       </c>
       <c r="AD134" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>82</v>
+        <v>151</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>421</v>
+        <v>165</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH134" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI134" t="s" s="2">
         <v>82</v>
@@ -18426,16 +18843,16 @@
         <v>82</v>
       </c>
       <c r="AK134" t="s" s="2">
-        <v>428</v>
+        <v>160</v>
       </c>
       <c r="AL134" t="s" s="2">
-        <v>429</v>
+        <v>82</v>
       </c>
       <c r="AM134" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN134" t="s" s="2">
-        <v>430</v>
+        <v>82</v>
       </c>
       <c r="AO134" t="s" s="2">
         <v>82</v>
@@ -18446,10 +18863,10 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>431</v>
+        <v>414</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>431</v>
+        <v>414</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -18466,25 +18883,25 @@
         <v>82</v>
       </c>
       <c r="I135" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J135" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>432</v>
+        <v>109</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>433</v>
+        <v>415</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>434</v>
+        <v>416</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="O135" t="s" s="2">
-        <v>436</v>
+        <v>418</v>
       </c>
       <c r="P135" t="s" s="2">
         <v>82</v>
@@ -18509,13 +18926,13 @@
         <v>82</v>
       </c>
       <c r="X135" t="s" s="2">
-        <v>82</v>
+        <v>171</v>
       </c>
       <c r="Y135" t="s" s="2">
-        <v>82</v>
+        <v>419</v>
       </c>
       <c r="Z135" t="s" s="2">
-        <v>82</v>
+        <v>420</v>
       </c>
       <c r="AA135" t="s" s="2">
         <v>82</v>
@@ -18533,7 +18950,7 @@
         <v>82</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>80</v>
@@ -18548,19 +18965,19 @@
         <v>82</v>
       </c>
       <c r="AK135" t="s" s="2">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="AL135" t="s" s="2">
-        <v>438</v>
+        <v>82</v>
       </c>
       <c r="AM135" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN135" t="s" s="2">
-        <v>439</v>
+        <v>423</v>
       </c>
       <c r="AO135" t="s" s="2">
-        <v>440</v>
+        <v>82</v>
       </c>
       <c r="AP135" t="s" s="2">
         <v>82</v>
@@ -18568,10 +18985,10 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>441</v>
+        <v>424</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>441</v>
+        <v>424</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -18588,25 +19005,25 @@
         <v>82</v>
       </c>
       <c r="I136" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J136" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>442</v>
+        <v>156</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>443</v>
+        <v>425</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>444</v>
+        <v>426</v>
       </c>
       <c r="N136" t="s" s="2">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="O136" t="s" s="2">
-        <v>446</v>
+        <v>428</v>
       </c>
       <c r="P136" t="s" s="2">
         <v>82</v>
@@ -18655,7 +19072,7 @@
         <v>82</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>80</v>
@@ -18670,16 +19087,16 @@
         <v>82</v>
       </c>
       <c r="AK136" t="s" s="2">
-        <v>447</v>
+        <v>430</v>
       </c>
       <c r="AL136" t="s" s="2">
-        <v>160</v>
+        <v>82</v>
       </c>
       <c r="AM136" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN136" t="s" s="2">
-        <v>448</v>
+        <v>431</v>
       </c>
       <c r="AO136" t="s" s="2">
         <v>82</v>
@@ -18690,21 +19107,21 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
-        <v>82</v>
+        <v>433</v>
       </c>
       <c r="E137" s="2"/>
       <c r="F137" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G137" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H137" t="s" s="2">
         <v>82</v>
@@ -18716,20 +19133,18 @@
         <v>91</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>450</v>
+        <v>156</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>451</v>
+        <v>434</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>452</v>
+        <v>435</v>
       </c>
       <c r="N137" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="O137" t="s" s="2">
-        <v>454</v>
-      </c>
+        <v>436</v>
+      </c>
+      <c r="O137" s="2"/>
       <c r="P137" t="s" s="2">
         <v>82</v>
       </c>
@@ -18777,13 +19192,13 @@
         <v>82</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH137" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI137" t="s" s="2">
         <v>82</v>
@@ -18792,16 +19207,16 @@
         <v>82</v>
       </c>
       <c r="AK137" t="s" s="2">
-        <v>455</v>
+        <v>438</v>
       </c>
       <c r="AL137" t="s" s="2">
-        <v>456</v>
+        <v>82</v>
       </c>
       <c r="AM137" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN137" t="s" s="2">
-        <v>457</v>
+        <v>439</v>
       </c>
       <c r="AO137" t="s" s="2">
         <v>82</v>
@@ -18812,21 +19227,21 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>458</v>
+        <v>440</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>458</v>
+        <v>440</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
-        <v>82</v>
+        <v>441</v>
       </c>
       <c r="E138" s="2"/>
       <c r="F138" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G138" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H138" t="s" s="2">
         <v>82</v>
@@ -18835,21 +19250,21 @@
         <v>82</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>459</v>
+        <v>442</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="N138" s="2"/>
-      <c r="O138" t="s" s="2">
-        <v>461</v>
-      </c>
+        <v>443</v>
+      </c>
+      <c r="N138" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="O138" s="2"/>
       <c r="P138" t="s" s="2">
         <v>82</v>
       </c>
@@ -18873,13 +19288,13 @@
         <v>82</v>
       </c>
       <c r="X138" t="s" s="2">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="Y138" t="s" s="2">
-        <v>462</v>
+        <v>82</v>
       </c>
       <c r="Z138" t="s" s="2">
-        <v>463</v>
+        <v>82</v>
       </c>
       <c r="AA138" t="s" s="2">
         <v>82</v>
@@ -18897,13 +19312,13 @@
         <v>82</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH138" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI138" t="s" s="2">
         <v>82</v>
@@ -18912,16 +19327,16 @@
         <v>82</v>
       </c>
       <c r="AK138" t="s" s="2">
-        <v>464</v>
+        <v>446</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>465</v>
+        <v>82</v>
       </c>
       <c r="AM138" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN138" t="s" s="2">
-        <v>466</v>
+        <v>447</v>
       </c>
       <c r="AO138" t="s" s="2">
         <v>82</v>
@@ -18932,10 +19347,10 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>467</v>
+        <v>448</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>467</v>
+        <v>448</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -18946,7 +19361,7 @@
         <v>80</v>
       </c>
       <c r="G139" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H139" t="s" s="2">
         <v>82</v>
@@ -18955,23 +19370,19 @@
         <v>82</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>468</v>
+        <v>156</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>469</v>
+        <v>449</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="N139" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="O139" t="s" s="2">
-        <v>472</v>
-      </c>
+        <v>450</v>
+      </c>
+      <c r="N139" s="2"/>
+      <c r="O139" s="2"/>
       <c r="P139" t="s" s="2">
         <v>82</v>
       </c>
@@ -19019,13 +19430,13 @@
         <v>82</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>467</v>
+        <v>451</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH139" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI139" t="s" s="2">
         <v>82</v>
@@ -19034,16 +19445,16 @@
         <v>82</v>
       </c>
       <c r="AK139" t="s" s="2">
-        <v>473</v>
+        <v>452</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>160</v>
+        <v>82</v>
       </c>
       <c r="AM139" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN139" t="s" s="2">
-        <v>474</v>
+        <v>453</v>
       </c>
       <c r="AO139" t="s" s="2">
         <v>82</v>
@@ -19054,10 +19465,10 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>475</v>
+        <v>454</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>475</v>
+        <v>454</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -19077,21 +19488,19 @@
         <v>82</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>476</v>
+        <v>156</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>477</v>
+        <v>455</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>478</v>
+        <v>456</v>
       </c>
       <c r="N140" s="2"/>
-      <c r="O140" t="s" s="2">
-        <v>479</v>
-      </c>
+      <c r="O140" s="2"/>
       <c r="P140" t="s" s="2">
         <v>82</v>
       </c>
@@ -19139,7 +19548,7 @@
         <v>82</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>475</v>
+        <v>457</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>80</v>
@@ -19154,16 +19563,16 @@
         <v>82</v>
       </c>
       <c r="AK140" t="s" s="2">
-        <v>480</v>
+        <v>458</v>
       </c>
       <c r="AL140" t="s" s="2">
-        <v>160</v>
+        <v>82</v>
       </c>
       <c r="AM140" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN140" t="s" s="2">
-        <v>481</v>
+        <v>459</v>
       </c>
       <c r="AO140" t="s" s="2">
         <v>82</v>
@@ -19174,10 +19583,10 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>482</v>
+        <v>460</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>482</v>
+        <v>460</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -19188,7 +19597,7 @@
         <v>80</v>
       </c>
       <c r="G141" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H141" t="s" s="2">
         <v>82</v>
@@ -19197,22 +19606,20 @@
         <v>82</v>
       </c>
       <c r="J141" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>483</v>
+        <v>263</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>484</v>
+        <v>461</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="N141" t="s" s="2">
-        <v>486</v>
-      </c>
+        <v>462</v>
+      </c>
+      <c r="N141" s="2"/>
       <c r="O141" t="s" s="2">
-        <v>487</v>
+        <v>463</v>
       </c>
       <c r="P141" t="s" s="2">
         <v>82</v>
@@ -19261,31 +19668,31 @@
         <v>82</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>482</v>
+        <v>464</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH141" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI141" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ141" t="s" s="2">
-        <v>488</v>
+        <v>82</v>
       </c>
       <c r="AK141" t="s" s="2">
-        <v>489</v>
+        <v>465</v>
       </c>
       <c r="AL141" t="s" s="2">
-        <v>160</v>
+        <v>82</v>
       </c>
       <c r="AM141" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN141" t="s" s="2">
-        <v>82</v>
+        <v>466</v>
       </c>
       <c r="AO141" t="s" s="2">
         <v>82</v>
@@ -19296,10 +19703,10 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>490</v>
+        <v>467</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>490</v>
+        <v>467</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -19310,7 +19717,7 @@
         <v>80</v>
       </c>
       <c r="G142" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H142" t="s" s="2">
         <v>82</v>
@@ -19319,19 +19726,23 @@
         <v>82</v>
       </c>
       <c r="J142" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>156</v>
+        <v>468</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>157</v>
+        <v>469</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N142" s="2"/>
-      <c r="O142" s="2"/>
+        <v>470</v>
+      </c>
+      <c r="N142" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="O142" t="s" s="2">
+        <v>472</v>
+      </c>
       <c r="P142" t="s" s="2">
         <v>82</v>
       </c>
@@ -19379,13 +19790,13 @@
         <v>82</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>159</v>
+        <v>467</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH142" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI142" t="s" s="2">
         <v>82</v>
@@ -19394,16 +19805,16 @@
         <v>82</v>
       </c>
       <c r="AK142" t="s" s="2">
-        <v>160</v>
+        <v>473</v>
       </c>
       <c r="AL142" t="s" s="2">
-        <v>82</v>
+        <v>474</v>
       </c>
       <c r="AM142" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN142" t="s" s="2">
-        <v>82</v>
+        <v>475</v>
       </c>
       <c r="AO142" t="s" s="2">
         <v>82</v>
@@ -19414,21 +19825,21 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
-        <v>135</v>
+        <v>82</v>
       </c>
       <c r="E143" s="2"/>
       <c r="F143" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G143" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H143" t="s" s="2">
         <v>82</v>
@@ -19437,21 +19848,23 @@
         <v>82</v>
       </c>
       <c r="J143" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>137</v>
+        <v>477</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>162</v>
+        <v>478</v>
       </c>
       <c r="N143" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O143" s="2"/>
+        <v>479</v>
+      </c>
+      <c r="O143" t="s" s="2">
+        <v>480</v>
+      </c>
       <c r="P143" t="s" s="2">
         <v>82</v>
       </c>
@@ -19475,13 +19888,13 @@
         <v>82</v>
       </c>
       <c r="X143" t="s" s="2">
-        <v>82</v>
+        <v>171</v>
       </c>
       <c r="Y143" t="s" s="2">
-        <v>82</v>
+        <v>481</v>
       </c>
       <c r="Z143" t="s" s="2">
-        <v>82</v>
+        <v>482</v>
       </c>
       <c r="AA143" t="s" s="2">
         <v>82</v>
@@ -19499,13 +19912,13 @@
         <v>82</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>165</v>
+        <v>476</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH143" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI143" t="s" s="2">
         <v>82</v>
@@ -19514,16 +19927,16 @@
         <v>82</v>
       </c>
       <c r="AK143" t="s" s="2">
-        <v>160</v>
+        <v>483</v>
       </c>
       <c r="AL143" t="s" s="2">
-        <v>82</v>
+        <v>484</v>
       </c>
       <c r="AM143" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN143" t="s" s="2">
-        <v>82</v>
+        <v>485</v>
       </c>
       <c r="AO143" t="s" s="2">
         <v>82</v>
@@ -19534,44 +19947,46 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
-        <v>493</v>
+        <v>82</v>
       </c>
       <c r="E144" s="2"/>
       <c r="F144" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G144" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H144" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I144" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J144" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>136</v>
+        <v>487</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>142</v>
+        <v>488</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="N144" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O144" s="2"/>
+        <v>490</v>
+      </c>
+      <c r="O144" t="s" s="2">
+        <v>491</v>
+      </c>
       <c r="P144" t="s" s="2">
         <v>82</v>
       </c>
@@ -19619,34 +20034,34 @@
         <v>82</v>
       </c>
       <c r="AF144" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="AG144" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH144" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI144" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ144" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK144" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="AL144" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="AM144" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN144" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="AO144" t="s" s="2">
         <v>495</v>
-      </c>
-      <c r="AG144" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH144" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI144" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ144" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK144" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AL144" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM144" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN144" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO144" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AP144" t="s" s="2">
         <v>82</v>
@@ -19668,29 +20083,31 @@
         <v>80</v>
       </c>
       <c r="G145" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H145" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I145" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J145" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>177</v>
+        <v>497</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="N145" s="2"/>
+        <v>499</v>
+      </c>
+      <c r="N145" t="s" s="2">
+        <v>500</v>
+      </c>
       <c r="O145" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="P145" t="s" s="2">
         <v>82</v>
@@ -19715,13 +20132,13 @@
         <v>82</v>
       </c>
       <c r="X145" t="s" s="2">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="Y145" t="s" s="2">
-        <v>500</v>
+        <v>82</v>
       </c>
       <c r="Z145" t="s" s="2">
-        <v>501</v>
+        <v>82</v>
       </c>
       <c r="AA145" t="s" s="2">
         <v>82</v>
@@ -19745,7 +20162,7 @@
         <v>80</v>
       </c>
       <c r="AH145" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI145" t="s" s="2">
         <v>82</v>
@@ -19788,7 +20205,7 @@
         <v>80</v>
       </c>
       <c r="G146" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H146" t="s" s="2">
         <v>82</v>
@@ -19797,20 +20214,22 @@
         <v>82</v>
       </c>
       <c r="J146" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>404</v>
+        <v>505</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="N146" s="2"/>
+        <v>507</v>
+      </c>
+      <c r="N146" t="s" s="2">
+        <v>508</v>
+      </c>
       <c r="O146" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="P146" t="s" s="2">
         <v>82</v>
@@ -19865,7 +20284,7 @@
         <v>80</v>
       </c>
       <c r="AH146" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI146" t="s" s="2">
         <v>82</v>
@@ -19874,16 +20293,16 @@
         <v>82</v>
       </c>
       <c r="AK146" t="s" s="2">
-        <v>409</v>
+        <v>510</v>
       </c>
       <c r="AL146" t="s" s="2">
-        <v>160</v>
+        <v>511</v>
       </c>
       <c r="AM146" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN146" t="s" s="2">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="AO146" t="s" s="2">
         <v>82</v>
@@ -19894,10 +20313,10 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -19908,7 +20327,7 @@
         <v>80</v>
       </c>
       <c r="G147" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H147" t="s" s="2">
         <v>82</v>
@@ -19920,20 +20339,16 @@
         <v>82</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>413</v>
+        <v>156</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="N147" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="O147" t="s" s="2">
-        <v>417</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="N147" s="2"/>
+      <c r="O147" s="2"/>
       <c r="P147" t="s" s="2">
         <v>82</v>
       </c>
@@ -19981,13 +20396,13 @@
         <v>82</v>
       </c>
       <c r="AF147" t="s" s="2">
-        <v>509</v>
+        <v>159</v>
       </c>
       <c r="AG147" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH147" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI147" t="s" s="2">
         <v>82</v>
@@ -19996,16 +20411,16 @@
         <v>82</v>
       </c>
       <c r="AK147" t="s" s="2">
-        <v>418</v>
+        <v>160</v>
       </c>
       <c r="AL147" t="s" s="2">
-        <v>160</v>
+        <v>82</v>
       </c>
       <c r="AM147" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN147" t="s" s="2">
-        <v>513</v>
+        <v>82</v>
       </c>
       <c r="AO147" t="s" s="2">
         <v>82</v>
@@ -20016,21 +20431,21 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="E148" s="2"/>
       <c r="F148" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G148" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H148" t="s" s="2">
         <v>82</v>
@@ -20042,18 +20457,18 @@
         <v>82</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>450</v>
+        <v>136</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>515</v>
+        <v>137</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="N148" s="2"/>
-      <c r="O148" t="s" s="2">
-        <v>517</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="N148" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="O148" s="2"/>
       <c r="P148" t="s" s="2">
         <v>82</v>
       </c>
@@ -20089,25 +20504,25 @@
         <v>82</v>
       </c>
       <c r="AB148" t="s" s="2">
-        <v>82</v>
+        <v>163</v>
       </c>
       <c r="AC148" t="s" s="2">
-        <v>82</v>
+        <v>164</v>
       </c>
       <c r="AD148" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>82</v>
+        <v>151</v>
       </c>
       <c r="AF148" t="s" s="2">
-        <v>514</v>
+        <v>165</v>
       </c>
       <c r="AG148" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH148" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI148" t="s" s="2">
         <v>82</v>
@@ -20116,16 +20531,16 @@
         <v>82</v>
       </c>
       <c r="AK148" t="s" s="2">
-        <v>455</v>
+        <v>160</v>
       </c>
       <c r="AL148" t="s" s="2">
-        <v>160</v>
+        <v>82</v>
       </c>
       <c r="AM148" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN148" t="s" s="2">
-        <v>518</v>
+        <v>82</v>
       </c>
       <c r="AO148" t="s" s="2">
         <v>82</v>
@@ -20136,10 +20551,10 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -20156,23 +20571,25 @@
         <v>82</v>
       </c>
       <c r="I149" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J149" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K149" t="s" s="2">
         <v>109</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>422</v>
+        <v>517</v>
       </c>
       <c r="M149" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="N149" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="O149" t="s" s="2">
         <v>520</v>
-      </c>
-      <c r="N149" s="2"/>
-      <c r="O149" t="s" s="2">
-        <v>521</v>
       </c>
       <c r="P149" t="s" s="2">
         <v>82</v>
@@ -20185,7 +20602,7 @@
         <v>82</v>
       </c>
       <c r="T149" t="s" s="2">
-        <v>82</v>
+        <v>521</v>
       </c>
       <c r="U149" t="s" s="2">
         <v>82</v>
@@ -20200,10 +20617,10 @@
         <v>171</v>
       </c>
       <c r="Y149" t="s" s="2">
-        <v>426</v>
+        <v>522</v>
       </c>
       <c r="Z149" t="s" s="2">
-        <v>427</v>
+        <v>523</v>
       </c>
       <c r="AA149" t="s" s="2">
         <v>82</v>
@@ -20221,7 +20638,7 @@
         <v>82</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="AG149" t="s" s="2">
         <v>80</v>
@@ -20236,16 +20653,16 @@
         <v>82</v>
       </c>
       <c r="AK149" t="s" s="2">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="AL149" t="s" s="2">
-        <v>160</v>
+        <v>82</v>
       </c>
       <c r="AM149" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN149" t="s" s="2">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="AO149" t="s" s="2">
         <v>82</v>
@@ -20256,10 +20673,10 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -20279,21 +20696,19 @@
         <v>82</v>
       </c>
       <c r="J150" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>270</v>
+        <v>109</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="N150" s="2"/>
-      <c r="O150" t="s" s="2">
-        <v>526</v>
-      </c>
+      <c r="O150" s="2"/>
       <c r="P150" t="s" s="2">
         <v>82</v>
       </c>
@@ -20305,7 +20720,7 @@
         <v>82</v>
       </c>
       <c r="T150" t="s" s="2">
-        <v>82</v>
+        <v>529</v>
       </c>
       <c r="U150" t="s" s="2">
         <v>82</v>
@@ -20317,13 +20732,13 @@
         <v>82</v>
       </c>
       <c r="X150" t="s" s="2">
-        <v>82</v>
+        <v>171</v>
       </c>
       <c r="Y150" t="s" s="2">
-        <v>82</v>
+        <v>530</v>
       </c>
       <c r="Z150" t="s" s="2">
-        <v>82</v>
+        <v>531</v>
       </c>
       <c r="AA150" t="s" s="2">
         <v>82</v>
@@ -20341,7 +20756,7 @@
         <v>82</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>523</v>
+        <v>532</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>80</v>
@@ -20350,22 +20765,22 @@
         <v>90</v>
       </c>
       <c r="AI150" t="s" s="2">
-        <v>527</v>
+        <v>82</v>
       </c>
       <c r="AJ150" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AK150" t="s" s="2">
-        <v>528</v>
+        <v>422</v>
       </c>
       <c r="AL150" t="s" s="2">
-        <v>160</v>
+        <v>82</v>
       </c>
       <c r="AM150" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN150" t="s" s="2">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="AO150" t="s" s="2">
         <v>82</v>
@@ -20376,10 +20791,10 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -20399,19 +20814,23 @@
         <v>82</v>
       </c>
       <c r="J151" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>263</v>
+        <v>156</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="N151" s="2"/>
-      <c r="O151" s="2"/>
+        <v>536</v>
+      </c>
+      <c r="N151" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="O151" t="s" s="2">
+        <v>428</v>
+      </c>
       <c r="P151" t="s" s="2">
         <v>82</v>
       </c>
@@ -20423,7 +20842,7 @@
         <v>82</v>
       </c>
       <c r="T151" t="s" s="2">
-        <v>82</v>
+        <v>538</v>
       </c>
       <c r="U151" t="s" s="2">
         <v>82</v>
@@ -20459,7 +20878,7 @@
         <v>82</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>530</v>
+        <v>539</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>80</v>
@@ -20474,16 +20893,16 @@
         <v>82</v>
       </c>
       <c r="AK151" t="s" s="2">
-        <v>533</v>
+        <v>430</v>
       </c>
       <c r="AL151" t="s" s="2">
-        <v>160</v>
+        <v>82</v>
       </c>
       <c r="AM151" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN151" t="s" s="2">
-        <v>82</v>
+        <v>540</v>
       </c>
       <c r="AO151" t="s" s="2">
         <v>82</v>
@@ -20494,10 +20913,10 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -20508,31 +20927,29 @@
         <v>80</v>
       </c>
       <c r="G152" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H152" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I152" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J152" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>483</v>
+        <v>156</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="N152" t="s" s="2">
-        <v>537</v>
-      </c>
+        <v>543</v>
+      </c>
+      <c r="N152" s="2"/>
       <c r="O152" t="s" s="2">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="P152" t="s" s="2">
         <v>82</v>
@@ -20545,7 +20962,7 @@
         <v>82</v>
       </c>
       <c r="T152" t="s" s="2">
-        <v>82</v>
+        <v>545</v>
       </c>
       <c r="U152" t="s" s="2">
         <v>82</v>
@@ -20581,31 +20998,31 @@
         <v>82</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>534</v>
+        <v>546</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH152" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI152" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ152" t="s" s="2">
-        <v>539</v>
+        <v>82</v>
       </c>
       <c r="AK152" t="s" s="2">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="AL152" t="s" s="2">
-        <v>160</v>
+        <v>82</v>
       </c>
       <c r="AM152" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN152" t="s" s="2">
-        <v>82</v>
+        <v>548</v>
       </c>
       <c r="AO152" t="s" s="2">
         <v>82</v>
@@ -20616,14 +21033,14 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
-        <v>82</v>
+        <v>550</v>
       </c>
       <c r="E153" s="2"/>
       <c r="F153" t="s" s="2">
@@ -20639,16 +21056,16 @@
         <v>82</v>
       </c>
       <c r="J153" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K153" t="s" s="2">
         <v>156</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>157</v>
+        <v>551</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>158</v>
+        <v>552</v>
       </c>
       <c r="N153" s="2"/>
       <c r="O153" s="2"/>
@@ -20663,7 +21080,7 @@
         <v>82</v>
       </c>
       <c r="T153" t="s" s="2">
-        <v>82</v>
+        <v>553</v>
       </c>
       <c r="U153" t="s" s="2">
         <v>82</v>
@@ -20699,7 +21116,7 @@
         <v>82</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>159</v>
+        <v>554</v>
       </c>
       <c r="AG153" t="s" s="2">
         <v>80</v>
@@ -20714,7 +21131,7 @@
         <v>82</v>
       </c>
       <c r="AK153" t="s" s="2">
-        <v>160</v>
+        <v>555</v>
       </c>
       <c r="AL153" t="s" s="2">
         <v>82</v>
@@ -20723,7 +21140,7 @@
         <v>82</v>
       </c>
       <c r="AN153" t="s" s="2">
-        <v>82</v>
+        <v>556</v>
       </c>
       <c r="AO153" t="s" s="2">
         <v>82</v>
@@ -20734,21 +21151,21 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>542</v>
+        <v>557</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>542</v>
+        <v>557</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
-        <v>135</v>
+        <v>558</v>
       </c>
       <c r="E154" s="2"/>
       <c r="F154" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G154" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H154" t="s" s="2">
         <v>82</v>
@@ -20757,19 +21174,19 @@
         <v>82</v>
       </c>
       <c r="J154" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>137</v>
+        <v>559</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>162</v>
+        <v>560</v>
       </c>
       <c r="N154" t="s" s="2">
-        <v>139</v>
+        <v>561</v>
       </c>
       <c r="O154" s="2"/>
       <c r="P154" t="s" s="2">
@@ -20783,7 +21200,7 @@
         <v>82</v>
       </c>
       <c r="T154" t="s" s="2">
-        <v>82</v>
+        <v>562</v>
       </c>
       <c r="U154" t="s" s="2">
         <v>82</v>
@@ -20819,13 +21236,13 @@
         <v>82</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>165</v>
+        <v>563</v>
       </c>
       <c r="AG154" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH154" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI154" t="s" s="2">
         <v>82</v>
@@ -20834,7 +21251,7 @@
         <v>82</v>
       </c>
       <c r="AK154" t="s" s="2">
-        <v>160</v>
+        <v>564</v>
       </c>
       <c r="AL154" t="s" s="2">
         <v>82</v>
@@ -20843,7 +21260,7 @@
         <v>82</v>
       </c>
       <c r="AN154" t="s" s="2">
-        <v>82</v>
+        <v>565</v>
       </c>
       <c r="AO154" t="s" s="2">
         <v>82</v>
@@ -20854,43 +21271,41 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>543</v>
+        <v>566</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>543</v>
+        <v>566</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
-        <v>493</v>
+        <v>567</v>
       </c>
       <c r="E155" s="2"/>
       <c r="F155" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G155" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H155" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I155" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J155" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>142</v>
+        <v>568</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="N155" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>569</v>
+      </c>
+      <c r="N155" s="2"/>
       <c r="O155" s="2"/>
       <c r="P155" t="s" s="2">
         <v>82</v>
@@ -20939,13 +21354,13 @@
         <v>82</v>
       </c>
       <c r="AF155" t="s" s="2">
-        <v>495</v>
+        <v>570</v>
       </c>
       <c r="AG155" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH155" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI155" t="s" s="2">
         <v>82</v>
@@ -20954,7 +21369,7 @@
         <v>82</v>
       </c>
       <c r="AK155" t="s" s="2">
-        <v>133</v>
+        <v>571</v>
       </c>
       <c r="AL155" t="s" s="2">
         <v>82</v>
@@ -20963,7 +21378,7 @@
         <v>82</v>
       </c>
       <c r="AN155" t="s" s="2">
-        <v>82</v>
+        <v>572</v>
       </c>
       <c r="AO155" t="s" s="2">
         <v>82</v>
@@ -20974,18 +21389,18 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>544</v>
+        <v>573</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>544</v>
+        <v>573</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
-        <v>82</v>
+        <v>574</v>
       </c>
       <c r="E156" s="2"/>
       <c r="F156" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G156" t="s" s="2">
         <v>90</v>
@@ -21000,20 +21415,16 @@
         <v>91</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="N156" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="O156" t="s" s="2">
-        <v>548</v>
-      </c>
+        <v>576</v>
+      </c>
+      <c r="N156" s="2"/>
+      <c r="O156" s="2"/>
       <c r="P156" t="s" s="2">
         <v>82</v>
       </c>
@@ -21025,7 +21436,7 @@
         <v>82</v>
       </c>
       <c r="T156" t="s" s="2">
-        <v>82</v>
+        <v>577</v>
       </c>
       <c r="U156" t="s" s="2">
         <v>82</v>
@@ -21037,13 +21448,13 @@
         <v>82</v>
       </c>
       <c r="X156" t="s" s="2">
-        <v>549</v>
+        <v>82</v>
       </c>
       <c r="Y156" t="s" s="2">
-        <v>550</v>
+        <v>82</v>
       </c>
       <c r="Z156" t="s" s="2">
-        <v>551</v>
+        <v>82</v>
       </c>
       <c r="AA156" t="s" s="2">
         <v>82</v>
@@ -21061,10 +21472,10 @@
         <v>82</v>
       </c>
       <c r="AF156" t="s" s="2">
-        <v>544</v>
+        <v>578</v>
       </c>
       <c r="AG156" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH156" t="s" s="2">
         <v>90</v>
@@ -21076,16 +21487,16 @@
         <v>82</v>
       </c>
       <c r="AK156" t="s" s="2">
-        <v>502</v>
+        <v>579</v>
       </c>
       <c r="AL156" t="s" s="2">
-        <v>160</v>
+        <v>82</v>
       </c>
       <c r="AM156" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN156" t="s" s="2">
-        <v>552</v>
+        <v>580</v>
       </c>
       <c r="AO156" t="s" s="2">
         <v>82</v>
@@ -21096,10 +21507,10 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>553</v>
+        <v>581</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>553</v>
+        <v>581</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -21122,20 +21533,18 @@
         <v>91</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>554</v>
+        <v>582</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>555</v>
+        <v>583</v>
       </c>
       <c r="N157" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="O157" t="s" s="2">
-        <v>557</v>
-      </c>
+        <v>584</v>
+      </c>
+      <c r="O157" s="2"/>
       <c r="P157" t="s" s="2">
         <v>82</v>
       </c>
@@ -21159,13 +21568,13 @@
         <v>82</v>
       </c>
       <c r="X157" t="s" s="2">
-        <v>549</v>
+        <v>82</v>
       </c>
       <c r="Y157" t="s" s="2">
-        <v>558</v>
+        <v>82</v>
       </c>
       <c r="Z157" t="s" s="2">
-        <v>559</v>
+        <v>82</v>
       </c>
       <c r="AA157" t="s" s="2">
         <v>82</v>
@@ -21183,7 +21592,7 @@
         <v>82</v>
       </c>
       <c r="AF157" t="s" s="2">
-        <v>553</v>
+        <v>585</v>
       </c>
       <c r="AG157" t="s" s="2">
         <v>80</v>
@@ -21198,16 +21607,16 @@
         <v>82</v>
       </c>
       <c r="AK157" t="s" s="2">
-        <v>560</v>
+        <v>586</v>
       </c>
       <c r="AL157" t="s" s="2">
-        <v>160</v>
+        <v>82</v>
       </c>
       <c r="AM157" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN157" t="s" s="2">
-        <v>561</v>
+        <v>587</v>
       </c>
       <c r="AO157" t="s" s="2">
         <v>82</v>
@@ -21218,10 +21627,10 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>562</v>
+        <v>588</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>562</v>
+        <v>588</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
@@ -21244,17 +21653,17 @@
         <v>91</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>177</v>
+        <v>263</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>563</v>
+        <v>589</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>564</v>
+        <v>590</v>
       </c>
       <c r="N158" s="2"/>
       <c r="O158" t="s" s="2">
-        <v>565</v>
+        <v>591</v>
       </c>
       <c r="P158" t="s" s="2">
         <v>82</v>
@@ -21267,7 +21676,7 @@
         <v>82</v>
       </c>
       <c r="T158" t="s" s="2">
-        <v>82</v>
+        <v>592</v>
       </c>
       <c r="U158" t="s" s="2">
         <v>82</v>
@@ -21279,13 +21688,13 @@
         <v>82</v>
       </c>
       <c r="X158" t="s" s="2">
-        <v>549</v>
+        <v>82</v>
       </c>
       <c r="Y158" t="s" s="2">
-        <v>566</v>
+        <v>82</v>
       </c>
       <c r="Z158" t="s" s="2">
-        <v>567</v>
+        <v>82</v>
       </c>
       <c r="AA158" t="s" s="2">
         <v>82</v>
@@ -21303,7 +21712,7 @@
         <v>82</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>562</v>
+        <v>593</v>
       </c>
       <c r="AG158" t="s" s="2">
         <v>80</v>
@@ -21318,16 +21727,16 @@
         <v>82</v>
       </c>
       <c r="AK158" t="s" s="2">
-        <v>568</v>
+        <v>465</v>
       </c>
       <c r="AL158" t="s" s="2">
-        <v>160</v>
+        <v>82</v>
       </c>
       <c r="AM158" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN158" t="s" s="2">
-        <v>133</v>
+        <v>594</v>
       </c>
       <c r="AO158" t="s" s="2">
         <v>82</v>
@@ -21338,10 +21747,10 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>569</v>
+        <v>595</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>569</v>
+        <v>595</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -21352,7 +21761,7 @@
         <v>80</v>
       </c>
       <c r="G159" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H159" t="s" s="2">
         <v>82</v>
@@ -21364,19 +21773,17 @@
         <v>82</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>483</v>
+        <v>177</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>570</v>
+        <v>596</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="N159" t="s" s="2">
-        <v>572</v>
-      </c>
+        <v>597</v>
+      </c>
+      <c r="N159" s="2"/>
       <c r="O159" t="s" s="2">
-        <v>573</v>
+        <v>598</v>
       </c>
       <c r="P159" t="s" s="2">
         <v>82</v>
@@ -21401,13 +21808,13 @@
         <v>82</v>
       </c>
       <c r="X159" t="s" s="2">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="Y159" t="s" s="2">
-        <v>82</v>
+        <v>599</v>
       </c>
       <c r="Z159" t="s" s="2">
-        <v>82</v>
+        <v>600</v>
       </c>
       <c r="AA159" t="s" s="2">
         <v>82</v>
@@ -21425,31 +21832,31 @@
         <v>82</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>569</v>
+        <v>595</v>
       </c>
       <c r="AG159" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH159" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI159" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ159" t="s" s="2">
-        <v>539</v>
+        <v>82</v>
       </c>
       <c r="AK159" t="s" s="2">
-        <v>574</v>
+        <v>601</v>
       </c>
       <c r="AL159" t="s" s="2">
-        <v>575</v>
+        <v>602</v>
       </c>
       <c r="AM159" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN159" t="s" s="2">
-        <v>82</v>
+        <v>603</v>
       </c>
       <c r="AO159" t="s" s="2">
         <v>82</v>
@@ -21460,10 +21867,10 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>576</v>
+        <v>604</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>576</v>
+        <v>604</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -21486,16 +21893,20 @@
         <v>82</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>156</v>
+        <v>605</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>157</v>
+        <v>606</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N160" s="2"/>
-      <c r="O160" s="2"/>
+        <v>607</v>
+      </c>
+      <c r="N160" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="O160" t="s" s="2">
+        <v>609</v>
+      </c>
       <c r="P160" t="s" s="2">
         <v>82</v>
       </c>
@@ -21543,7 +21954,7 @@
         <v>82</v>
       </c>
       <c r="AF160" t="s" s="2">
-        <v>159</v>
+        <v>604</v>
       </c>
       <c r="AG160" t="s" s="2">
         <v>80</v>
@@ -21558,16 +21969,16 @@
         <v>82</v>
       </c>
       <c r="AK160" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="AL160" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="AL160" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="AM160" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN160" t="s" s="2">
-        <v>82</v>
+        <v>611</v>
       </c>
       <c r="AO160" t="s" s="2">
         <v>82</v>
@@ -21578,14 +21989,14 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>577</v>
+        <v>612</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>577</v>
+        <v>612</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
-        <v>135</v>
+        <v>82</v>
       </c>
       <c r="E161" s="2"/>
       <c r="F161" t="s" s="2">
@@ -21604,18 +22015,18 @@
         <v>82</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>136</v>
+        <v>613</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>137</v>
+        <v>614</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N161" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O161" s="2"/>
+        <v>615</v>
+      </c>
+      <c r="N161" s="2"/>
+      <c r="O161" t="s" s="2">
+        <v>616</v>
+      </c>
       <c r="P161" t="s" s="2">
         <v>82</v>
       </c>
@@ -21663,7 +22074,7 @@
         <v>82</v>
       </c>
       <c r="AF161" t="s" s="2">
-        <v>165</v>
+        <v>612</v>
       </c>
       <c r="AG161" t="s" s="2">
         <v>80</v>
@@ -21678,16 +22089,16 @@
         <v>82</v>
       </c>
       <c r="AK161" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="AL161" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="AL161" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="AM161" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN161" t="s" s="2">
-        <v>82</v>
+        <v>618</v>
       </c>
       <c r="AO161" t="s" s="2">
         <v>82</v>
@@ -21698,14 +22109,14 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>578</v>
+        <v>619</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>578</v>
+        <v>619</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
-        <v>493</v>
+        <v>82</v>
       </c>
       <c r="E162" s="2"/>
       <c r="F162" t="s" s="2">
@@ -21718,24 +22129,26 @@
         <v>82</v>
       </c>
       <c r="I162" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J162" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>136</v>
+        <v>620</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>142</v>
+        <v>621</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>494</v>
+        <v>622</v>
       </c>
       <c r="N162" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O162" s="2"/>
+        <v>623</v>
+      </c>
+      <c r="O162" t="s" s="2">
+        <v>624</v>
+      </c>
       <c r="P162" t="s" s="2">
         <v>82</v>
       </c>
@@ -21783,7 +22196,7 @@
         <v>82</v>
       </c>
       <c r="AF162" t="s" s="2">
-        <v>495</v>
+        <v>619</v>
       </c>
       <c r="AG162" t="s" s="2">
         <v>80</v>
@@ -21795,13 +22208,13 @@
         <v>82</v>
       </c>
       <c r="AJ162" t="s" s="2">
-        <v>82</v>
+        <v>625</v>
       </c>
       <c r="AK162" t="s" s="2">
-        <v>133</v>
+        <v>626</v>
       </c>
       <c r="AL162" t="s" s="2">
-        <v>82</v>
+        <v>160</v>
       </c>
       <c r="AM162" t="s" s="2">
         <v>82</v>
@@ -21818,10 +22231,10 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>579</v>
+        <v>627</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>579</v>
+        <v>627</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
@@ -21829,7 +22242,7 @@
       </c>
       <c r="E163" s="2"/>
       <c r="F163" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G163" t="s" s="2">
         <v>90</v>
@@ -21844,20 +22257,16 @@
         <v>82</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>580</v>
+        <v>157</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="N163" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="O163" t="s" s="2">
-        <v>583</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="N163" s="2"/>
+      <c r="O163" s="2"/>
       <c r="P163" t="s" s="2">
         <v>82</v>
       </c>
@@ -21881,13 +22290,13 @@
         <v>82</v>
       </c>
       <c r="X163" t="s" s="2">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="Y163" t="s" s="2">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="Z163" t="s" s="2">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="AA163" t="s" s="2">
         <v>82</v>
@@ -21905,10 +22314,10 @@
         <v>82</v>
       </c>
       <c r="AF163" t="s" s="2">
-        <v>579</v>
+        <v>159</v>
       </c>
       <c r="AG163" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH163" t="s" s="2">
         <v>90</v>
@@ -21920,16 +22329,16 @@
         <v>82</v>
       </c>
       <c r="AK163" t="s" s="2">
-        <v>584</v>
+        <v>160</v>
       </c>
       <c r="AL163" t="s" s="2">
-        <v>585</v>
+        <v>82</v>
       </c>
       <c r="AM163" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN163" t="s" s="2">
-        <v>586</v>
+        <v>82</v>
       </c>
       <c r="AO163" t="s" s="2">
         <v>82</v>
@@ -21940,21 +22349,21 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>587</v>
+        <v>628</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>587</v>
+        <v>628</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="E164" s="2"/>
       <c r="F164" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G164" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H164" t="s" s="2">
         <v>82</v>
@@ -21966,20 +22375,18 @@
         <v>82</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>230</v>
+        <v>136</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>588</v>
+        <v>137</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>589</v>
+        <v>162</v>
       </c>
       <c r="N164" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="O164" t="s" s="2">
-        <v>591</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="O164" s="2"/>
       <c r="P164" t="s" s="2">
         <v>82</v>
       </c>
@@ -22027,13 +22434,13 @@
         <v>82</v>
       </c>
       <c r="AF164" t="s" s="2">
-        <v>587</v>
+        <v>165</v>
       </c>
       <c r="AG164" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH164" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI164" t="s" s="2">
         <v>82</v>
@@ -22042,16 +22449,16 @@
         <v>82</v>
       </c>
       <c r="AK164" t="s" s="2">
-        <v>592</v>
+        <v>160</v>
       </c>
       <c r="AL164" t="s" s="2">
-        <v>593</v>
+        <v>82</v>
       </c>
       <c r="AM164" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN164" t="s" s="2">
-        <v>594</v>
+        <v>82</v>
       </c>
       <c r="AO164" t="s" s="2">
         <v>82</v>
@@ -22062,14 +22469,14 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>595</v>
+        <v>629</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>595</v>
+        <v>629</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
-        <v>596</v>
+        <v>630</v>
       </c>
       <c r="E165" s="2"/>
       <c r="F165" t="s" s="2">
@@ -22082,22 +22489,22 @@
         <v>82</v>
       </c>
       <c r="I165" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J165" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>597</v>
+        <v>136</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>598</v>
+        <v>142</v>
       </c>
       <c r="M165" t="s" s="2">
-        <v>599</v>
+        <v>631</v>
       </c>
       <c r="N165" t="s" s="2">
-        <v>600</v>
+        <v>139</v>
       </c>
       <c r="O165" s="2"/>
       <c r="P165" t="s" s="2">
@@ -22147,7 +22554,7 @@
         <v>82</v>
       </c>
       <c r="AF165" t="s" s="2">
-        <v>595</v>
+        <v>632</v>
       </c>
       <c r="AG165" t="s" s="2">
         <v>80</v>
@@ -22162,16 +22569,16 @@
         <v>82</v>
       </c>
       <c r="AK165" t="s" s="2">
-        <v>601</v>
+        <v>133</v>
       </c>
       <c r="AL165" t="s" s="2">
-        <v>160</v>
+        <v>82</v>
       </c>
       <c r="AM165" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN165" t="s" s="2">
-        <v>602</v>
+        <v>82</v>
       </c>
       <c r="AO165" t="s" s="2">
         <v>82</v>
@@ -22182,10 +22589,10 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>603</v>
+        <v>633</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>603</v>
+        <v>633</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
@@ -22196,7 +22603,7 @@
         <v>80</v>
       </c>
       <c r="G166" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H166" t="s" s="2">
         <v>82</v>
@@ -22205,22 +22612,20 @@
         <v>82</v>
       </c>
       <c r="J166" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>270</v>
+        <v>177</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>604</v>
+        <v>634</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>605</v>
-      </c>
-      <c r="N166" t="s" s="2">
-        <v>606</v>
-      </c>
+        <v>635</v>
+      </c>
+      <c r="N166" s="2"/>
       <c r="O166" t="s" s="2">
-        <v>607</v>
+        <v>636</v>
       </c>
       <c r="P166" t="s" s="2">
         <v>82</v>
@@ -22245,13 +22650,13 @@
         <v>82</v>
       </c>
       <c r="X166" t="s" s="2">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="Y166" t="s" s="2">
-        <v>82</v>
+        <v>637</v>
       </c>
       <c r="Z166" t="s" s="2">
-        <v>82</v>
+        <v>638</v>
       </c>
       <c r="AA166" t="s" s="2">
         <v>82</v>
@@ -22269,13 +22674,13 @@
         <v>82</v>
       </c>
       <c r="AF166" t="s" s="2">
-        <v>603</v>
+        <v>633</v>
       </c>
       <c r="AG166" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH166" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI166" t="s" s="2">
         <v>82</v>
@@ -22284,16 +22689,16 @@
         <v>82</v>
       </c>
       <c r="AK166" t="s" s="2">
-        <v>528</v>
+        <v>639</v>
       </c>
       <c r="AL166" t="s" s="2">
-        <v>608</v>
+        <v>160</v>
       </c>
       <c r="AM166" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN166" t="s" s="2">
-        <v>82</v>
+        <v>640</v>
       </c>
       <c r="AO166" t="s" s="2">
         <v>82</v>
@@ -22304,10 +22709,10 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>609</v>
+        <v>641</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>609</v>
+        <v>641</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
@@ -22318,31 +22723,29 @@
         <v>80</v>
       </c>
       <c r="G167" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H167" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I167" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J167" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>483</v>
+        <v>404</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>610</v>
+        <v>642</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>611</v>
-      </c>
-      <c r="N167" t="s" s="2">
-        <v>612</v>
-      </c>
+        <v>643</v>
+      </c>
+      <c r="N167" s="2"/>
       <c r="O167" t="s" s="2">
-        <v>613</v>
+        <v>644</v>
       </c>
       <c r="P167" t="s" s="2">
         <v>82</v>
@@ -22391,22 +22794,22 @@
         <v>82</v>
       </c>
       <c r="AF167" t="s" s="2">
-        <v>609</v>
+        <v>641</v>
       </c>
       <c r="AG167" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH167" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI167" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ167" t="s" s="2">
-        <v>539</v>
+        <v>82</v>
       </c>
       <c r="AK167" t="s" s="2">
-        <v>614</v>
+        <v>409</v>
       </c>
       <c r="AL167" t="s" s="2">
         <v>160</v>
@@ -22415,7 +22818,7 @@
         <v>82</v>
       </c>
       <c r="AN167" t="s" s="2">
-        <v>82</v>
+        <v>645</v>
       </c>
       <c r="AO167" t="s" s="2">
         <v>82</v>
@@ -22426,10 +22829,10 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>615</v>
+        <v>646</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>615</v>
+        <v>646</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" t="s" s="2">
@@ -22440,7 +22843,7 @@
         <v>80</v>
       </c>
       <c r="G168" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H168" t="s" s="2">
         <v>82</v>
@@ -22452,16 +22855,20 @@
         <v>82</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>156</v>
+        <v>468</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>157</v>
+        <v>647</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N168" s="2"/>
-      <c r="O168" s="2"/>
+        <v>648</v>
+      </c>
+      <c r="N168" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="O168" t="s" s="2">
+        <v>472</v>
+      </c>
       <c r="P168" t="s" s="2">
         <v>82</v>
       </c>
@@ -22509,13 +22916,13 @@
         <v>82</v>
       </c>
       <c r="AF168" t="s" s="2">
-        <v>159</v>
+        <v>646</v>
       </c>
       <c r="AG168" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH168" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI168" t="s" s="2">
         <v>82</v>
@@ -22524,16 +22931,16 @@
         <v>82</v>
       </c>
       <c r="AK168" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="AL168" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="AL168" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="AM168" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN168" t="s" s="2">
-        <v>82</v>
+        <v>650</v>
       </c>
       <c r="AO168" t="s" s="2">
         <v>82</v>
@@ -22544,21 +22951,21 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>616</v>
+        <v>651</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>616</v>
+        <v>651</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
-        <v>135</v>
+        <v>82</v>
       </c>
       <c r="E169" s="2"/>
       <c r="F169" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G169" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H169" t="s" s="2">
         <v>82</v>
@@ -22570,18 +22977,18 @@
         <v>82</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>136</v>
+        <v>505</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>137</v>
+        <v>652</v>
       </c>
       <c r="M169" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N169" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O169" s="2"/>
+        <v>653</v>
+      </c>
+      <c r="N169" s="2"/>
+      <c r="O169" t="s" s="2">
+        <v>654</v>
+      </c>
       <c r="P169" t="s" s="2">
         <v>82</v>
       </c>
@@ -22629,13 +23036,13 @@
         <v>82</v>
       </c>
       <c r="AF169" t="s" s="2">
-        <v>165</v>
+        <v>651</v>
       </c>
       <c r="AG169" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH169" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI169" t="s" s="2">
         <v>82</v>
@@ -22644,16 +23051,16 @@
         <v>82</v>
       </c>
       <c r="AK169" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="AL169" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="AL169" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="AM169" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN169" t="s" s="2">
-        <v>82</v>
+        <v>655</v>
       </c>
       <c r="AO169" t="s" s="2">
         <v>82</v>
@@ -22664,44 +23071,44 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>617</v>
+        <v>656</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>617</v>
+        <v>656</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
-        <v>493</v>
+        <v>82</v>
       </c>
       <c r="E170" s="2"/>
       <c r="F170" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G170" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H170" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I170" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J170" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>142</v>
+        <v>477</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="N170" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O170" s="2"/>
+        <v>657</v>
+      </c>
+      <c r="N170" s="2"/>
+      <c r="O170" t="s" s="2">
+        <v>658</v>
+      </c>
       <c r="P170" t="s" s="2">
         <v>82</v>
       </c>
@@ -22725,13 +23132,13 @@
         <v>82</v>
       </c>
       <c r="X170" t="s" s="2">
-        <v>82</v>
+        <v>171</v>
       </c>
       <c r="Y170" t="s" s="2">
-        <v>82</v>
+        <v>481</v>
       </c>
       <c r="Z170" t="s" s="2">
-        <v>82</v>
+        <v>482</v>
       </c>
       <c r="AA170" t="s" s="2">
         <v>82</v>
@@ -22749,13 +23156,13 @@
         <v>82</v>
       </c>
       <c r="AF170" t="s" s="2">
-        <v>495</v>
+        <v>656</v>
       </c>
       <c r="AG170" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH170" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI170" t="s" s="2">
         <v>82</v>
@@ -22764,16 +23171,16 @@
         <v>82</v>
       </c>
       <c r="AK170" t="s" s="2">
-        <v>133</v>
+        <v>483</v>
       </c>
       <c r="AL170" t="s" s="2">
-        <v>82</v>
+        <v>160</v>
       </c>
       <c r="AM170" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN170" t="s" s="2">
-        <v>82</v>
+        <v>659</v>
       </c>
       <c r="AO170" t="s" s="2">
         <v>82</v>
@@ -22784,10 +23191,10 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>618</v>
+        <v>660</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>618</v>
+        <v>660</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" t="s" s="2">
@@ -22795,7 +23202,7 @@
       </c>
       <c r="E171" s="2"/>
       <c r="F171" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G171" t="s" s="2">
         <v>90</v>
@@ -22807,21 +23214,21 @@
         <v>82</v>
       </c>
       <c r="J171" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>619</v>
+        <v>270</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>620</v>
+        <v>661</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>621</v>
-      </c>
-      <c r="N171" t="s" s="2">
-        <v>622</v>
-      </c>
-      <c r="O171" s="2"/>
+        <v>662</v>
+      </c>
+      <c r="N171" s="2"/>
+      <c r="O171" t="s" s="2">
+        <v>663</v>
+      </c>
       <c r="P171" t="s" s="2">
         <v>82</v>
       </c>
@@ -22869,22 +23276,22 @@
         <v>82</v>
       </c>
       <c r="AF171" t="s" s="2">
-        <v>618</v>
+        <v>660</v>
       </c>
       <c r="AG171" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH171" t="s" s="2">
         <v>90</v>
       </c>
       <c r="AI171" t="s" s="2">
-        <v>82</v>
+        <v>664</v>
       </c>
       <c r="AJ171" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AK171" t="s" s="2">
-        <v>152</v>
+        <v>665</v>
       </c>
       <c r="AL171" t="s" s="2">
         <v>160</v>
@@ -22893,7 +23300,7 @@
         <v>82</v>
       </c>
       <c r="AN171" t="s" s="2">
-        <v>623</v>
+        <v>666</v>
       </c>
       <c r="AO171" t="s" s="2">
         <v>82</v>
@@ -22904,10 +23311,10 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>624</v>
+        <v>667</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>624</v>
+        <v>667</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
@@ -22915,7 +23322,7 @@
       </c>
       <c r="E172" s="2"/>
       <c r="F172" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G172" t="s" s="2">
         <v>90</v>
@@ -22927,16 +23334,16 @@
         <v>82</v>
       </c>
       <c r="J172" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>109</v>
+        <v>263</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>625</v>
+        <v>668</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>626</v>
+        <v>669</v>
       </c>
       <c r="N172" s="2"/>
       <c r="O172" s="2"/>
@@ -22963,13 +23370,13 @@
         <v>82</v>
       </c>
       <c r="X172" t="s" s="2">
-        <v>171</v>
+        <v>82</v>
       </c>
       <c r="Y172" t="s" s="2">
-        <v>626</v>
+        <v>82</v>
       </c>
       <c r="Z172" t="s" s="2">
-        <v>627</v>
+        <v>82</v>
       </c>
       <c r="AA172" t="s" s="2">
         <v>82</v>
@@ -22987,10 +23394,10 @@
         <v>82</v>
       </c>
       <c r="AF172" t="s" s="2">
-        <v>624</v>
+        <v>667</v>
       </c>
       <c r="AG172" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH172" t="s" s="2">
         <v>90</v>
@@ -23002,7 +23409,7 @@
         <v>82</v>
       </c>
       <c r="AK172" t="s" s="2">
-        <v>628</v>
+        <v>670</v>
       </c>
       <c r="AL172" t="s" s="2">
         <v>160</v>
@@ -23020,8 +23427,2536 @@
         <v>82</v>
       </c>
     </row>
+    <row r="173" hidden="true">
+      <c r="A173" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="B173" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="C173" s="2"/>
+      <c r="D173" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E173" s="2"/>
+      <c r="F173" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G173" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H173" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I173" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="J173" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K173" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="L173" t="s" s="2">
+        <v>672</v>
+      </c>
+      <c r="M173" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="N173" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="O173" t="s" s="2">
+        <v>675</v>
+      </c>
+      <c r="P173" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q173" s="2"/>
+      <c r="R173" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S173" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T173" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U173" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V173" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W173" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X173" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y173" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z173" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA173" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB173" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC173" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD173" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE173" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF173" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="AG173" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH173" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI173" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ173" t="s" s="2">
+        <v>676</v>
+      </c>
+      <c r="AK173" t="s" s="2">
+        <v>677</v>
+      </c>
+      <c r="AL173" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AM173" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN173" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO173" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP173" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="174" hidden="true">
+      <c r="A174" t="s" s="2">
+        <v>678</v>
+      </c>
+      <c r="B174" t="s" s="2">
+        <v>678</v>
+      </c>
+      <c r="C174" s="2"/>
+      <c r="D174" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E174" s="2"/>
+      <c r="F174" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G174" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H174" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I174" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J174" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K174" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="L174" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="M174" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="N174" s="2"/>
+      <c r="O174" s="2"/>
+      <c r="P174" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q174" s="2"/>
+      <c r="R174" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S174" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T174" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U174" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V174" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W174" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X174" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y174" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z174" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA174" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB174" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC174" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD174" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE174" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF174" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AG174" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH174" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI174" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ174" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK174" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AL174" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM174" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN174" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO174" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP174" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="175" hidden="true">
+      <c r="A175" t="s" s="2">
+        <v>679</v>
+      </c>
+      <c r="B175" t="s" s="2">
+        <v>679</v>
+      </c>
+      <c r="C175" s="2"/>
+      <c r="D175" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="E175" s="2"/>
+      <c r="F175" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G175" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H175" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I175" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J175" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K175" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L175" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M175" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="N175" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="O175" s="2"/>
+      <c r="P175" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q175" s="2"/>
+      <c r="R175" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S175" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T175" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U175" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V175" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W175" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X175" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y175" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z175" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA175" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB175" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC175" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD175" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE175" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF175" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AG175" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH175" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI175" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ175" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK175" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AL175" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM175" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN175" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO175" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP175" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="176" hidden="true">
+      <c r="A176" t="s" s="2">
+        <v>680</v>
+      </c>
+      <c r="B176" t="s" s="2">
+        <v>680</v>
+      </c>
+      <c r="C176" s="2"/>
+      <c r="D176" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="E176" s="2"/>
+      <c r="F176" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G176" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H176" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I176" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="J176" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K176" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L176" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="M176" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="N176" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="O176" s="2"/>
+      <c r="P176" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q176" s="2"/>
+      <c r="R176" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S176" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T176" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U176" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V176" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W176" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X176" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y176" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z176" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA176" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB176" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC176" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD176" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE176" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF176" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="AG176" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH176" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI176" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ176" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK176" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AL176" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM176" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN176" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO176" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP176" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="177" hidden="true">
+      <c r="A177" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="B177" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="C177" s="2"/>
+      <c r="D177" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E177" s="2"/>
+      <c r="F177" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G177" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H177" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I177" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J177" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K177" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="L177" t="s" s="2">
+        <v>682</v>
+      </c>
+      <c r="M177" t="s" s="2">
+        <v>683</v>
+      </c>
+      <c r="N177" t="s" s="2">
+        <v>684</v>
+      </c>
+      <c r="O177" t="s" s="2">
+        <v>685</v>
+      </c>
+      <c r="P177" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q177" s="2"/>
+      <c r="R177" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S177" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T177" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U177" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V177" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W177" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X177" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="Y177" t="s" s="2">
+        <v>687</v>
+      </c>
+      <c r="Z177" t="s" s="2">
+        <v>688</v>
+      </c>
+      <c r="AA177" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB177" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC177" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD177" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE177" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF177" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="AG177" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH177" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI177" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ177" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK177" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="AL177" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AM177" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN177" t="s" s="2">
+        <v>689</v>
+      </c>
+      <c r="AO177" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP177" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="178" hidden="true">
+      <c r="A178" t="s" s="2">
+        <v>690</v>
+      </c>
+      <c r="B178" t="s" s="2">
+        <v>690</v>
+      </c>
+      <c r="C178" s="2"/>
+      <c r="D178" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E178" s="2"/>
+      <c r="F178" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G178" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H178" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I178" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J178" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K178" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="L178" t="s" s="2">
+        <v>691</v>
+      </c>
+      <c r="M178" t="s" s="2">
+        <v>692</v>
+      </c>
+      <c r="N178" t="s" s="2">
+        <v>693</v>
+      </c>
+      <c r="O178" t="s" s="2">
+        <v>694</v>
+      </c>
+      <c r="P178" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q178" s="2"/>
+      <c r="R178" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S178" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T178" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U178" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V178" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W178" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X178" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="Y178" t="s" s="2">
+        <v>695</v>
+      </c>
+      <c r="Z178" t="s" s="2">
+        <v>696</v>
+      </c>
+      <c r="AA178" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB178" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC178" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD178" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE178" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF178" t="s" s="2">
+        <v>690</v>
+      </c>
+      <c r="AG178" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH178" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI178" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ178" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK178" t="s" s="2">
+        <v>697</v>
+      </c>
+      <c r="AL178" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AM178" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN178" t="s" s="2">
+        <v>698</v>
+      </c>
+      <c r="AO178" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP178" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="179" hidden="true">
+      <c r="A179" t="s" s="2">
+        <v>699</v>
+      </c>
+      <c r="B179" t="s" s="2">
+        <v>699</v>
+      </c>
+      <c r="C179" s="2"/>
+      <c r="D179" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E179" s="2"/>
+      <c r="F179" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G179" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H179" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I179" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J179" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K179" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="L179" t="s" s="2">
+        <v>700</v>
+      </c>
+      <c r="M179" t="s" s="2">
+        <v>701</v>
+      </c>
+      <c r="N179" s="2"/>
+      <c r="O179" t="s" s="2">
+        <v>702</v>
+      </c>
+      <c r="P179" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q179" s="2"/>
+      <c r="R179" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S179" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T179" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U179" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V179" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W179" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X179" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="Y179" t="s" s="2">
+        <v>703</v>
+      </c>
+      <c r="Z179" t="s" s="2">
+        <v>704</v>
+      </c>
+      <c r="AA179" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB179" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC179" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD179" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE179" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF179" t="s" s="2">
+        <v>699</v>
+      </c>
+      <c r="AG179" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH179" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI179" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ179" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK179" t="s" s="2">
+        <v>705</v>
+      </c>
+      <c r="AL179" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AM179" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN179" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AO179" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP179" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="180" hidden="true">
+      <c r="A180" t="s" s="2">
+        <v>706</v>
+      </c>
+      <c r="B180" t="s" s="2">
+        <v>706</v>
+      </c>
+      <c r="C180" s="2"/>
+      <c r="D180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E180" s="2"/>
+      <c r="F180" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G180" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K180" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="L180" t="s" s="2">
+        <v>707</v>
+      </c>
+      <c r="M180" t="s" s="2">
+        <v>708</v>
+      </c>
+      <c r="N180" t="s" s="2">
+        <v>709</v>
+      </c>
+      <c r="O180" t="s" s="2">
+        <v>710</v>
+      </c>
+      <c r="P180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q180" s="2"/>
+      <c r="R180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF180" t="s" s="2">
+        <v>706</v>
+      </c>
+      <c r="AG180" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH180" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ180" t="s" s="2">
+        <v>676</v>
+      </c>
+      <c r="AK180" t="s" s="2">
+        <v>711</v>
+      </c>
+      <c r="AL180" t="s" s="2">
+        <v>712</v>
+      </c>
+      <c r="AM180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP180" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="181" hidden="true">
+      <c r="A181" t="s" s="2">
+        <v>713</v>
+      </c>
+      <c r="B181" t="s" s="2">
+        <v>713</v>
+      </c>
+      <c r="C181" s="2"/>
+      <c r="D181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E181" s="2"/>
+      <c r="F181" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G181" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K181" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="L181" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="M181" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="N181" s="2"/>
+      <c r="O181" s="2"/>
+      <c r="P181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q181" s="2"/>
+      <c r="R181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF181" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AG181" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH181" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK181" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AL181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP181" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="182" hidden="true">
+      <c r="A182" t="s" s="2">
+        <v>714</v>
+      </c>
+      <c r="B182" t="s" s="2">
+        <v>714</v>
+      </c>
+      <c r="C182" s="2"/>
+      <c r="D182" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="E182" s="2"/>
+      <c r="F182" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G182" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H182" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I182" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J182" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K182" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L182" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M182" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="N182" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="O182" s="2"/>
+      <c r="P182" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q182" s="2"/>
+      <c r="R182" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S182" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T182" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U182" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V182" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W182" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X182" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y182" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z182" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA182" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB182" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC182" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD182" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE182" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF182" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AG182" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH182" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI182" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ182" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK182" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AL182" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM182" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN182" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO182" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP182" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="183" hidden="true">
+      <c r="A183" t="s" s="2">
+        <v>715</v>
+      </c>
+      <c r="B183" t="s" s="2">
+        <v>715</v>
+      </c>
+      <c r="C183" s="2"/>
+      <c r="D183" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="E183" s="2"/>
+      <c r="F183" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G183" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I183" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="J183" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K183" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L183" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="M183" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="N183" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="O183" s="2"/>
+      <c r="P183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q183" s="2"/>
+      <c r="R183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF183" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="AG183" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH183" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK183" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AL183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP183" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="184" hidden="true">
+      <c r="A184" t="s" s="2">
+        <v>716</v>
+      </c>
+      <c r="B184" t="s" s="2">
+        <v>716</v>
+      </c>
+      <c r="C184" s="2"/>
+      <c r="D184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E184" s="2"/>
+      <c r="F184" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G184" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K184" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="L184" t="s" s="2">
+        <v>717</v>
+      </c>
+      <c r="M184" t="s" s="2">
+        <v>718</v>
+      </c>
+      <c r="N184" t="s" s="2">
+        <v>719</v>
+      </c>
+      <c r="O184" t="s" s="2">
+        <v>720</v>
+      </c>
+      <c r="P184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q184" s="2"/>
+      <c r="R184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X184" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="Y184" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="Z184" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AA184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF184" t="s" s="2">
+        <v>716</v>
+      </c>
+      <c r="AG184" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH184" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK184" t="s" s="2">
+        <v>721</v>
+      </c>
+      <c r="AL184" t="s" s="2">
+        <v>722</v>
+      </c>
+      <c r="AM184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN184" t="s" s="2">
+        <v>723</v>
+      </c>
+      <c r="AO184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP184" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="185" hidden="true">
+      <c r="A185" t="s" s="2">
+        <v>724</v>
+      </c>
+      <c r="B185" t="s" s="2">
+        <v>724</v>
+      </c>
+      <c r="C185" s="2"/>
+      <c r="D185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E185" s="2"/>
+      <c r="F185" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G185" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K185" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="L185" t="s" s="2">
+        <v>725</v>
+      </c>
+      <c r="M185" t="s" s="2">
+        <v>726</v>
+      </c>
+      <c r="N185" t="s" s="2">
+        <v>727</v>
+      </c>
+      <c r="O185" t="s" s="2">
+        <v>728</v>
+      </c>
+      <c r="P185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q185" s="2"/>
+      <c r="R185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF185" t="s" s="2">
+        <v>724</v>
+      </c>
+      <c r="AG185" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH185" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK185" t="s" s="2">
+        <v>729</v>
+      </c>
+      <c r="AL185" t="s" s="2">
+        <v>730</v>
+      </c>
+      <c r="AM185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN185" t="s" s="2">
+        <v>731</v>
+      </c>
+      <c r="AO185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP185" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="186" hidden="true">
+      <c r="A186" t="s" s="2">
+        <v>732</v>
+      </c>
+      <c r="B186" t="s" s="2">
+        <v>732</v>
+      </c>
+      <c r="C186" s="2"/>
+      <c r="D186" t="s" s="2">
+        <v>733</v>
+      </c>
+      <c r="E186" s="2"/>
+      <c r="F186" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G186" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H186" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I186" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J186" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K186" t="s" s="2">
+        <v>734</v>
+      </c>
+      <c r="L186" t="s" s="2">
+        <v>735</v>
+      </c>
+      <c r="M186" t="s" s="2">
+        <v>736</v>
+      </c>
+      <c r="N186" t="s" s="2">
+        <v>737</v>
+      </c>
+      <c r="O186" s="2"/>
+      <c r="P186" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q186" s="2"/>
+      <c r="R186" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S186" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T186" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U186" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V186" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W186" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X186" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y186" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z186" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA186" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB186" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC186" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD186" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE186" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF186" t="s" s="2">
+        <v>732</v>
+      </c>
+      <c r="AG186" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH186" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI186" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ186" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK186" t="s" s="2">
+        <v>738</v>
+      </c>
+      <c r="AL186" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AM186" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN186" t="s" s="2">
+        <v>739</v>
+      </c>
+      <c r="AO186" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP186" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="187" hidden="true">
+      <c r="A187" t="s" s="2">
+        <v>740</v>
+      </c>
+      <c r="B187" t="s" s="2">
+        <v>740</v>
+      </c>
+      <c r="C187" s="2"/>
+      <c r="D187" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E187" s="2"/>
+      <c r="F187" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G187" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H187" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I187" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J187" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K187" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="L187" t="s" s="2">
+        <v>741</v>
+      </c>
+      <c r="M187" t="s" s="2">
+        <v>742</v>
+      </c>
+      <c r="N187" t="s" s="2">
+        <v>743</v>
+      </c>
+      <c r="O187" t="s" s="2">
+        <v>744</v>
+      </c>
+      <c r="P187" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q187" s="2"/>
+      <c r="R187" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S187" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T187" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U187" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V187" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W187" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X187" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y187" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z187" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA187" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB187" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC187" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD187" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE187" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF187" t="s" s="2">
+        <v>740</v>
+      </c>
+      <c r="AG187" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH187" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI187" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ187" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK187" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="AL187" t="s" s="2">
+        <v>745</v>
+      </c>
+      <c r="AM187" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN187" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO187" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP187" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="188" hidden="true">
+      <c r="A188" t="s" s="2">
+        <v>746</v>
+      </c>
+      <c r="B188" t="s" s="2">
+        <v>746</v>
+      </c>
+      <c r="C188" s="2"/>
+      <c r="D188" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E188" s="2"/>
+      <c r="F188" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G188" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H188" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I188" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="J188" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K188" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="L188" t="s" s="2">
+        <v>747</v>
+      </c>
+      <c r="M188" t="s" s="2">
+        <v>748</v>
+      </c>
+      <c r="N188" t="s" s="2">
+        <v>749</v>
+      </c>
+      <c r="O188" t="s" s="2">
+        <v>750</v>
+      </c>
+      <c r="P188" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q188" s="2"/>
+      <c r="R188" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S188" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T188" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U188" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V188" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W188" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X188" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y188" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z188" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA188" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB188" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC188" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD188" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE188" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF188" t="s" s="2">
+        <v>746</v>
+      </c>
+      <c r="AG188" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH188" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI188" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ188" t="s" s="2">
+        <v>676</v>
+      </c>
+      <c r="AK188" t="s" s="2">
+        <v>751</v>
+      </c>
+      <c r="AL188" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AM188" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN188" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO188" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP188" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="189" hidden="true">
+      <c r="A189" t="s" s="2">
+        <v>752</v>
+      </c>
+      <c r="B189" t="s" s="2">
+        <v>752</v>
+      </c>
+      <c r="C189" s="2"/>
+      <c r="D189" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E189" s="2"/>
+      <c r="F189" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G189" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H189" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I189" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J189" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K189" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="L189" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="M189" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="N189" s="2"/>
+      <c r="O189" s="2"/>
+      <c r="P189" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q189" s="2"/>
+      <c r="R189" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S189" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T189" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U189" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V189" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W189" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X189" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y189" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z189" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA189" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB189" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC189" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD189" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE189" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF189" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AG189" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH189" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI189" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ189" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK189" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AL189" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM189" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN189" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO189" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP189" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="190" hidden="true">
+      <c r="A190" t="s" s="2">
+        <v>753</v>
+      </c>
+      <c r="B190" t="s" s="2">
+        <v>753</v>
+      </c>
+      <c r="C190" s="2"/>
+      <c r="D190" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="E190" s="2"/>
+      <c r="F190" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G190" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H190" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I190" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J190" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K190" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L190" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M190" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="N190" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="O190" s="2"/>
+      <c r="P190" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q190" s="2"/>
+      <c r="R190" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S190" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T190" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U190" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V190" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W190" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X190" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y190" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z190" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA190" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB190" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC190" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD190" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE190" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF190" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AG190" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH190" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI190" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ190" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK190" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AL190" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM190" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN190" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO190" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP190" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="191" hidden="true">
+      <c r="A191" t="s" s="2">
+        <v>754</v>
+      </c>
+      <c r="B191" t="s" s="2">
+        <v>754</v>
+      </c>
+      <c r="C191" s="2"/>
+      <c r="D191" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="E191" s="2"/>
+      <c r="F191" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G191" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H191" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I191" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="J191" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K191" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L191" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="M191" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="N191" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="O191" s="2"/>
+      <c r="P191" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q191" s="2"/>
+      <c r="R191" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S191" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T191" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U191" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V191" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W191" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X191" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y191" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z191" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA191" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB191" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC191" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD191" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE191" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF191" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="AG191" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH191" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI191" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ191" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK191" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AL191" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM191" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN191" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO191" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP191" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="192" hidden="true">
+      <c r="A192" t="s" s="2">
+        <v>755</v>
+      </c>
+      <c r="B192" t="s" s="2">
+        <v>755</v>
+      </c>
+      <c r="C192" s="2"/>
+      <c r="D192" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E192" s="2"/>
+      <c r="F192" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G192" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H192" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I192" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J192" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K192" t="s" s="2">
+        <v>756</v>
+      </c>
+      <c r="L192" t="s" s="2">
+        <v>757</v>
+      </c>
+      <c r="M192" t="s" s="2">
+        <v>758</v>
+      </c>
+      <c r="N192" t="s" s="2">
+        <v>759</v>
+      </c>
+      <c r="O192" s="2"/>
+      <c r="P192" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q192" s="2"/>
+      <c r="R192" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S192" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T192" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U192" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V192" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W192" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X192" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y192" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z192" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA192" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB192" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC192" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD192" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE192" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF192" t="s" s="2">
+        <v>755</v>
+      </c>
+      <c r="AG192" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH192" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI192" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ192" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK192" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AL192" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AM192" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN192" t="s" s="2">
+        <v>760</v>
+      </c>
+      <c r="AO192" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP192" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="193" hidden="true">
+      <c r="A193" t="s" s="2">
+        <v>761</v>
+      </c>
+      <c r="B193" t="s" s="2">
+        <v>761</v>
+      </c>
+      <c r="C193" s="2"/>
+      <c r="D193" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E193" s="2"/>
+      <c r="F193" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G193" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H193" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I193" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J193" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K193" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L193" t="s" s="2">
+        <v>762</v>
+      </c>
+      <c r="M193" t="s" s="2">
+        <v>763</v>
+      </c>
+      <c r="N193" s="2"/>
+      <c r="O193" s="2"/>
+      <c r="P193" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q193" s="2"/>
+      <c r="R193" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S193" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T193" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U193" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V193" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W193" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X193" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="Y193" t="s" s="2">
+        <v>763</v>
+      </c>
+      <c r="Z193" t="s" s="2">
+        <v>764</v>
+      </c>
+      <c r="AA193" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB193" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC193" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD193" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE193" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF193" t="s" s="2">
+        <v>761</v>
+      </c>
+      <c r="AG193" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH193" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI193" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ193" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK193" t="s" s="2">
+        <v>765</v>
+      </c>
+      <c r="AL193" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AM193" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN193" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO193" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP193" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AP172">
+  <autoFilter ref="A1:AP193">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -23031,7 +25966,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI171">
+  <conditionalFormatting sqref="A2:AI192">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/branches/master/StructureDefinition-patient-pemh-profile.xlsx
+++ b/branches/master/StructureDefinition-patient-pemh-profile.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$193</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$213</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7397" uniqueCount="766">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8160" uniqueCount="789">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T22:10:16+00:00</t>
+    <t>2023-02-10T09:10:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1225,6 +1225,75 @@
   </si>
   <si>
     <t>Patient.identifier:NNU.assigner</t>
+  </si>
+  <si>
+    <t>Patient.identifier:NP</t>
+  </si>
+  <si>
+    <t>NP</t>
+  </si>
+  <si>
+    <t>Patient.identifier:NP.id</t>
+  </si>
+  <si>
+    <t>Patient.identifier:NP.extension</t>
+  </si>
+  <si>
+    <t>Patient.identifier:NP.use</t>
+  </si>
+  <si>
+    <t>Patient.identifier:NP.type</t>
+  </si>
+  <si>
+    <t>Patient.identifier:NP.type.id</t>
+  </si>
+  <si>
+    <t>Patient.identifier:NP.type.extension</t>
+  </si>
+  <si>
+    <t>Patient.identifier:NP.type.coding</t>
+  </si>
+  <si>
+    <t>Patient.identifier:NP.type.coding.id</t>
+  </si>
+  <si>
+    <t>Patient.identifier:NP.type.coding.extension</t>
+  </si>
+  <si>
+    <t>Patient.identifier:NP.type.coding.system</t>
+  </si>
+  <si>
+    <t>Patient.identifier:NP.type.coding.version</t>
+  </si>
+  <si>
+    <t>Patient.identifier:NP.type.coding.code</t>
+  </si>
+  <si>
+    <t>MR</t>
+  </si>
+  <si>
+    <t>Patient.identifier:NP.type.coding.display</t>
+  </si>
+  <si>
+    <t>Medical Record Number</t>
+  </si>
+  <si>
+    <t>Patient.identifier:NP.type.coding.userSelected</t>
+  </si>
+  <si>
+    <t>Patient.identifier:NP.type.text</t>
+  </si>
+  <si>
+    <t>Patient.identifier:NP.system</t>
+  </si>
+  <si>
+    <t>Patient.identifier:NP.value</t>
+  </si>
+  <si>
+    <t>Patient.identifier:NP.period</t>
+  </si>
+  <si>
+    <t>Patient.identifier:NP.assigner</t>
   </si>
   <si>
     <t>Patient.active</t>
@@ -2691,7 +2760,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP193"/>
+  <dimension ref="A1:AP213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -18384,9 +18453,11 @@
         <v>395</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="C131" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="C131" t="s" s="2">
+        <v>396</v>
+      </c>
       <c r="D131" t="s" s="2">
         <v>82</v>
       </c>
@@ -18398,31 +18469,29 @@
         <v>90</v>
       </c>
       <c r="H131" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="I131" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J131" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>230</v>
+        <v>146</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>396</v>
+        <v>147</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="N131" t="s" s="2">
-        <v>398</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="N131" s="2"/>
       <c r="O131" t="s" s="2">
-        <v>399</v>
+        <v>149</v>
       </c>
       <c r="P131" t="s" s="2">
-        <v>400</v>
+        <v>82</v>
       </c>
       <c r="Q131" s="2"/>
       <c r="R131" t="s" s="2">
@@ -18468,13 +18537,13 @@
         <v>82</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>395</v>
+        <v>145</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH131" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI131" t="s" s="2">
         <v>82</v>
@@ -18483,30 +18552,30 @@
         <v>82</v>
       </c>
       <c r="AK131" t="s" s="2">
-        <v>401</v>
+        <v>152</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="AM131" t="s" s="2">
-        <v>402</v>
+        <v>152</v>
       </c>
       <c r="AN131" t="s" s="2">
-        <v>82</v>
+        <v>154</v>
       </c>
       <c r="AO131" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP131" t="s" s="2">
-        <v>402</v>
+        <v>152</v>
       </c>
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>403</v>
+        <v>155</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -18517,7 +18586,7 @@
         <v>80</v>
       </c>
       <c r="G132" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H132" t="s" s="2">
         <v>82</v>
@@ -18526,23 +18595,19 @@
         <v>82</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>404</v>
+        <v>156</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>405</v>
+        <v>157</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="N132" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="O132" t="s" s="2">
-        <v>408</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="N132" s="2"/>
+      <c r="O132" s="2"/>
       <c r="P132" t="s" s="2">
         <v>82</v>
       </c>
@@ -18590,13 +18655,13 @@
         <v>82</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>403</v>
+        <v>159</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH132" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI132" t="s" s="2">
         <v>82</v>
@@ -18605,16 +18670,16 @@
         <v>82</v>
       </c>
       <c r="AK132" t="s" s="2">
-        <v>409</v>
+        <v>160</v>
       </c>
       <c r="AL132" t="s" s="2">
-        <v>410</v>
+        <v>82</v>
       </c>
       <c r="AM132" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN132" t="s" s="2">
-        <v>411</v>
+        <v>82</v>
       </c>
       <c r="AO132" t="s" s="2">
         <v>82</v>
@@ -18625,21 +18690,21 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>412</v>
+        <v>161</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="E133" s="2"/>
       <c r="F133" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G133" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H133" t="s" s="2">
         <v>82</v>
@@ -18651,15 +18716,17 @@
         <v>82</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N133" s="2"/>
+        <v>162</v>
+      </c>
+      <c r="N133" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O133" s="2"/>
       <c r="P133" t="s" s="2">
         <v>82</v>
@@ -18696,25 +18763,25 @@
         <v>82</v>
       </c>
       <c r="AB133" t="s" s="2">
-        <v>82</v>
+        <v>163</v>
       </c>
       <c r="AC133" t="s" s="2">
-        <v>82</v>
+        <v>164</v>
       </c>
       <c r="AD133" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>82</v>
+        <v>151</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH133" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI133" t="s" s="2">
         <v>82</v>
@@ -18743,44 +18810,46 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>413</v>
+        <v>166</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
-        <v>135</v>
+        <v>82</v>
       </c>
       <c r="E134" s="2"/>
       <c r="F134" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G134" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H134" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I134" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J134" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="N134" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O134" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="O134" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="P134" t="s" s="2">
         <v>82</v>
       </c>
@@ -18804,37 +18873,37 @@
         <v>82</v>
       </c>
       <c r="X134" t="s" s="2">
-        <v>82</v>
+        <v>171</v>
       </c>
       <c r="Y134" t="s" s="2">
-        <v>82</v>
+        <v>172</v>
       </c>
       <c r="Z134" t="s" s="2">
-        <v>82</v>
+        <v>173</v>
       </c>
       <c r="AA134" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB134" t="s" s="2">
-        <v>163</v>
+        <v>82</v>
       </c>
       <c r="AC134" t="s" s="2">
-        <v>164</v>
+        <v>82</v>
       </c>
       <c r="AD134" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH134" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI134" t="s" s="2">
         <v>82</v>
@@ -18843,7 +18912,7 @@
         <v>82</v>
       </c>
       <c r="AK134" t="s" s="2">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="AL134" t="s" s="2">
         <v>82</v>
@@ -18852,7 +18921,7 @@
         <v>82</v>
       </c>
       <c r="AN134" t="s" s="2">
-        <v>82</v>
+        <v>133</v>
       </c>
       <c r="AO134" t="s" s="2">
         <v>82</v>
@@ -18863,10 +18932,10 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>414</v>
+        <v>176</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -18883,25 +18952,25 @@
         <v>82</v>
       </c>
       <c r="I135" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J135" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>109</v>
+        <v>177</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>415</v>
+        <v>178</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>416</v>
+        <v>179</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>417</v>
+        <v>180</v>
       </c>
       <c r="O135" t="s" s="2">
-        <v>418</v>
+        <v>181</v>
       </c>
       <c r="P135" t="s" s="2">
         <v>82</v>
@@ -18926,13 +18995,13 @@
         <v>82</v>
       </c>
       <c r="X135" t="s" s="2">
-        <v>171</v>
+        <v>113</v>
       </c>
       <c r="Y135" t="s" s="2">
-        <v>419</v>
+        <v>182</v>
       </c>
       <c r="Z135" t="s" s="2">
-        <v>420</v>
+        <v>183</v>
       </c>
       <c r="AA135" t="s" s="2">
         <v>82</v>
@@ -18950,7 +19019,7 @@
         <v>82</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>421</v>
+        <v>184</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>80</v>
@@ -18965,7 +19034,7 @@
         <v>82</v>
       </c>
       <c r="AK135" t="s" s="2">
-        <v>422</v>
+        <v>175</v>
       </c>
       <c r="AL135" t="s" s="2">
         <v>82</v>
@@ -18974,7 +19043,7 @@
         <v>82</v>
       </c>
       <c r="AN135" t="s" s="2">
-        <v>423</v>
+        <v>185</v>
       </c>
       <c r="AO135" t="s" s="2">
         <v>82</v>
@@ -18985,10 +19054,10 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>424</v>
+        <v>401</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>424</v>
+        <v>186</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -19008,23 +19077,19 @@
         <v>82</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K136" t="s" s="2">
         <v>156</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>425</v>
+        <v>157</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="N136" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="O136" t="s" s="2">
-        <v>428</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="N136" s="2"/>
+      <c r="O136" s="2"/>
       <c r="P136" t="s" s="2">
         <v>82</v>
       </c>
@@ -19072,7 +19137,7 @@
         <v>82</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>429</v>
+        <v>159</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>80</v>
@@ -19087,7 +19152,7 @@
         <v>82</v>
       </c>
       <c r="AK136" t="s" s="2">
-        <v>430</v>
+        <v>160</v>
       </c>
       <c r="AL136" t="s" s="2">
         <v>82</v>
@@ -19096,7 +19161,7 @@
         <v>82</v>
       </c>
       <c r="AN136" t="s" s="2">
-        <v>431</v>
+        <v>82</v>
       </c>
       <c r="AO136" t="s" s="2">
         <v>82</v>
@@ -19107,21 +19172,21 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>432</v>
+        <v>402</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>432</v>
+        <v>187</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
-        <v>433</v>
+        <v>135</v>
       </c>
       <c r="E137" s="2"/>
       <c r="F137" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G137" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H137" t="s" s="2">
         <v>82</v>
@@ -19130,19 +19195,19 @@
         <v>82</v>
       </c>
       <c r="J137" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>434</v>
+        <v>137</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>435</v>
+        <v>162</v>
       </c>
       <c r="N137" t="s" s="2">
-        <v>436</v>
+        <v>139</v>
       </c>
       <c r="O137" s="2"/>
       <c r="P137" t="s" s="2">
@@ -19180,25 +19245,25 @@
         <v>82</v>
       </c>
       <c r="AB137" t="s" s="2">
-        <v>82</v>
+        <v>163</v>
       </c>
       <c r="AC137" t="s" s="2">
-        <v>82</v>
+        <v>164</v>
       </c>
       <c r="AD137" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>82</v>
+        <v>151</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>437</v>
+        <v>165</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH137" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI137" t="s" s="2">
         <v>82</v>
@@ -19207,7 +19272,7 @@
         <v>82</v>
       </c>
       <c r="AK137" t="s" s="2">
-        <v>438</v>
+        <v>160</v>
       </c>
       <c r="AL137" t="s" s="2">
         <v>82</v>
@@ -19216,7 +19281,7 @@
         <v>82</v>
       </c>
       <c r="AN137" t="s" s="2">
-        <v>439</v>
+        <v>82</v>
       </c>
       <c r="AO137" t="s" s="2">
         <v>82</v>
@@ -19227,14 +19292,14 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>440</v>
+        <v>403</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>440</v>
+        <v>188</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
-        <v>441</v>
+        <v>82</v>
       </c>
       <c r="E138" s="2"/>
       <c r="F138" t="s" s="2">
@@ -19253,18 +19318,20 @@
         <v>91</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>156</v>
+        <v>189</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>442</v>
+        <v>190</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>443</v>
+        <v>191</v>
       </c>
       <c r="N138" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="O138" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="O138" t="s" s="2">
+        <v>193</v>
+      </c>
       <c r="P138" t="s" s="2">
         <v>82</v>
       </c>
@@ -19312,7 +19379,7 @@
         <v>82</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>445</v>
+        <v>194</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>80</v>
@@ -19327,7 +19394,7 @@
         <v>82</v>
       </c>
       <c r="AK138" t="s" s="2">
-        <v>446</v>
+        <v>195</v>
       </c>
       <c r="AL138" t="s" s="2">
         <v>82</v>
@@ -19336,7 +19403,7 @@
         <v>82</v>
       </c>
       <c r="AN138" t="s" s="2">
-        <v>447</v>
+        <v>196</v>
       </c>
       <c r="AO138" t="s" s="2">
         <v>82</v>
@@ -19347,10 +19414,10 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>448</v>
+        <v>404</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>448</v>
+        <v>197</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -19361,7 +19428,7 @@
         <v>80</v>
       </c>
       <c r="G139" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H139" t="s" s="2">
         <v>82</v>
@@ -19370,16 +19437,16 @@
         <v>82</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K139" t="s" s="2">
         <v>156</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>449</v>
+        <v>157</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>450</v>
+        <v>158</v>
       </c>
       <c r="N139" s="2"/>
       <c r="O139" s="2"/>
@@ -19430,13 +19497,13 @@
         <v>82</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>451</v>
+        <v>159</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH139" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI139" t="s" s="2">
         <v>82</v>
@@ -19445,7 +19512,7 @@
         <v>82</v>
       </c>
       <c r="AK139" t="s" s="2">
-        <v>452</v>
+        <v>160</v>
       </c>
       <c r="AL139" t="s" s="2">
         <v>82</v>
@@ -19454,7 +19521,7 @@
         <v>82</v>
       </c>
       <c r="AN139" t="s" s="2">
-        <v>453</v>
+        <v>82</v>
       </c>
       <c r="AO139" t="s" s="2">
         <v>82</v>
@@ -19465,14 +19532,14 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>454</v>
+        <v>405</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>454</v>
+        <v>198</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="E140" s="2"/>
       <c r="F140" t="s" s="2">
@@ -19488,18 +19555,20 @@
         <v>82</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>455</v>
+        <v>137</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="N140" s="2"/>
+        <v>162</v>
+      </c>
+      <c r="N140" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O140" s="2"/>
       <c r="P140" t="s" s="2">
         <v>82</v>
@@ -19536,19 +19605,19 @@
         <v>82</v>
       </c>
       <c r="AB140" t="s" s="2">
-        <v>82</v>
+        <v>163</v>
       </c>
       <c r="AC140" t="s" s="2">
-        <v>82</v>
+        <v>164</v>
       </c>
       <c r="AD140" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>82</v>
+        <v>151</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>457</v>
+        <v>165</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>80</v>
@@ -19563,7 +19632,7 @@
         <v>82</v>
       </c>
       <c r="AK140" t="s" s="2">
-        <v>458</v>
+        <v>160</v>
       </c>
       <c r="AL140" t="s" s="2">
         <v>82</v>
@@ -19572,7 +19641,7 @@
         <v>82</v>
       </c>
       <c r="AN140" t="s" s="2">
-        <v>459</v>
+        <v>82</v>
       </c>
       <c r="AO140" t="s" s="2">
         <v>82</v>
@@ -19583,10 +19652,10 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>460</v>
+        <v>406</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>460</v>
+        <v>199</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -19609,17 +19678,19 @@
         <v>91</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>263</v>
+        <v>103</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>461</v>
+        <v>200</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="N141" s="2"/>
+        <v>201</v>
+      </c>
+      <c r="N141" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="O141" t="s" s="2">
-        <v>463</v>
+        <v>203</v>
       </c>
       <c r="P141" t="s" s="2">
         <v>82</v>
@@ -19668,7 +19739,7 @@
         <v>82</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>464</v>
+        <v>205</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>80</v>
@@ -19683,7 +19754,7 @@
         <v>82</v>
       </c>
       <c r="AK141" t="s" s="2">
-        <v>465</v>
+        <v>206</v>
       </c>
       <c r="AL141" t="s" s="2">
         <v>82</v>
@@ -19692,7 +19763,7 @@
         <v>82</v>
       </c>
       <c r="AN141" t="s" s="2">
-        <v>466</v>
+        <v>207</v>
       </c>
       <c r="AO141" t="s" s="2">
         <v>82</v>
@@ -19703,10 +19774,10 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>467</v>
+        <v>407</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>467</v>
+        <v>208</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -19717,7 +19788,7 @@
         <v>80</v>
       </c>
       <c r="G142" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H142" t="s" s="2">
         <v>82</v>
@@ -19729,20 +19800,18 @@
         <v>91</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>468</v>
+        <v>156</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>469</v>
+        <v>209</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>470</v>
+        <v>210</v>
       </c>
       <c r="N142" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="O142" t="s" s="2">
-        <v>472</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="O142" s="2"/>
       <c r="P142" t="s" s="2">
         <v>82</v>
       </c>
@@ -19790,13 +19859,13 @@
         <v>82</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>467</v>
+        <v>212</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH142" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI142" t="s" s="2">
         <v>82</v>
@@ -19805,16 +19874,16 @@
         <v>82</v>
       </c>
       <c r="AK142" t="s" s="2">
-        <v>473</v>
+        <v>213</v>
       </c>
       <c r="AL142" t="s" s="2">
-        <v>474</v>
+        <v>82</v>
       </c>
       <c r="AM142" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN142" t="s" s="2">
-        <v>475</v>
+        <v>214</v>
       </c>
       <c r="AO142" t="s" s="2">
         <v>82</v>
@@ -19825,10 +19894,10 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>476</v>
+        <v>408</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>476</v>
+        <v>215</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -19854,16 +19923,14 @@
         <v>109</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>477</v>
+        <v>216</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="N143" t="s" s="2">
-        <v>479</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N143" s="2"/>
       <c r="O143" t="s" s="2">
-        <v>480</v>
+        <v>218</v>
       </c>
       <c r="P143" t="s" s="2">
         <v>82</v>
@@ -19873,7 +19940,7 @@
         <v>82</v>
       </c>
       <c r="S143" t="s" s="2">
-        <v>82</v>
+        <v>409</v>
       </c>
       <c r="T143" t="s" s="2">
         <v>82</v>
@@ -19888,13 +19955,13 @@
         <v>82</v>
       </c>
       <c r="X143" t="s" s="2">
-        <v>171</v>
+        <v>82</v>
       </c>
       <c r="Y143" t="s" s="2">
-        <v>481</v>
+        <v>82</v>
       </c>
       <c r="Z143" t="s" s="2">
-        <v>482</v>
+        <v>82</v>
       </c>
       <c r="AA143" t="s" s="2">
         <v>82</v>
@@ -19912,7 +19979,7 @@
         <v>82</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>476</v>
+        <v>219</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>80</v>
@@ -19927,16 +19994,16 @@
         <v>82</v>
       </c>
       <c r="AK143" t="s" s="2">
-        <v>483</v>
+        <v>220</v>
       </c>
       <c r="AL143" t="s" s="2">
-        <v>484</v>
+        <v>82</v>
       </c>
       <c r="AM143" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN143" t="s" s="2">
-        <v>485</v>
+        <v>221</v>
       </c>
       <c r="AO143" t="s" s="2">
         <v>82</v>
@@ -19947,10 +20014,10 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>486</v>
+        <v>410</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>486</v>
+        <v>222</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -19973,19 +20040,17 @@
         <v>91</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>487</v>
+        <v>156</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>488</v>
+        <v>223</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="N144" t="s" s="2">
-        <v>490</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="N144" s="2"/>
       <c r="O144" t="s" s="2">
-        <v>491</v>
+        <v>225</v>
       </c>
       <c r="P144" t="s" s="2">
         <v>82</v>
@@ -19995,7 +20060,7 @@
         <v>82</v>
       </c>
       <c r="S144" t="s" s="2">
-        <v>82</v>
+        <v>411</v>
       </c>
       <c r="T144" t="s" s="2">
         <v>82</v>
@@ -20034,7 +20099,7 @@
         <v>82</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>486</v>
+        <v>226</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>80</v>
@@ -20049,19 +20114,19 @@
         <v>82</v>
       </c>
       <c r="AK144" t="s" s="2">
-        <v>492</v>
+        <v>227</v>
       </c>
       <c r="AL144" t="s" s="2">
-        <v>493</v>
+        <v>82</v>
       </c>
       <c r="AM144" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN144" t="s" s="2">
-        <v>494</v>
+        <v>228</v>
       </c>
       <c r="AO144" t="s" s="2">
-        <v>495</v>
+        <v>82</v>
       </c>
       <c r="AP144" t="s" s="2">
         <v>82</v>
@@ -20069,10 +20134,10 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>496</v>
+        <v>412</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>496</v>
+        <v>229</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -20089,25 +20154,25 @@
         <v>82</v>
       </c>
       <c r="I145" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J145" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>497</v>
+        <v>230</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>498</v>
+        <v>231</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>499</v>
+        <v>232</v>
       </c>
       <c r="N145" t="s" s="2">
-        <v>500</v>
+        <v>233</v>
       </c>
       <c r="O145" t="s" s="2">
-        <v>501</v>
+        <v>234</v>
       </c>
       <c r="P145" t="s" s="2">
         <v>82</v>
@@ -20156,7 +20221,7 @@
         <v>82</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>496</v>
+        <v>235</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>80</v>
@@ -20171,16 +20236,16 @@
         <v>82</v>
       </c>
       <c r="AK145" t="s" s="2">
-        <v>502</v>
+        <v>236</v>
       </c>
       <c r="AL145" t="s" s="2">
-        <v>160</v>
+        <v>82</v>
       </c>
       <c r="AM145" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN145" t="s" s="2">
-        <v>503</v>
+        <v>237</v>
       </c>
       <c r="AO145" t="s" s="2">
         <v>82</v>
@@ -20191,10 +20256,10 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>504</v>
+        <v>413</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>504</v>
+        <v>238</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -20205,7 +20270,7 @@
         <v>80</v>
       </c>
       <c r="G146" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H146" t="s" s="2">
         <v>82</v>
@@ -20217,19 +20282,19 @@
         <v>91</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>505</v>
+        <v>156</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>506</v>
+        <v>239</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>507</v>
+        <v>240</v>
       </c>
       <c r="N146" t="s" s="2">
-        <v>508</v>
+        <v>241</v>
       </c>
       <c r="O146" t="s" s="2">
-        <v>509</v>
+        <v>242</v>
       </c>
       <c r="P146" t="s" s="2">
         <v>82</v>
@@ -20278,13 +20343,13 @@
         <v>82</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>504</v>
+        <v>243</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH146" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI146" t="s" s="2">
         <v>82</v>
@@ -20293,16 +20358,16 @@
         <v>82</v>
       </c>
       <c r="AK146" t="s" s="2">
-        <v>510</v>
+        <v>244</v>
       </c>
       <c r="AL146" t="s" s="2">
-        <v>511</v>
+        <v>82</v>
       </c>
       <c r="AM146" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN146" t="s" s="2">
-        <v>512</v>
+        <v>245</v>
       </c>
       <c r="AO146" t="s" s="2">
         <v>82</v>
@@ -20313,10 +20378,10 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>513</v>
+        <v>414</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>513</v>
+        <v>246</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -20336,19 +20401,21 @@
         <v>82</v>
       </c>
       <c r="J147" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>156</v>
+        <v>103</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>514</v>
+        <v>247</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>158</v>
+        <v>248</v>
       </c>
       <c r="N147" s="2"/>
-      <c r="O147" s="2"/>
+      <c r="O147" t="s" s="2">
+        <v>249</v>
+      </c>
       <c r="P147" t="s" s="2">
         <v>82</v>
       </c>
@@ -20360,7 +20427,7 @@
         <v>82</v>
       </c>
       <c r="T147" t="s" s="2">
-        <v>82</v>
+        <v>250</v>
       </c>
       <c r="U147" t="s" s="2">
         <v>82</v>
@@ -20396,7 +20463,7 @@
         <v>82</v>
       </c>
       <c r="AF147" t="s" s="2">
-        <v>159</v>
+        <v>251</v>
       </c>
       <c r="AG147" t="s" s="2">
         <v>80</v>
@@ -20411,7 +20478,7 @@
         <v>82</v>
       </c>
       <c r="AK147" t="s" s="2">
-        <v>160</v>
+        <v>252</v>
       </c>
       <c r="AL147" t="s" s="2">
         <v>82</v>
@@ -20420,7 +20487,7 @@
         <v>82</v>
       </c>
       <c r="AN147" t="s" s="2">
-        <v>82</v>
+        <v>253</v>
       </c>
       <c r="AO147" t="s" s="2">
         <v>82</v>
@@ -20431,21 +20498,21 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>515</v>
+        <v>415</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>515</v>
+        <v>254</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
-        <v>135</v>
+        <v>82</v>
       </c>
       <c r="E148" s="2"/>
       <c r="F148" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G148" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H148" t="s" s="2">
         <v>82</v>
@@ -20454,19 +20521,19 @@
         <v>82</v>
       </c>
       <c r="J148" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>137</v>
+        <v>255</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>162</v>
+        <v>256</v>
       </c>
       <c r="N148" t="s" s="2">
-        <v>139</v>
+        <v>257</v>
       </c>
       <c r="O148" s="2"/>
       <c r="P148" t="s" s="2">
@@ -20480,7 +20547,7 @@
         <v>82</v>
       </c>
       <c r="T148" t="s" s="2">
-        <v>82</v>
+        <v>258</v>
       </c>
       <c r="U148" t="s" s="2">
         <v>82</v>
@@ -20504,25 +20571,25 @@
         <v>82</v>
       </c>
       <c r="AB148" t="s" s="2">
-        <v>163</v>
+        <v>82</v>
       </c>
       <c r="AC148" t="s" s="2">
-        <v>164</v>
+        <v>82</v>
       </c>
       <c r="AD148" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="AF148" t="s" s="2">
-        <v>165</v>
+        <v>259</v>
       </c>
       <c r="AG148" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH148" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI148" t="s" s="2">
         <v>82</v>
@@ -20531,7 +20598,7 @@
         <v>82</v>
       </c>
       <c r="AK148" t="s" s="2">
-        <v>160</v>
+        <v>260</v>
       </c>
       <c r="AL148" t="s" s="2">
         <v>82</v>
@@ -20540,7 +20607,7 @@
         <v>82</v>
       </c>
       <c r="AN148" t="s" s="2">
-        <v>82</v>
+        <v>261</v>
       </c>
       <c r="AO148" t="s" s="2">
         <v>82</v>
@@ -20551,10 +20618,10 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>516</v>
+        <v>416</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>516</v>
+        <v>262</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -20571,26 +20638,22 @@
         <v>82</v>
       </c>
       <c r="I149" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J149" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>109</v>
+        <v>263</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>517</v>
+        <v>264</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="N149" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="O149" t="s" s="2">
-        <v>520</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="N149" s="2"/>
+      <c r="O149" s="2"/>
       <c r="P149" t="s" s="2">
         <v>82</v>
       </c>
@@ -20602,7 +20665,7 @@
         <v>82</v>
       </c>
       <c r="T149" t="s" s="2">
-        <v>521</v>
+        <v>82</v>
       </c>
       <c r="U149" t="s" s="2">
         <v>82</v>
@@ -20614,13 +20677,13 @@
         <v>82</v>
       </c>
       <c r="X149" t="s" s="2">
-        <v>171</v>
+        <v>82</v>
       </c>
       <c r="Y149" t="s" s="2">
-        <v>522</v>
+        <v>82</v>
       </c>
       <c r="Z149" t="s" s="2">
-        <v>523</v>
+        <v>82</v>
       </c>
       <c r="AA149" t="s" s="2">
         <v>82</v>
@@ -20638,7 +20701,7 @@
         <v>82</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>524</v>
+        <v>266</v>
       </c>
       <c r="AG149" t="s" s="2">
         <v>80</v>
@@ -20653,7 +20716,7 @@
         <v>82</v>
       </c>
       <c r="AK149" t="s" s="2">
-        <v>422</v>
+        <v>267</v>
       </c>
       <c r="AL149" t="s" s="2">
         <v>82</v>
@@ -20662,7 +20725,7 @@
         <v>82</v>
       </c>
       <c r="AN149" t="s" s="2">
-        <v>525</v>
+        <v>268</v>
       </c>
       <c r="AO149" t="s" s="2">
         <v>82</v>
@@ -20673,10 +20736,10 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>526</v>
+        <v>417</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>526</v>
+        <v>269</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -20699,15 +20762,17 @@
         <v>91</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>109</v>
+        <v>270</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>527</v>
+        <v>271</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="N150" s="2"/>
+        <v>272</v>
+      </c>
+      <c r="N150" t="s" s="2">
+        <v>273</v>
+      </c>
       <c r="O150" s="2"/>
       <c r="P150" t="s" s="2">
         <v>82</v>
@@ -20720,7 +20785,7 @@
         <v>82</v>
       </c>
       <c r="T150" t="s" s="2">
-        <v>529</v>
+        <v>82</v>
       </c>
       <c r="U150" t="s" s="2">
         <v>82</v>
@@ -20732,13 +20797,13 @@
         <v>82</v>
       </c>
       <c r="X150" t="s" s="2">
-        <v>171</v>
+        <v>82</v>
       </c>
       <c r="Y150" t="s" s="2">
-        <v>530</v>
+        <v>82</v>
       </c>
       <c r="Z150" t="s" s="2">
-        <v>531</v>
+        <v>82</v>
       </c>
       <c r="AA150" t="s" s="2">
         <v>82</v>
@@ -20756,7 +20821,7 @@
         <v>82</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>532</v>
+        <v>274</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>80</v>
@@ -20771,7 +20836,7 @@
         <v>82</v>
       </c>
       <c r="AK150" t="s" s="2">
-        <v>422</v>
+        <v>275</v>
       </c>
       <c r="AL150" t="s" s="2">
         <v>82</v>
@@ -20780,7 +20845,7 @@
         <v>82</v>
       </c>
       <c r="AN150" t="s" s="2">
-        <v>533</v>
+        <v>276</v>
       </c>
       <c r="AO150" t="s" s="2">
         <v>82</v>
@@ -20791,10 +20856,10 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>534</v>
+        <v>418</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>534</v>
+        <v>418</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -20811,28 +20876,28 @@
         <v>82</v>
       </c>
       <c r="I151" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J151" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>156</v>
+        <v>230</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>535</v>
+        <v>419</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>536</v>
+        <v>420</v>
       </c>
       <c r="N151" t="s" s="2">
-        <v>537</v>
+        <v>421</v>
       </c>
       <c r="O151" t="s" s="2">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="P151" t="s" s="2">
-        <v>82</v>
+        <v>423</v>
       </c>
       <c r="Q151" s="2"/>
       <c r="R151" t="s" s="2">
@@ -20842,7 +20907,7 @@
         <v>82</v>
       </c>
       <c r="T151" t="s" s="2">
-        <v>538</v>
+        <v>82</v>
       </c>
       <c r="U151" t="s" s="2">
         <v>82</v>
@@ -20878,7 +20943,7 @@
         <v>82</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>539</v>
+        <v>418</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>80</v>
@@ -20893,30 +20958,30 @@
         <v>82</v>
       </c>
       <c r="AK151" t="s" s="2">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="AL151" t="s" s="2">
-        <v>82</v>
+        <v>160</v>
       </c>
       <c r="AM151" t="s" s="2">
-        <v>82</v>
+        <v>425</v>
       </c>
       <c r="AN151" t="s" s="2">
-        <v>540</v>
+        <v>82</v>
       </c>
       <c r="AO151" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP151" t="s" s="2">
-        <v>82</v>
+        <v>425</v>
       </c>
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>541</v>
+        <v>426</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>541</v>
+        <v>426</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -20939,17 +21004,19 @@
         <v>91</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>156</v>
+        <v>427</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>542</v>
+        <v>428</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="N152" s="2"/>
+        <v>429</v>
+      </c>
+      <c r="N152" t="s" s="2">
+        <v>430</v>
+      </c>
       <c r="O152" t="s" s="2">
-        <v>544</v>
+        <v>431</v>
       </c>
       <c r="P152" t="s" s="2">
         <v>82</v>
@@ -20962,7 +21029,7 @@
         <v>82</v>
       </c>
       <c r="T152" t="s" s="2">
-        <v>545</v>
+        <v>82</v>
       </c>
       <c r="U152" t="s" s="2">
         <v>82</v>
@@ -20998,7 +21065,7 @@
         <v>82</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>546</v>
+        <v>426</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>80</v>
@@ -21013,16 +21080,16 @@
         <v>82</v>
       </c>
       <c r="AK152" t="s" s="2">
-        <v>547</v>
+        <v>432</v>
       </c>
       <c r="AL152" t="s" s="2">
-        <v>82</v>
+        <v>433</v>
       </c>
       <c r="AM152" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN152" t="s" s="2">
-        <v>548</v>
+        <v>434</v>
       </c>
       <c r="AO152" t="s" s="2">
         <v>82</v>
@@ -21033,14 +21100,14 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>549</v>
+        <v>435</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>549</v>
+        <v>435</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
-        <v>550</v>
+        <v>82</v>
       </c>
       <c r="E153" s="2"/>
       <c r="F153" t="s" s="2">
@@ -21056,16 +21123,16 @@
         <v>82</v>
       </c>
       <c r="J153" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K153" t="s" s="2">
         <v>156</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>551</v>
+        <v>157</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>552</v>
+        <v>158</v>
       </c>
       <c r="N153" s="2"/>
       <c r="O153" s="2"/>
@@ -21080,7 +21147,7 @@
         <v>82</v>
       </c>
       <c r="T153" t="s" s="2">
-        <v>553</v>
+        <v>82</v>
       </c>
       <c r="U153" t="s" s="2">
         <v>82</v>
@@ -21116,7 +21183,7 @@
         <v>82</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>554</v>
+        <v>159</v>
       </c>
       <c r="AG153" t="s" s="2">
         <v>80</v>
@@ -21131,7 +21198,7 @@
         <v>82</v>
       </c>
       <c r="AK153" t="s" s="2">
-        <v>555</v>
+        <v>160</v>
       </c>
       <c r="AL153" t="s" s="2">
         <v>82</v>
@@ -21140,7 +21207,7 @@
         <v>82</v>
       </c>
       <c r="AN153" t="s" s="2">
-        <v>556</v>
+        <v>82</v>
       </c>
       <c r="AO153" t="s" s="2">
         <v>82</v>
@@ -21151,21 +21218,21 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>557</v>
+        <v>436</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>557</v>
+        <v>436</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
-        <v>558</v>
+        <v>135</v>
       </c>
       <c r="E154" s="2"/>
       <c r="F154" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G154" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H154" t="s" s="2">
         <v>82</v>
@@ -21174,19 +21241,19 @@
         <v>82</v>
       </c>
       <c r="J154" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>559</v>
+        <v>137</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>560</v>
+        <v>162</v>
       </c>
       <c r="N154" t="s" s="2">
-        <v>561</v>
+        <v>139</v>
       </c>
       <c r="O154" s="2"/>
       <c r="P154" t="s" s="2">
@@ -21200,7 +21267,7 @@
         <v>82</v>
       </c>
       <c r="T154" t="s" s="2">
-        <v>562</v>
+        <v>82</v>
       </c>
       <c r="U154" t="s" s="2">
         <v>82</v>
@@ -21224,25 +21291,25 @@
         <v>82</v>
       </c>
       <c r="AB154" t="s" s="2">
-        <v>82</v>
+        <v>163</v>
       </c>
       <c r="AC154" t="s" s="2">
-        <v>82</v>
+        <v>164</v>
       </c>
       <c r="AD154" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>82</v>
+        <v>151</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>563</v>
+        <v>165</v>
       </c>
       <c r="AG154" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH154" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI154" t="s" s="2">
         <v>82</v>
@@ -21251,7 +21318,7 @@
         <v>82</v>
       </c>
       <c r="AK154" t="s" s="2">
-        <v>564</v>
+        <v>160</v>
       </c>
       <c r="AL154" t="s" s="2">
         <v>82</v>
@@ -21260,7 +21327,7 @@
         <v>82</v>
       </c>
       <c r="AN154" t="s" s="2">
-        <v>565</v>
+        <v>82</v>
       </c>
       <c r="AO154" t="s" s="2">
         <v>82</v>
@@ -21271,14 +21338,14 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>566</v>
+        <v>437</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>566</v>
+        <v>437</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
-        <v>567</v>
+        <v>82</v>
       </c>
       <c r="E155" s="2"/>
       <c r="F155" t="s" s="2">
@@ -21291,22 +21358,26 @@
         <v>82</v>
       </c>
       <c r="I155" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J155" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>156</v>
+        <v>109</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>568</v>
+        <v>438</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="N155" s="2"/>
-      <c r="O155" s="2"/>
+        <v>439</v>
+      </c>
+      <c r="N155" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="O155" t="s" s="2">
+        <v>441</v>
+      </c>
       <c r="P155" t="s" s="2">
         <v>82</v>
       </c>
@@ -21330,13 +21401,13 @@
         <v>82</v>
       </c>
       <c r="X155" t="s" s="2">
-        <v>82</v>
+        <v>171</v>
       </c>
       <c r="Y155" t="s" s="2">
-        <v>82</v>
+        <v>442</v>
       </c>
       <c r="Z155" t="s" s="2">
-        <v>82</v>
+        <v>443</v>
       </c>
       <c r="AA155" t="s" s="2">
         <v>82</v>
@@ -21354,7 +21425,7 @@
         <v>82</v>
       </c>
       <c r="AF155" t="s" s="2">
-        <v>570</v>
+        <v>444</v>
       </c>
       <c r="AG155" t="s" s="2">
         <v>80</v>
@@ -21369,7 +21440,7 @@
         <v>82</v>
       </c>
       <c r="AK155" t="s" s="2">
-        <v>571</v>
+        <v>445</v>
       </c>
       <c r="AL155" t="s" s="2">
         <v>82</v>
@@ -21378,7 +21449,7 @@
         <v>82</v>
       </c>
       <c r="AN155" t="s" s="2">
-        <v>572</v>
+        <v>446</v>
       </c>
       <c r="AO155" t="s" s="2">
         <v>82</v>
@@ -21389,14 +21460,14 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>573</v>
+        <v>447</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>573</v>
+        <v>447</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
-        <v>574</v>
+        <v>82</v>
       </c>
       <c r="E156" s="2"/>
       <c r="F156" t="s" s="2">
@@ -21418,13 +21489,17 @@
         <v>156</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>575</v>
+        <v>448</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="N156" s="2"/>
-      <c r="O156" s="2"/>
+        <v>449</v>
+      </c>
+      <c r="N156" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="O156" t="s" s="2">
+        <v>451</v>
+      </c>
       <c r="P156" t="s" s="2">
         <v>82</v>
       </c>
@@ -21436,7 +21511,7 @@
         <v>82</v>
       </c>
       <c r="T156" t="s" s="2">
-        <v>577</v>
+        <v>82</v>
       </c>
       <c r="U156" t="s" s="2">
         <v>82</v>
@@ -21472,7 +21547,7 @@
         <v>82</v>
       </c>
       <c r="AF156" t="s" s="2">
-        <v>578</v>
+        <v>452</v>
       </c>
       <c r="AG156" t="s" s="2">
         <v>80</v>
@@ -21487,7 +21562,7 @@
         <v>82</v>
       </c>
       <c r="AK156" t="s" s="2">
-        <v>579</v>
+        <v>453</v>
       </c>
       <c r="AL156" t="s" s="2">
         <v>82</v>
@@ -21496,7 +21571,7 @@
         <v>82</v>
       </c>
       <c r="AN156" t="s" s="2">
-        <v>580</v>
+        <v>454</v>
       </c>
       <c r="AO156" t="s" s="2">
         <v>82</v>
@@ -21507,14 +21582,14 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>581</v>
+        <v>455</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>581</v>
+        <v>455</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
-        <v>82</v>
+        <v>456</v>
       </c>
       <c r="E157" s="2"/>
       <c r="F157" t="s" s="2">
@@ -21536,13 +21611,13 @@
         <v>156</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>582</v>
+        <v>457</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>583</v>
+        <v>458</v>
       </c>
       <c r="N157" t="s" s="2">
-        <v>584</v>
+        <v>459</v>
       </c>
       <c r="O157" s="2"/>
       <c r="P157" t="s" s="2">
@@ -21592,7 +21667,7 @@
         <v>82</v>
       </c>
       <c r="AF157" t="s" s="2">
-        <v>585</v>
+        <v>460</v>
       </c>
       <c r="AG157" t="s" s="2">
         <v>80</v>
@@ -21607,7 +21682,7 @@
         <v>82</v>
       </c>
       <c r="AK157" t="s" s="2">
-        <v>586</v>
+        <v>461</v>
       </c>
       <c r="AL157" t="s" s="2">
         <v>82</v>
@@ -21616,7 +21691,7 @@
         <v>82</v>
       </c>
       <c r="AN157" t="s" s="2">
-        <v>587</v>
+        <v>462</v>
       </c>
       <c r="AO157" t="s" s="2">
         <v>82</v>
@@ -21627,21 +21702,21 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>588</v>
+        <v>463</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>588</v>
+        <v>463</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
-        <v>82</v>
+        <v>464</v>
       </c>
       <c r="E158" s="2"/>
       <c r="F158" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G158" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H158" t="s" s="2">
         <v>82</v>
@@ -21653,18 +21728,18 @@
         <v>91</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>263</v>
+        <v>156</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>589</v>
+        <v>465</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="N158" s="2"/>
-      <c r="O158" t="s" s="2">
-        <v>591</v>
-      </c>
+        <v>466</v>
+      </c>
+      <c r="N158" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="O158" s="2"/>
       <c r="P158" t="s" s="2">
         <v>82</v>
       </c>
@@ -21676,7 +21751,7 @@
         <v>82</v>
       </c>
       <c r="T158" t="s" s="2">
-        <v>592</v>
+        <v>82</v>
       </c>
       <c r="U158" t="s" s="2">
         <v>82</v>
@@ -21712,13 +21787,13 @@
         <v>82</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>593</v>
+        <v>468</v>
       </c>
       <c r="AG158" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH158" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI158" t="s" s="2">
         <v>82</v>
@@ -21727,7 +21802,7 @@
         <v>82</v>
       </c>
       <c r="AK158" t="s" s="2">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="AL158" t="s" s="2">
         <v>82</v>
@@ -21736,7 +21811,7 @@
         <v>82</v>
       </c>
       <c r="AN158" t="s" s="2">
-        <v>594</v>
+        <v>470</v>
       </c>
       <c r="AO158" t="s" s="2">
         <v>82</v>
@@ -21747,10 +21822,10 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>595</v>
+        <v>471</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>595</v>
+        <v>471</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -21761,7 +21836,7 @@
         <v>80</v>
       </c>
       <c r="G159" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H159" t="s" s="2">
         <v>82</v>
@@ -21770,21 +21845,19 @@
         <v>82</v>
       </c>
       <c r="J159" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>596</v>
+        <v>472</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>597</v>
+        <v>473</v>
       </c>
       <c r="N159" s="2"/>
-      <c r="O159" t="s" s="2">
-        <v>598</v>
-      </c>
+      <c r="O159" s="2"/>
       <c r="P159" t="s" s="2">
         <v>82</v>
       </c>
@@ -21808,13 +21881,13 @@
         <v>82</v>
       </c>
       <c r="X159" t="s" s="2">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="Y159" t="s" s="2">
-        <v>599</v>
+        <v>82</v>
       </c>
       <c r="Z159" t="s" s="2">
-        <v>600</v>
+        <v>82</v>
       </c>
       <c r="AA159" t="s" s="2">
         <v>82</v>
@@ -21832,13 +21905,13 @@
         <v>82</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>595</v>
+        <v>474</v>
       </c>
       <c r="AG159" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH159" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI159" t="s" s="2">
         <v>82</v>
@@ -21847,16 +21920,16 @@
         <v>82</v>
       </c>
       <c r="AK159" t="s" s="2">
-        <v>601</v>
+        <v>475</v>
       </c>
       <c r="AL159" t="s" s="2">
-        <v>602</v>
+        <v>82</v>
       </c>
       <c r="AM159" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN159" t="s" s="2">
-        <v>603</v>
+        <v>476</v>
       </c>
       <c r="AO159" t="s" s="2">
         <v>82</v>
@@ -21867,10 +21940,10 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>604</v>
+        <v>477</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>604</v>
+        <v>477</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -21881,7 +21954,7 @@
         <v>80</v>
       </c>
       <c r="G160" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H160" t="s" s="2">
         <v>82</v>
@@ -21890,23 +21963,19 @@
         <v>82</v>
       </c>
       <c r="J160" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>605</v>
+        <v>156</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>606</v>
+        <v>478</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="N160" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="O160" t="s" s="2">
-        <v>609</v>
-      </c>
+        <v>479</v>
+      </c>
+      <c r="N160" s="2"/>
+      <c r="O160" s="2"/>
       <c r="P160" t="s" s="2">
         <v>82</v>
       </c>
@@ -21954,13 +22023,13 @@
         <v>82</v>
       </c>
       <c r="AF160" t="s" s="2">
-        <v>604</v>
+        <v>480</v>
       </c>
       <c r="AG160" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH160" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI160" t="s" s="2">
         <v>82</v>
@@ -21969,16 +22038,16 @@
         <v>82</v>
       </c>
       <c r="AK160" t="s" s="2">
-        <v>610</v>
+        <v>481</v>
       </c>
       <c r="AL160" t="s" s="2">
-        <v>160</v>
+        <v>82</v>
       </c>
       <c r="AM160" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN160" t="s" s="2">
-        <v>611</v>
+        <v>482</v>
       </c>
       <c r="AO160" t="s" s="2">
         <v>82</v>
@@ -21989,10 +22058,10 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>612</v>
+        <v>483</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>612</v>
+        <v>483</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -22003,7 +22072,7 @@
         <v>80</v>
       </c>
       <c r="G161" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H161" t="s" s="2">
         <v>82</v>
@@ -22012,20 +22081,20 @@
         <v>82</v>
       </c>
       <c r="J161" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>613</v>
+        <v>263</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>614</v>
+        <v>484</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>615</v>
+        <v>485</v>
       </c>
       <c r="N161" s="2"/>
       <c r="O161" t="s" s="2">
-        <v>616</v>
+        <v>486</v>
       </c>
       <c r="P161" t="s" s="2">
         <v>82</v>
@@ -22074,13 +22143,13 @@
         <v>82</v>
       </c>
       <c r="AF161" t="s" s="2">
-        <v>612</v>
+        <v>487</v>
       </c>
       <c r="AG161" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH161" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI161" t="s" s="2">
         <v>82</v>
@@ -22089,16 +22158,16 @@
         <v>82</v>
       </c>
       <c r="AK161" t="s" s="2">
-        <v>617</v>
+        <v>488</v>
       </c>
       <c r="AL161" t="s" s="2">
-        <v>160</v>
+        <v>82</v>
       </c>
       <c r="AM161" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN161" t="s" s="2">
-        <v>618</v>
+        <v>489</v>
       </c>
       <c r="AO161" t="s" s="2">
         <v>82</v>
@@ -22109,10 +22178,10 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>619</v>
+        <v>490</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>619</v>
+        <v>490</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -22132,22 +22201,22 @@
         <v>82</v>
       </c>
       <c r="J162" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>620</v>
+        <v>491</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>621</v>
+        <v>492</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>622</v>
+        <v>493</v>
       </c>
       <c r="N162" t="s" s="2">
-        <v>623</v>
+        <v>494</v>
       </c>
       <c r="O162" t="s" s="2">
-        <v>624</v>
+        <v>495</v>
       </c>
       <c r="P162" t="s" s="2">
         <v>82</v>
@@ -22196,7 +22265,7 @@
         <v>82</v>
       </c>
       <c r="AF162" t="s" s="2">
-        <v>619</v>
+        <v>490</v>
       </c>
       <c r="AG162" t="s" s="2">
         <v>80</v>
@@ -22208,19 +22277,19 @@
         <v>82</v>
       </c>
       <c r="AJ162" t="s" s="2">
-        <v>625</v>
+        <v>82</v>
       </c>
       <c r="AK162" t="s" s="2">
-        <v>626</v>
+        <v>496</v>
       </c>
       <c r="AL162" t="s" s="2">
-        <v>160</v>
+        <v>497</v>
       </c>
       <c r="AM162" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN162" t="s" s="2">
-        <v>82</v>
+        <v>498</v>
       </c>
       <c r="AO162" t="s" s="2">
         <v>82</v>
@@ -22231,10 +22300,10 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>627</v>
+        <v>499</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>627</v>
+        <v>499</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
@@ -22254,19 +22323,23 @@
         <v>82</v>
       </c>
       <c r="J163" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>156</v>
+        <v>109</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>157</v>
+        <v>500</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N163" s="2"/>
-      <c r="O163" s="2"/>
+        <v>501</v>
+      </c>
+      <c r="N163" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="O163" t="s" s="2">
+        <v>503</v>
+      </c>
       <c r="P163" t="s" s="2">
         <v>82</v>
       </c>
@@ -22290,13 +22363,13 @@
         <v>82</v>
       </c>
       <c r="X163" t="s" s="2">
-        <v>82</v>
+        <v>171</v>
       </c>
       <c r="Y163" t="s" s="2">
-        <v>82</v>
+        <v>504</v>
       </c>
       <c r="Z163" t="s" s="2">
-        <v>82</v>
+        <v>505</v>
       </c>
       <c r="AA163" t="s" s="2">
         <v>82</v>
@@ -22314,7 +22387,7 @@
         <v>82</v>
       </c>
       <c r="AF163" t="s" s="2">
-        <v>159</v>
+        <v>499</v>
       </c>
       <c r="AG163" t="s" s="2">
         <v>80</v>
@@ -22329,16 +22402,16 @@
         <v>82</v>
       </c>
       <c r="AK163" t="s" s="2">
-        <v>160</v>
+        <v>506</v>
       </c>
       <c r="AL163" t="s" s="2">
-        <v>82</v>
+        <v>507</v>
       </c>
       <c r="AM163" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN163" t="s" s="2">
-        <v>82</v>
+        <v>508</v>
       </c>
       <c r="AO163" t="s" s="2">
         <v>82</v>
@@ -22349,21 +22422,21 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>628</v>
+        <v>509</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>628</v>
+        <v>509</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
-        <v>135</v>
+        <v>82</v>
       </c>
       <c r="E164" s="2"/>
       <c r="F164" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G164" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H164" t="s" s="2">
         <v>82</v>
@@ -22372,21 +22445,23 @@
         <v>82</v>
       </c>
       <c r="J164" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>136</v>
+        <v>510</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>137</v>
+        <v>511</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>162</v>
+        <v>512</v>
       </c>
       <c r="N164" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O164" s="2"/>
+        <v>513</v>
+      </c>
+      <c r="O164" t="s" s="2">
+        <v>514</v>
+      </c>
       <c r="P164" t="s" s="2">
         <v>82</v>
       </c>
@@ -22434,13 +22509,13 @@
         <v>82</v>
       </c>
       <c r="AF164" t="s" s="2">
-        <v>165</v>
+        <v>509</v>
       </c>
       <c r="AG164" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH164" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI164" t="s" s="2">
         <v>82</v>
@@ -22449,19 +22524,19 @@
         <v>82</v>
       </c>
       <c r="AK164" t="s" s="2">
-        <v>160</v>
+        <v>515</v>
       </c>
       <c r="AL164" t="s" s="2">
-        <v>82</v>
+        <v>516</v>
       </c>
       <c r="AM164" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN164" t="s" s="2">
-        <v>82</v>
+        <v>517</v>
       </c>
       <c r="AO164" t="s" s="2">
-        <v>82</v>
+        <v>518</v>
       </c>
       <c r="AP164" t="s" s="2">
         <v>82</v>
@@ -22469,21 +22544,21 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>629</v>
+        <v>519</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>629</v>
+        <v>519</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
-        <v>630</v>
+        <v>82</v>
       </c>
       <c r="E165" s="2"/>
       <c r="F165" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G165" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H165" t="s" s="2">
         <v>82</v>
@@ -22495,18 +22570,20 @@
         <v>91</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>136</v>
+        <v>520</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>142</v>
+        <v>521</v>
       </c>
       <c r="M165" t="s" s="2">
-        <v>631</v>
+        <v>522</v>
       </c>
       <c r="N165" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O165" s="2"/>
+        <v>523</v>
+      </c>
+      <c r="O165" t="s" s="2">
+        <v>524</v>
+      </c>
       <c r="P165" t="s" s="2">
         <v>82</v>
       </c>
@@ -22554,13 +22631,13 @@
         <v>82</v>
       </c>
       <c r="AF165" t="s" s="2">
-        <v>632</v>
+        <v>519</v>
       </c>
       <c r="AG165" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH165" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI165" t="s" s="2">
         <v>82</v>
@@ -22569,16 +22646,16 @@
         <v>82</v>
       </c>
       <c r="AK165" t="s" s="2">
-        <v>133</v>
+        <v>525</v>
       </c>
       <c r="AL165" t="s" s="2">
-        <v>82</v>
+        <v>160</v>
       </c>
       <c r="AM165" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN165" t="s" s="2">
-        <v>82</v>
+        <v>526</v>
       </c>
       <c r="AO165" t="s" s="2">
         <v>82</v>
@@ -22589,10 +22666,10 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>633</v>
+        <v>527</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>633</v>
+        <v>527</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
@@ -22612,20 +22689,22 @@
         <v>82</v>
       </c>
       <c r="J166" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>177</v>
+        <v>528</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>634</v>
+        <v>529</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>635</v>
-      </c>
-      <c r="N166" s="2"/>
+        <v>530</v>
+      </c>
+      <c r="N166" t="s" s="2">
+        <v>531</v>
+      </c>
       <c r="O166" t="s" s="2">
-        <v>636</v>
+        <v>532</v>
       </c>
       <c r="P166" t="s" s="2">
         <v>82</v>
@@ -22650,13 +22729,13 @@
         <v>82</v>
       </c>
       <c r="X166" t="s" s="2">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="Y166" t="s" s="2">
-        <v>637</v>
+        <v>82</v>
       </c>
       <c r="Z166" t="s" s="2">
-        <v>638</v>
+        <v>82</v>
       </c>
       <c r="AA166" t="s" s="2">
         <v>82</v>
@@ -22674,7 +22753,7 @@
         <v>82</v>
       </c>
       <c r="AF166" t="s" s="2">
-        <v>633</v>
+        <v>527</v>
       </c>
       <c r="AG166" t="s" s="2">
         <v>80</v>
@@ -22689,16 +22768,16 @@
         <v>82</v>
       </c>
       <c r="AK166" t="s" s="2">
-        <v>639</v>
+        <v>533</v>
       </c>
       <c r="AL166" t="s" s="2">
-        <v>160</v>
+        <v>534</v>
       </c>
       <c r="AM166" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN166" t="s" s="2">
-        <v>640</v>
+        <v>535</v>
       </c>
       <c r="AO166" t="s" s="2">
         <v>82</v>
@@ -22709,10 +22788,10 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>641</v>
+        <v>536</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>641</v>
+        <v>536</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
@@ -22735,18 +22814,16 @@
         <v>82</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>404</v>
+        <v>156</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>642</v>
+        <v>537</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>643</v>
+        <v>158</v>
       </c>
       <c r="N167" s="2"/>
-      <c r="O167" t="s" s="2">
-        <v>644</v>
-      </c>
+      <c r="O167" s="2"/>
       <c r="P167" t="s" s="2">
         <v>82</v>
       </c>
@@ -22794,7 +22871,7 @@
         <v>82</v>
       </c>
       <c r="AF167" t="s" s="2">
-        <v>641</v>
+        <v>159</v>
       </c>
       <c r="AG167" t="s" s="2">
         <v>80</v>
@@ -22809,16 +22886,16 @@
         <v>82</v>
       </c>
       <c r="AK167" t="s" s="2">
-        <v>409</v>
+        <v>160</v>
       </c>
       <c r="AL167" t="s" s="2">
-        <v>160</v>
+        <v>82</v>
       </c>
       <c r="AM167" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN167" t="s" s="2">
-        <v>645</v>
+        <v>82</v>
       </c>
       <c r="AO167" t="s" s="2">
         <v>82</v>
@@ -22829,14 +22906,14 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>646</v>
+        <v>538</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>646</v>
+        <v>538</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" t="s" s="2">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="E168" s="2"/>
       <c r="F168" t="s" s="2">
@@ -22855,20 +22932,18 @@
         <v>82</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>468</v>
+        <v>136</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>647</v>
+        <v>137</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>648</v>
+        <v>162</v>
       </c>
       <c r="N168" t="s" s="2">
-        <v>649</v>
-      </c>
-      <c r="O168" t="s" s="2">
-        <v>472</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="O168" s="2"/>
       <c r="P168" t="s" s="2">
         <v>82</v>
       </c>
@@ -22904,19 +22979,19 @@
         <v>82</v>
       </c>
       <c r="AB168" t="s" s="2">
-        <v>82</v>
+        <v>163</v>
       </c>
       <c r="AC168" t="s" s="2">
-        <v>82</v>
+        <v>164</v>
       </c>
       <c r="AD168" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>82</v>
+        <v>151</v>
       </c>
       <c r="AF168" t="s" s="2">
-        <v>646</v>
+        <v>165</v>
       </c>
       <c r="AG168" t="s" s="2">
         <v>80</v>
@@ -22931,16 +23006,16 @@
         <v>82</v>
       </c>
       <c r="AK168" t="s" s="2">
-        <v>473</v>
+        <v>160</v>
       </c>
       <c r="AL168" t="s" s="2">
-        <v>160</v>
+        <v>82</v>
       </c>
       <c r="AM168" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN168" t="s" s="2">
-        <v>650</v>
+        <v>82</v>
       </c>
       <c r="AO168" t="s" s="2">
         <v>82</v>
@@ -22951,10 +23026,10 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>651</v>
+        <v>539</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>651</v>
+        <v>539</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
@@ -22971,23 +23046,25 @@
         <v>82</v>
       </c>
       <c r="I169" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J169" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>505</v>
+        <v>109</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>652</v>
+        <v>540</v>
       </c>
       <c r="M169" t="s" s="2">
-        <v>653</v>
-      </c>
-      <c r="N169" s="2"/>
+        <v>541</v>
+      </c>
+      <c r="N169" t="s" s="2">
+        <v>542</v>
+      </c>
       <c r="O169" t="s" s="2">
-        <v>654</v>
+        <v>543</v>
       </c>
       <c r="P169" t="s" s="2">
         <v>82</v>
@@ -23000,7 +23077,7 @@
         <v>82</v>
       </c>
       <c r="T169" t="s" s="2">
-        <v>82</v>
+        <v>544</v>
       </c>
       <c r="U169" t="s" s="2">
         <v>82</v>
@@ -23012,13 +23089,13 @@
         <v>82</v>
       </c>
       <c r="X169" t="s" s="2">
-        <v>82</v>
+        <v>171</v>
       </c>
       <c r="Y169" t="s" s="2">
-        <v>82</v>
+        <v>545</v>
       </c>
       <c r="Z169" t="s" s="2">
-        <v>82</v>
+        <v>546</v>
       </c>
       <c r="AA169" t="s" s="2">
         <v>82</v>
@@ -23036,7 +23113,7 @@
         <v>82</v>
       </c>
       <c r="AF169" t="s" s="2">
-        <v>651</v>
+        <v>547</v>
       </c>
       <c r="AG169" t="s" s="2">
         <v>80</v>
@@ -23051,16 +23128,16 @@
         <v>82</v>
       </c>
       <c r="AK169" t="s" s="2">
-        <v>510</v>
+        <v>445</v>
       </c>
       <c r="AL169" t="s" s="2">
-        <v>160</v>
+        <v>82</v>
       </c>
       <c r="AM169" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN169" t="s" s="2">
-        <v>655</v>
+        <v>548</v>
       </c>
       <c r="AO169" t="s" s="2">
         <v>82</v>
@@ -23071,10 +23148,10 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>656</v>
+        <v>549</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>656</v>
+        <v>549</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
@@ -23094,21 +23171,19 @@
         <v>82</v>
       </c>
       <c r="J170" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K170" t="s" s="2">
         <v>109</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>477</v>
+        <v>550</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>657</v>
+        <v>551</v>
       </c>
       <c r="N170" s="2"/>
-      <c r="O170" t="s" s="2">
-        <v>658</v>
-      </c>
+      <c r="O170" s="2"/>
       <c r="P170" t="s" s="2">
         <v>82</v>
       </c>
@@ -23120,7 +23195,7 @@
         <v>82</v>
       </c>
       <c r="T170" t="s" s="2">
-        <v>82</v>
+        <v>552</v>
       </c>
       <c r="U170" t="s" s="2">
         <v>82</v>
@@ -23135,10 +23210,10 @@
         <v>171</v>
       </c>
       <c r="Y170" t="s" s="2">
-        <v>481</v>
+        <v>553</v>
       </c>
       <c r="Z170" t="s" s="2">
-        <v>482</v>
+        <v>554</v>
       </c>
       <c r="AA170" t="s" s="2">
         <v>82</v>
@@ -23156,7 +23231,7 @@
         <v>82</v>
       </c>
       <c r="AF170" t="s" s="2">
-        <v>656</v>
+        <v>555</v>
       </c>
       <c r="AG170" t="s" s="2">
         <v>80</v>
@@ -23171,16 +23246,16 @@
         <v>82</v>
       </c>
       <c r="AK170" t="s" s="2">
-        <v>483</v>
+        <v>445</v>
       </c>
       <c r="AL170" t="s" s="2">
-        <v>160</v>
+        <v>82</v>
       </c>
       <c r="AM170" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN170" t="s" s="2">
-        <v>659</v>
+        <v>556</v>
       </c>
       <c r="AO170" t="s" s="2">
         <v>82</v>
@@ -23191,10 +23266,10 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>660</v>
+        <v>557</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>660</v>
+        <v>557</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" t="s" s="2">
@@ -23214,20 +23289,22 @@
         <v>82</v>
       </c>
       <c r="J171" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>270</v>
+        <v>156</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>661</v>
+        <v>558</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>662</v>
-      </c>
-      <c r="N171" s="2"/>
+        <v>559</v>
+      </c>
+      <c r="N171" t="s" s="2">
+        <v>560</v>
+      </c>
       <c r="O171" t="s" s="2">
-        <v>663</v>
+        <v>451</v>
       </c>
       <c r="P171" t="s" s="2">
         <v>82</v>
@@ -23240,7 +23317,7 @@
         <v>82</v>
       </c>
       <c r="T171" t="s" s="2">
-        <v>82</v>
+        <v>561</v>
       </c>
       <c r="U171" t="s" s="2">
         <v>82</v>
@@ -23276,7 +23353,7 @@
         <v>82</v>
       </c>
       <c r="AF171" t="s" s="2">
-        <v>660</v>
+        <v>562</v>
       </c>
       <c r="AG171" t="s" s="2">
         <v>80</v>
@@ -23285,22 +23362,22 @@
         <v>90</v>
       </c>
       <c r="AI171" t="s" s="2">
-        <v>664</v>
+        <v>82</v>
       </c>
       <c r="AJ171" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AK171" t="s" s="2">
-        <v>665</v>
+        <v>453</v>
       </c>
       <c r="AL171" t="s" s="2">
-        <v>160</v>
+        <v>82</v>
       </c>
       <c r="AM171" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN171" t="s" s="2">
-        <v>666</v>
+        <v>563</v>
       </c>
       <c r="AO171" t="s" s="2">
         <v>82</v>
@@ -23311,10 +23388,10 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>667</v>
+        <v>564</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>667</v>
+        <v>564</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
@@ -23325,7 +23402,7 @@
         <v>80</v>
       </c>
       <c r="G172" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H172" t="s" s="2">
         <v>82</v>
@@ -23334,19 +23411,21 @@
         <v>82</v>
       </c>
       <c r="J172" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>263</v>
+        <v>156</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>668</v>
+        <v>565</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>669</v>
+        <v>566</v>
       </c>
       <c r="N172" s="2"/>
-      <c r="O172" s="2"/>
+      <c r="O172" t="s" s="2">
+        <v>567</v>
+      </c>
       <c r="P172" t="s" s="2">
         <v>82</v>
       </c>
@@ -23358,7 +23437,7 @@
         <v>82</v>
       </c>
       <c r="T172" t="s" s="2">
-        <v>82</v>
+        <v>568</v>
       </c>
       <c r="U172" t="s" s="2">
         <v>82</v>
@@ -23394,13 +23473,13 @@
         <v>82</v>
       </c>
       <c r="AF172" t="s" s="2">
-        <v>667</v>
+        <v>569</v>
       </c>
       <c r="AG172" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH172" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI172" t="s" s="2">
         <v>82</v>
@@ -23409,16 +23488,16 @@
         <v>82</v>
       </c>
       <c r="AK172" t="s" s="2">
-        <v>670</v>
+        <v>570</v>
       </c>
       <c r="AL172" t="s" s="2">
-        <v>160</v>
+        <v>82</v>
       </c>
       <c r="AM172" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN172" t="s" s="2">
-        <v>82</v>
+        <v>571</v>
       </c>
       <c r="AO172" t="s" s="2">
         <v>82</v>
@@ -23429,14 +23508,14 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>671</v>
+        <v>572</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>671</v>
+        <v>572</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" t="s" s="2">
-        <v>82</v>
+        <v>573</v>
       </c>
       <c r="E173" s="2"/>
       <c r="F173" t="s" s="2">
@@ -23449,26 +23528,22 @@
         <v>82</v>
       </c>
       <c r="I173" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J173" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>620</v>
+        <v>156</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>672</v>
+        <v>574</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>673</v>
-      </c>
-      <c r="N173" t="s" s="2">
-        <v>674</v>
-      </c>
-      <c r="O173" t="s" s="2">
-        <v>675</v>
-      </c>
+        <v>575</v>
+      </c>
+      <c r="N173" s="2"/>
+      <c r="O173" s="2"/>
       <c r="P173" t="s" s="2">
         <v>82</v>
       </c>
@@ -23480,7 +23555,7 @@
         <v>82</v>
       </c>
       <c r="T173" t="s" s="2">
-        <v>82</v>
+        <v>576</v>
       </c>
       <c r="U173" t="s" s="2">
         <v>82</v>
@@ -23516,7 +23591,7 @@
         <v>82</v>
       </c>
       <c r="AF173" t="s" s="2">
-        <v>671</v>
+        <v>577</v>
       </c>
       <c r="AG173" t="s" s="2">
         <v>80</v>
@@ -23528,19 +23603,19 @@
         <v>82</v>
       </c>
       <c r="AJ173" t="s" s="2">
-        <v>676</v>
+        <v>82</v>
       </c>
       <c r="AK173" t="s" s="2">
-        <v>677</v>
+        <v>578</v>
       </c>
       <c r="AL173" t="s" s="2">
-        <v>160</v>
+        <v>82</v>
       </c>
       <c r="AM173" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN173" t="s" s="2">
-        <v>82</v>
+        <v>579</v>
       </c>
       <c r="AO173" t="s" s="2">
         <v>82</v>
@@ -23551,14 +23626,14 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>678</v>
+        <v>580</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>678</v>
+        <v>580</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
-        <v>82</v>
+        <v>581</v>
       </c>
       <c r="E174" s="2"/>
       <c r="F174" t="s" s="2">
@@ -23574,18 +23649,20 @@
         <v>82</v>
       </c>
       <c r="J174" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K174" t="s" s="2">
         <v>156</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>157</v>
+        <v>582</v>
       </c>
       <c r="M174" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N174" s="2"/>
+        <v>583</v>
+      </c>
+      <c r="N174" t="s" s="2">
+        <v>584</v>
+      </c>
       <c r="O174" s="2"/>
       <c r="P174" t="s" s="2">
         <v>82</v>
@@ -23598,7 +23675,7 @@
         <v>82</v>
       </c>
       <c r="T174" t="s" s="2">
-        <v>82</v>
+        <v>585</v>
       </c>
       <c r="U174" t="s" s="2">
         <v>82</v>
@@ -23634,7 +23711,7 @@
         <v>82</v>
       </c>
       <c r="AF174" t="s" s="2">
-        <v>159</v>
+        <v>586</v>
       </c>
       <c r="AG174" t="s" s="2">
         <v>80</v>
@@ -23649,7 +23726,7 @@
         <v>82</v>
       </c>
       <c r="AK174" t="s" s="2">
-        <v>160</v>
+        <v>587</v>
       </c>
       <c r="AL174" t="s" s="2">
         <v>82</v>
@@ -23658,7 +23735,7 @@
         <v>82</v>
       </c>
       <c r="AN174" t="s" s="2">
-        <v>82</v>
+        <v>588</v>
       </c>
       <c r="AO174" t="s" s="2">
         <v>82</v>
@@ -23669,21 +23746,21 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>679</v>
+        <v>589</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>679</v>
+        <v>589</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
-        <v>135</v>
+        <v>590</v>
       </c>
       <c r="E175" s="2"/>
       <c r="F175" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G175" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H175" t="s" s="2">
         <v>82</v>
@@ -23692,20 +23769,18 @@
         <v>82</v>
       </c>
       <c r="J175" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K175" t="s" s="2">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>137</v>
+        <v>591</v>
       </c>
       <c r="M175" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N175" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>592</v>
+      </c>
+      <c r="N175" s="2"/>
       <c r="O175" s="2"/>
       <c r="P175" t="s" s="2">
         <v>82</v>
@@ -23754,13 +23829,13 @@
         <v>82</v>
       </c>
       <c r="AF175" t="s" s="2">
-        <v>165</v>
+        <v>593</v>
       </c>
       <c r="AG175" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH175" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI175" t="s" s="2">
         <v>82</v>
@@ -23769,7 +23844,7 @@
         <v>82</v>
       </c>
       <c r="AK175" t="s" s="2">
-        <v>160</v>
+        <v>594</v>
       </c>
       <c r="AL175" t="s" s="2">
         <v>82</v>
@@ -23778,7 +23853,7 @@
         <v>82</v>
       </c>
       <c r="AN175" t="s" s="2">
-        <v>82</v>
+        <v>595</v>
       </c>
       <c r="AO175" t="s" s="2">
         <v>82</v>
@@ -23789,43 +23864,41 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>680</v>
+        <v>596</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>680</v>
+        <v>596</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" t="s" s="2">
-        <v>630</v>
+        <v>597</v>
       </c>
       <c r="E176" s="2"/>
       <c r="F176" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G176" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H176" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I176" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J176" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K176" t="s" s="2">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>142</v>
+        <v>598</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>631</v>
-      </c>
-      <c r="N176" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>599</v>
+      </c>
+      <c r="N176" s="2"/>
       <c r="O176" s="2"/>
       <c r="P176" t="s" s="2">
         <v>82</v>
@@ -23838,7 +23911,7 @@
         <v>82</v>
       </c>
       <c r="T176" t="s" s="2">
-        <v>82</v>
+        <v>600</v>
       </c>
       <c r="U176" t="s" s="2">
         <v>82</v>
@@ -23874,13 +23947,13 @@
         <v>82</v>
       </c>
       <c r="AF176" t="s" s="2">
-        <v>632</v>
+        <v>601</v>
       </c>
       <c r="AG176" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH176" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI176" t="s" s="2">
         <v>82</v>
@@ -23889,7 +23962,7 @@
         <v>82</v>
       </c>
       <c r="AK176" t="s" s="2">
-        <v>133</v>
+        <v>602</v>
       </c>
       <c r="AL176" t="s" s="2">
         <v>82</v>
@@ -23898,7 +23971,7 @@
         <v>82</v>
       </c>
       <c r="AN176" t="s" s="2">
-        <v>82</v>
+        <v>603</v>
       </c>
       <c r="AO176" t="s" s="2">
         <v>82</v>
@@ -23909,10 +23982,10 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>681</v>
+        <v>604</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>681</v>
+        <v>604</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
@@ -23920,7 +23993,7 @@
       </c>
       <c r="E177" s="2"/>
       <c r="F177" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G177" t="s" s="2">
         <v>90</v>
@@ -23935,20 +24008,18 @@
         <v>91</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>682</v>
+        <v>605</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>683</v>
+        <v>606</v>
       </c>
       <c r="N177" t="s" s="2">
-        <v>684</v>
-      </c>
-      <c r="O177" t="s" s="2">
-        <v>685</v>
-      </c>
+        <v>607</v>
+      </c>
+      <c r="O177" s="2"/>
       <c r="P177" t="s" s="2">
         <v>82</v>
       </c>
@@ -23972,13 +24043,13 @@
         <v>82</v>
       </c>
       <c r="X177" t="s" s="2">
-        <v>686</v>
+        <v>82</v>
       </c>
       <c r="Y177" t="s" s="2">
-        <v>687</v>
+        <v>82</v>
       </c>
       <c r="Z177" t="s" s="2">
-        <v>688</v>
+        <v>82</v>
       </c>
       <c r="AA177" t="s" s="2">
         <v>82</v>
@@ -23996,10 +24067,10 @@
         <v>82</v>
       </c>
       <c r="AF177" t="s" s="2">
-        <v>681</v>
+        <v>608</v>
       </c>
       <c r="AG177" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH177" t="s" s="2">
         <v>90</v>
@@ -24011,16 +24082,16 @@
         <v>82</v>
       </c>
       <c r="AK177" t="s" s="2">
-        <v>639</v>
+        <v>609</v>
       </c>
       <c r="AL177" t="s" s="2">
-        <v>160</v>
+        <v>82</v>
       </c>
       <c r="AM177" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN177" t="s" s="2">
-        <v>689</v>
+        <v>610</v>
       </c>
       <c r="AO177" t="s" s="2">
         <v>82</v>
@@ -24031,10 +24102,10 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>690</v>
+        <v>611</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>690</v>
+        <v>611</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" t="s" s="2">
@@ -24057,19 +24128,17 @@
         <v>91</v>
       </c>
       <c r="K178" t="s" s="2">
-        <v>177</v>
+        <v>263</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>691</v>
+        <v>612</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>692</v>
-      </c>
-      <c r="N178" t="s" s="2">
-        <v>693</v>
-      </c>
+        <v>613</v>
+      </c>
+      <c r="N178" s="2"/>
       <c r="O178" t="s" s="2">
-        <v>694</v>
+        <v>614</v>
       </c>
       <c r="P178" t="s" s="2">
         <v>82</v>
@@ -24082,7 +24151,7 @@
         <v>82</v>
       </c>
       <c r="T178" t="s" s="2">
-        <v>82</v>
+        <v>615</v>
       </c>
       <c r="U178" t="s" s="2">
         <v>82</v>
@@ -24094,13 +24163,13 @@
         <v>82</v>
       </c>
       <c r="X178" t="s" s="2">
-        <v>686</v>
+        <v>82</v>
       </c>
       <c r="Y178" t="s" s="2">
-        <v>695</v>
+        <v>82</v>
       </c>
       <c r="Z178" t="s" s="2">
-        <v>696</v>
+        <v>82</v>
       </c>
       <c r="AA178" t="s" s="2">
         <v>82</v>
@@ -24118,7 +24187,7 @@
         <v>82</v>
       </c>
       <c r="AF178" t="s" s="2">
-        <v>690</v>
+        <v>616</v>
       </c>
       <c r="AG178" t="s" s="2">
         <v>80</v>
@@ -24133,16 +24202,16 @@
         <v>82</v>
       </c>
       <c r="AK178" t="s" s="2">
-        <v>697</v>
+        <v>488</v>
       </c>
       <c r="AL178" t="s" s="2">
-        <v>160</v>
+        <v>82</v>
       </c>
       <c r="AM178" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN178" t="s" s="2">
-        <v>698</v>
+        <v>617</v>
       </c>
       <c r="AO178" t="s" s="2">
         <v>82</v>
@@ -24153,10 +24222,10 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>699</v>
+        <v>618</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>699</v>
+        <v>618</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" t="s" s="2">
@@ -24176,20 +24245,20 @@
         <v>82</v>
       </c>
       <c r="J179" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K179" t="s" s="2">
         <v>177</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>700</v>
+        <v>619</v>
       </c>
       <c r="M179" t="s" s="2">
-        <v>701</v>
+        <v>620</v>
       </c>
       <c r="N179" s="2"/>
       <c r="O179" t="s" s="2">
-        <v>702</v>
+        <v>621</v>
       </c>
       <c r="P179" t="s" s="2">
         <v>82</v>
@@ -24214,13 +24283,13 @@
         <v>82</v>
       </c>
       <c r="X179" t="s" s="2">
-        <v>686</v>
+        <v>113</v>
       </c>
       <c r="Y179" t="s" s="2">
-        <v>703</v>
+        <v>622</v>
       </c>
       <c r="Z179" t="s" s="2">
-        <v>704</v>
+        <v>623</v>
       </c>
       <c r="AA179" t="s" s="2">
         <v>82</v>
@@ -24238,7 +24307,7 @@
         <v>82</v>
       </c>
       <c r="AF179" t="s" s="2">
-        <v>699</v>
+        <v>618</v>
       </c>
       <c r="AG179" t="s" s="2">
         <v>80</v>
@@ -24253,16 +24322,16 @@
         <v>82</v>
       </c>
       <c r="AK179" t="s" s="2">
-        <v>705</v>
+        <v>624</v>
       </c>
       <c r="AL179" t="s" s="2">
-        <v>160</v>
+        <v>625</v>
       </c>
       <c r="AM179" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN179" t="s" s="2">
-        <v>133</v>
+        <v>626</v>
       </c>
       <c r="AO179" t="s" s="2">
         <v>82</v>
@@ -24273,10 +24342,10 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>706</v>
+        <v>627</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>706</v>
+        <v>627</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" t="s" s="2">
@@ -24287,7 +24356,7 @@
         <v>80</v>
       </c>
       <c r="G180" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H180" t="s" s="2">
         <v>82</v>
@@ -24299,19 +24368,19 @@
         <v>82</v>
       </c>
       <c r="K180" t="s" s="2">
-        <v>620</v>
+        <v>628</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>707</v>
+        <v>629</v>
       </c>
       <c r="M180" t="s" s="2">
-        <v>708</v>
+        <v>630</v>
       </c>
       <c r="N180" t="s" s="2">
-        <v>709</v>
+        <v>631</v>
       </c>
       <c r="O180" t="s" s="2">
-        <v>710</v>
+        <v>632</v>
       </c>
       <c r="P180" t="s" s="2">
         <v>82</v>
@@ -24360,31 +24429,31 @@
         <v>82</v>
       </c>
       <c r="AF180" t="s" s="2">
-        <v>706</v>
+        <v>627</v>
       </c>
       <c r="AG180" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH180" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI180" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ180" t="s" s="2">
-        <v>676</v>
+        <v>82</v>
       </c>
       <c r="AK180" t="s" s="2">
-        <v>711</v>
+        <v>633</v>
       </c>
       <c r="AL180" t="s" s="2">
-        <v>712</v>
+        <v>160</v>
       </c>
       <c r="AM180" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN180" t="s" s="2">
-        <v>82</v>
+        <v>634</v>
       </c>
       <c r="AO180" t="s" s="2">
         <v>82</v>
@@ -24395,10 +24464,10 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>713</v>
+        <v>635</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>713</v>
+        <v>635</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" t="s" s="2">
@@ -24409,7 +24478,7 @@
         <v>80</v>
       </c>
       <c r="G181" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H181" t="s" s="2">
         <v>82</v>
@@ -24421,16 +24490,18 @@
         <v>82</v>
       </c>
       <c r="K181" t="s" s="2">
-        <v>156</v>
+        <v>636</v>
       </c>
       <c r="L181" t="s" s="2">
-        <v>157</v>
+        <v>637</v>
       </c>
       <c r="M181" t="s" s="2">
-        <v>158</v>
+        <v>638</v>
       </c>
       <c r="N181" s="2"/>
-      <c r="O181" s="2"/>
+      <c r="O181" t="s" s="2">
+        <v>639</v>
+      </c>
       <c r="P181" t="s" s="2">
         <v>82</v>
       </c>
@@ -24478,13 +24549,13 @@
         <v>82</v>
       </c>
       <c r="AF181" t="s" s="2">
-        <v>159</v>
+        <v>635</v>
       </c>
       <c r="AG181" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH181" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI181" t="s" s="2">
         <v>82</v>
@@ -24493,16 +24564,16 @@
         <v>82</v>
       </c>
       <c r="AK181" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="AL181" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="AL181" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="AM181" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN181" t="s" s="2">
-        <v>82</v>
+        <v>641</v>
       </c>
       <c r="AO181" t="s" s="2">
         <v>82</v>
@@ -24513,14 +24584,14 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>714</v>
+        <v>642</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>714</v>
+        <v>642</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" t="s" s="2">
-        <v>135</v>
+        <v>82</v>
       </c>
       <c r="E182" s="2"/>
       <c r="F182" t="s" s="2">
@@ -24539,18 +24610,20 @@
         <v>82</v>
       </c>
       <c r="K182" t="s" s="2">
-        <v>136</v>
+        <v>643</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>137</v>
+        <v>644</v>
       </c>
       <c r="M182" t="s" s="2">
-        <v>162</v>
+        <v>645</v>
       </c>
       <c r="N182" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O182" s="2"/>
+        <v>646</v>
+      </c>
+      <c r="O182" t="s" s="2">
+        <v>647</v>
+      </c>
       <c r="P182" t="s" s="2">
         <v>82</v>
       </c>
@@ -24598,7 +24671,7 @@
         <v>82</v>
       </c>
       <c r="AF182" t="s" s="2">
-        <v>165</v>
+        <v>642</v>
       </c>
       <c r="AG182" t="s" s="2">
         <v>80</v>
@@ -24610,13 +24683,13 @@
         <v>82</v>
       </c>
       <c r="AJ182" t="s" s="2">
-        <v>82</v>
+        <v>648</v>
       </c>
       <c r="AK182" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="AL182" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="AL182" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AM182" t="s" s="2">
         <v>82</v>
@@ -24633,43 +24706,41 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>715</v>
+        <v>650</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>715</v>
+        <v>650</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" t="s" s="2">
-        <v>630</v>
+        <v>82</v>
       </c>
       <c r="E183" s="2"/>
       <c r="F183" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G183" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H183" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I183" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J183" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K183" t="s" s="2">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>631</v>
-      </c>
-      <c r="N183" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="N183" s="2"/>
       <c r="O183" s="2"/>
       <c r="P183" t="s" s="2">
         <v>82</v>
@@ -24718,13 +24789,13 @@
         <v>82</v>
       </c>
       <c r="AF183" t="s" s="2">
-        <v>632</v>
+        <v>159</v>
       </c>
       <c r="AG183" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH183" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI183" t="s" s="2">
         <v>82</v>
@@ -24733,7 +24804,7 @@
         <v>82</v>
       </c>
       <c r="AK183" t="s" s="2">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="AL183" t="s" s="2">
         <v>82</v>
@@ -24753,21 +24824,21 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>716</v>
+        <v>651</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>716</v>
+        <v>651</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="E184" s="2"/>
       <c r="F184" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G184" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H184" t="s" s="2">
         <v>82</v>
@@ -24779,20 +24850,18 @@
         <v>82</v>
       </c>
       <c r="K184" t="s" s="2">
-        <v>177</v>
+        <v>136</v>
       </c>
       <c r="L184" t="s" s="2">
-        <v>717</v>
+        <v>137</v>
       </c>
       <c r="M184" t="s" s="2">
-        <v>718</v>
+        <v>162</v>
       </c>
       <c r="N184" t="s" s="2">
-        <v>719</v>
-      </c>
-      <c r="O184" t="s" s="2">
-        <v>720</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="O184" s="2"/>
       <c r="P184" t="s" s="2">
         <v>82</v>
       </c>
@@ -24816,13 +24885,13 @@
         <v>82</v>
       </c>
       <c r="X184" t="s" s="2">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="Y184" t="s" s="2">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="Z184" t="s" s="2">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="AA184" t="s" s="2">
         <v>82</v>
@@ -24840,13 +24909,13 @@
         <v>82</v>
       </c>
       <c r="AF184" t="s" s="2">
-        <v>716</v>
+        <v>165</v>
       </c>
       <c r="AG184" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH184" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI184" t="s" s="2">
         <v>82</v>
@@ -24855,16 +24924,16 @@
         <v>82</v>
       </c>
       <c r="AK184" t="s" s="2">
-        <v>721</v>
+        <v>160</v>
       </c>
       <c r="AL184" t="s" s="2">
-        <v>722</v>
+        <v>82</v>
       </c>
       <c r="AM184" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN184" t="s" s="2">
-        <v>723</v>
+        <v>82</v>
       </c>
       <c r="AO184" t="s" s="2">
         <v>82</v>
@@ -24875,46 +24944,44 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>724</v>
+        <v>652</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>724</v>
+        <v>652</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
-        <v>82</v>
+        <v>653</v>
       </c>
       <c r="E185" s="2"/>
       <c r="F185" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G185" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H185" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I185" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J185" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K185" t="s" s="2">
-        <v>230</v>
+        <v>136</v>
       </c>
       <c r="L185" t="s" s="2">
-        <v>725</v>
+        <v>142</v>
       </c>
       <c r="M185" t="s" s="2">
-        <v>726</v>
+        <v>654</v>
       </c>
       <c r="N185" t="s" s="2">
-        <v>727</v>
-      </c>
-      <c r="O185" t="s" s="2">
-        <v>728</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="O185" s="2"/>
       <c r="P185" t="s" s="2">
         <v>82</v>
       </c>
@@ -24962,13 +25029,13 @@
         <v>82</v>
       </c>
       <c r="AF185" t="s" s="2">
-        <v>724</v>
+        <v>655</v>
       </c>
       <c r="AG185" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH185" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI185" t="s" s="2">
         <v>82</v>
@@ -24977,16 +25044,16 @@
         <v>82</v>
       </c>
       <c r="AK185" t="s" s="2">
-        <v>729</v>
+        <v>133</v>
       </c>
       <c r="AL185" t="s" s="2">
-        <v>730</v>
+        <v>82</v>
       </c>
       <c r="AM185" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN185" t="s" s="2">
-        <v>731</v>
+        <v>82</v>
       </c>
       <c r="AO185" t="s" s="2">
         <v>82</v>
@@ -24997,14 +25064,14 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>732</v>
+        <v>656</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>732</v>
+        <v>656</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" t="s" s="2">
-        <v>733</v>
+        <v>82</v>
       </c>
       <c r="E186" s="2"/>
       <c r="F186" t="s" s="2">
@@ -25023,18 +25090,18 @@
         <v>82</v>
       </c>
       <c r="K186" t="s" s="2">
-        <v>734</v>
+        <v>177</v>
       </c>
       <c r="L186" t="s" s="2">
-        <v>735</v>
+        <v>657</v>
       </c>
       <c r="M186" t="s" s="2">
-        <v>736</v>
-      </c>
-      <c r="N186" t="s" s="2">
-        <v>737</v>
-      </c>
-      <c r="O186" s="2"/>
+        <v>658</v>
+      </c>
+      <c r="N186" s="2"/>
+      <c r="O186" t="s" s="2">
+        <v>659</v>
+      </c>
       <c r="P186" t="s" s="2">
         <v>82</v>
       </c>
@@ -25058,13 +25125,13 @@
         <v>82</v>
       </c>
       <c r="X186" t="s" s="2">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="Y186" t="s" s="2">
-        <v>82</v>
+        <v>660</v>
       </c>
       <c r="Z186" t="s" s="2">
-        <v>82</v>
+        <v>661</v>
       </c>
       <c r="AA186" t="s" s="2">
         <v>82</v>
@@ -25082,7 +25149,7 @@
         <v>82</v>
       </c>
       <c r="AF186" t="s" s="2">
-        <v>732</v>
+        <v>656</v>
       </c>
       <c r="AG186" t="s" s="2">
         <v>80</v>
@@ -25097,7 +25164,7 @@
         <v>82</v>
       </c>
       <c r="AK186" t="s" s="2">
-        <v>738</v>
+        <v>662</v>
       </c>
       <c r="AL186" t="s" s="2">
         <v>160</v>
@@ -25106,7 +25173,7 @@
         <v>82</v>
       </c>
       <c r="AN186" t="s" s="2">
-        <v>739</v>
+        <v>663</v>
       </c>
       <c r="AO186" t="s" s="2">
         <v>82</v>
@@ -25117,10 +25184,10 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>740</v>
+        <v>664</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>740</v>
+        <v>664</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" t="s" s="2">
@@ -25140,22 +25207,20 @@
         <v>82</v>
       </c>
       <c r="J187" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K187" t="s" s="2">
-        <v>270</v>
+        <v>427</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>741</v>
+        <v>665</v>
       </c>
       <c r="M187" t="s" s="2">
-        <v>742</v>
-      </c>
-      <c r="N187" t="s" s="2">
-        <v>743</v>
-      </c>
+        <v>666</v>
+      </c>
+      <c r="N187" s="2"/>
       <c r="O187" t="s" s="2">
-        <v>744</v>
+        <v>667</v>
       </c>
       <c r="P187" t="s" s="2">
         <v>82</v>
@@ -25204,7 +25269,7 @@
         <v>82</v>
       </c>
       <c r="AF187" t="s" s="2">
-        <v>740</v>
+        <v>664</v>
       </c>
       <c r="AG187" t="s" s="2">
         <v>80</v>
@@ -25219,16 +25284,16 @@
         <v>82</v>
       </c>
       <c r="AK187" t="s" s="2">
-        <v>665</v>
+        <v>432</v>
       </c>
       <c r="AL187" t="s" s="2">
-        <v>745</v>
+        <v>160</v>
       </c>
       <c r="AM187" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN187" t="s" s="2">
-        <v>82</v>
+        <v>668</v>
       </c>
       <c r="AO187" t="s" s="2">
         <v>82</v>
@@ -25239,10 +25304,10 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>746</v>
+        <v>669</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>746</v>
+        <v>669</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" t="s" s="2">
@@ -25259,25 +25324,25 @@
         <v>82</v>
       </c>
       <c r="I188" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J188" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K188" t="s" s="2">
-        <v>620</v>
+        <v>491</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>747</v>
+        <v>670</v>
       </c>
       <c r="M188" t="s" s="2">
-        <v>748</v>
+        <v>671</v>
       </c>
       <c r="N188" t="s" s="2">
-        <v>749</v>
+        <v>672</v>
       </c>
       <c r="O188" t="s" s="2">
-        <v>750</v>
+        <v>495</v>
       </c>
       <c r="P188" t="s" s="2">
         <v>82</v>
@@ -25326,7 +25391,7 @@
         <v>82</v>
       </c>
       <c r="AF188" t="s" s="2">
-        <v>746</v>
+        <v>669</v>
       </c>
       <c r="AG188" t="s" s="2">
         <v>80</v>
@@ -25338,10 +25403,10 @@
         <v>82</v>
       </c>
       <c r="AJ188" t="s" s="2">
-        <v>676</v>
+        <v>82</v>
       </c>
       <c r="AK188" t="s" s="2">
-        <v>751</v>
+        <v>496</v>
       </c>
       <c r="AL188" t="s" s="2">
         <v>160</v>
@@ -25350,7 +25415,7 @@
         <v>82</v>
       </c>
       <c r="AN188" t="s" s="2">
-        <v>82</v>
+        <v>673</v>
       </c>
       <c r="AO188" t="s" s="2">
         <v>82</v>
@@ -25361,10 +25426,10 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>752</v>
+        <v>674</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>752</v>
+        <v>674</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" t="s" s="2">
@@ -25387,16 +25452,18 @@
         <v>82</v>
       </c>
       <c r="K189" t="s" s="2">
-        <v>156</v>
+        <v>528</v>
       </c>
       <c r="L189" t="s" s="2">
-        <v>157</v>
+        <v>675</v>
       </c>
       <c r="M189" t="s" s="2">
-        <v>158</v>
+        <v>676</v>
       </c>
       <c r="N189" s="2"/>
-      <c r="O189" s="2"/>
+      <c r="O189" t="s" s="2">
+        <v>677</v>
+      </c>
       <c r="P189" t="s" s="2">
         <v>82</v>
       </c>
@@ -25444,7 +25511,7 @@
         <v>82</v>
       </c>
       <c r="AF189" t="s" s="2">
-        <v>159</v>
+        <v>674</v>
       </c>
       <c r="AG189" t="s" s="2">
         <v>80</v>
@@ -25459,16 +25526,16 @@
         <v>82</v>
       </c>
       <c r="AK189" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="AL189" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="AL189" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="AM189" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN189" t="s" s="2">
-        <v>82</v>
+        <v>678</v>
       </c>
       <c r="AO189" t="s" s="2">
         <v>82</v>
@@ -25479,21 +25546,21 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>753</v>
+        <v>679</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>753</v>
+        <v>679</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" t="s" s="2">
-        <v>135</v>
+        <v>82</v>
       </c>
       <c r="E190" s="2"/>
       <c r="F190" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G190" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H190" t="s" s="2">
         <v>82</v>
@@ -25505,18 +25572,18 @@
         <v>82</v>
       </c>
       <c r="K190" t="s" s="2">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="L190" t="s" s="2">
-        <v>137</v>
+        <v>500</v>
       </c>
       <c r="M190" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N190" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O190" s="2"/>
+        <v>680</v>
+      </c>
+      <c r="N190" s="2"/>
+      <c r="O190" t="s" s="2">
+        <v>681</v>
+      </c>
       <c r="P190" t="s" s="2">
         <v>82</v>
       </c>
@@ -25540,13 +25607,13 @@
         <v>82</v>
       </c>
       <c r="X190" t="s" s="2">
-        <v>82</v>
+        <v>171</v>
       </c>
       <c r="Y190" t="s" s="2">
-        <v>82</v>
+        <v>504</v>
       </c>
       <c r="Z190" t="s" s="2">
-        <v>82</v>
+        <v>505</v>
       </c>
       <c r="AA190" t="s" s="2">
         <v>82</v>
@@ -25564,13 +25631,13 @@
         <v>82</v>
       </c>
       <c r="AF190" t="s" s="2">
-        <v>165</v>
+        <v>679</v>
       </c>
       <c r="AG190" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH190" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI190" t="s" s="2">
         <v>82</v>
@@ -25579,16 +25646,16 @@
         <v>82</v>
       </c>
       <c r="AK190" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="AL190" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="AL190" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="AM190" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN190" t="s" s="2">
-        <v>82</v>
+        <v>682</v>
       </c>
       <c r="AO190" t="s" s="2">
         <v>82</v>
@@ -25599,44 +25666,44 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>754</v>
+        <v>683</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>754</v>
+        <v>683</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" t="s" s="2">
-        <v>630</v>
+        <v>82</v>
       </c>
       <c r="E191" s="2"/>
       <c r="F191" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G191" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H191" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I191" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J191" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K191" t="s" s="2">
-        <v>136</v>
+        <v>270</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>142</v>
+        <v>684</v>
       </c>
       <c r="M191" t="s" s="2">
-        <v>631</v>
-      </c>
-      <c r="N191" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O191" s="2"/>
+        <v>685</v>
+      </c>
+      <c r="N191" s="2"/>
+      <c r="O191" t="s" s="2">
+        <v>686</v>
+      </c>
       <c r="P191" t="s" s="2">
         <v>82</v>
       </c>
@@ -25684,31 +25751,31 @@
         <v>82</v>
       </c>
       <c r="AF191" t="s" s="2">
-        <v>632</v>
+        <v>683</v>
       </c>
       <c r="AG191" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH191" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI191" t="s" s="2">
-        <v>82</v>
+        <v>687</v>
       </c>
       <c r="AJ191" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AK191" t="s" s="2">
-        <v>133</v>
+        <v>688</v>
       </c>
       <c r="AL191" t="s" s="2">
-        <v>82</v>
+        <v>160</v>
       </c>
       <c r="AM191" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN191" t="s" s="2">
-        <v>82</v>
+        <v>689</v>
       </c>
       <c r="AO191" t="s" s="2">
         <v>82</v>
@@ -25719,10 +25786,10 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>755</v>
+        <v>690</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>755</v>
+        <v>690</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" t="s" s="2">
@@ -25730,7 +25797,7 @@
       </c>
       <c r="E192" s="2"/>
       <c r="F192" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G192" t="s" s="2">
         <v>90</v>
@@ -25742,20 +25809,18 @@
         <v>82</v>
       </c>
       <c r="J192" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K192" t="s" s="2">
-        <v>756</v>
+        <v>263</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>757</v>
+        <v>691</v>
       </c>
       <c r="M192" t="s" s="2">
-        <v>758</v>
-      </c>
-      <c r="N192" t="s" s="2">
-        <v>759</v>
-      </c>
+        <v>692</v>
+      </c>
+      <c r="N192" s="2"/>
       <c r="O192" s="2"/>
       <c r="P192" t="s" s="2">
         <v>82</v>
@@ -25804,10 +25869,10 @@
         <v>82</v>
       </c>
       <c r="AF192" t="s" s="2">
-        <v>755</v>
+        <v>690</v>
       </c>
       <c r="AG192" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH192" t="s" s="2">
         <v>90</v>
@@ -25819,7 +25884,7 @@
         <v>82</v>
       </c>
       <c r="AK192" t="s" s="2">
-        <v>152</v>
+        <v>693</v>
       </c>
       <c r="AL192" t="s" s="2">
         <v>160</v>
@@ -25828,7 +25893,7 @@
         <v>82</v>
       </c>
       <c r="AN192" t="s" s="2">
-        <v>760</v>
+        <v>82</v>
       </c>
       <c r="AO192" t="s" s="2">
         <v>82</v>
@@ -25839,10 +25904,10 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>761</v>
+        <v>694</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>761</v>
+        <v>694</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" t="s" s="2">
@@ -25850,7 +25915,7 @@
       </c>
       <c r="E193" s="2"/>
       <c r="F193" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G193" t="s" s="2">
         <v>90</v>
@@ -25859,22 +25924,26 @@
         <v>82</v>
       </c>
       <c r="I193" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J193" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K193" t="s" s="2">
-        <v>109</v>
+        <v>643</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>762</v>
+        <v>695</v>
       </c>
       <c r="M193" t="s" s="2">
-        <v>763</v>
-      </c>
-      <c r="N193" s="2"/>
-      <c r="O193" s="2"/>
+        <v>696</v>
+      </c>
+      <c r="N193" t="s" s="2">
+        <v>697</v>
+      </c>
+      <c r="O193" t="s" s="2">
+        <v>698</v>
+      </c>
       <c r="P193" t="s" s="2">
         <v>82</v>
       </c>
@@ -25898,13 +25967,13 @@
         <v>82</v>
       </c>
       <c r="X193" t="s" s="2">
-        <v>171</v>
+        <v>82</v>
       </c>
       <c r="Y193" t="s" s="2">
-        <v>763</v>
+        <v>82</v>
       </c>
       <c r="Z193" t="s" s="2">
-        <v>764</v>
+        <v>82</v>
       </c>
       <c r="AA193" t="s" s="2">
         <v>82</v>
@@ -25922,10 +25991,10 @@
         <v>82</v>
       </c>
       <c r="AF193" t="s" s="2">
-        <v>761</v>
+        <v>694</v>
       </c>
       <c r="AG193" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH193" t="s" s="2">
         <v>90</v>
@@ -25934,10 +26003,10 @@
         <v>82</v>
       </c>
       <c r="AJ193" t="s" s="2">
-        <v>82</v>
+        <v>699</v>
       </c>
       <c r="AK193" t="s" s="2">
-        <v>765</v>
+        <v>700</v>
       </c>
       <c r="AL193" t="s" s="2">
         <v>160</v>
@@ -25955,8 +26024,2414 @@
         <v>82</v>
       </c>
     </row>
+    <row r="194" hidden="true">
+      <c r="A194" t="s" s="2">
+        <v>701</v>
+      </c>
+      <c r="B194" t="s" s="2">
+        <v>701</v>
+      </c>
+      <c r="C194" s="2"/>
+      <c r="D194" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E194" s="2"/>
+      <c r="F194" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G194" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H194" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I194" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J194" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K194" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="L194" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="M194" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="N194" s="2"/>
+      <c r="O194" s="2"/>
+      <c r="P194" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q194" s="2"/>
+      <c r="R194" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S194" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T194" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U194" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V194" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W194" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X194" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y194" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z194" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA194" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB194" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC194" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD194" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE194" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF194" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AG194" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH194" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI194" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ194" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK194" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AL194" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM194" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN194" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO194" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP194" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="195" hidden="true">
+      <c r="A195" t="s" s="2">
+        <v>702</v>
+      </c>
+      <c r="B195" t="s" s="2">
+        <v>702</v>
+      </c>
+      <c r="C195" s="2"/>
+      <c r="D195" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="E195" s="2"/>
+      <c r="F195" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G195" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H195" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I195" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J195" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K195" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L195" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M195" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="N195" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="O195" s="2"/>
+      <c r="P195" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q195" s="2"/>
+      <c r="R195" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S195" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T195" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U195" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V195" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W195" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X195" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y195" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z195" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA195" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB195" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC195" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD195" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE195" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF195" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AG195" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH195" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI195" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ195" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK195" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AL195" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM195" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN195" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO195" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP195" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="196" hidden="true">
+      <c r="A196" t="s" s="2">
+        <v>703</v>
+      </c>
+      <c r="B196" t="s" s="2">
+        <v>703</v>
+      </c>
+      <c r="C196" s="2"/>
+      <c r="D196" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="E196" s="2"/>
+      <c r="F196" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G196" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H196" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I196" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="J196" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K196" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L196" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="M196" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="N196" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="O196" s="2"/>
+      <c r="P196" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q196" s="2"/>
+      <c r="R196" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S196" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T196" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U196" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V196" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W196" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X196" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y196" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z196" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA196" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB196" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC196" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD196" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE196" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF196" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="AG196" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH196" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI196" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ196" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK196" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AL196" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM196" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN196" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO196" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP196" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="197" hidden="true">
+      <c r="A197" t="s" s="2">
+        <v>704</v>
+      </c>
+      <c r="B197" t="s" s="2">
+        <v>704</v>
+      </c>
+      <c r="C197" s="2"/>
+      <c r="D197" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E197" s="2"/>
+      <c r="F197" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G197" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H197" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I197" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J197" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K197" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="L197" t="s" s="2">
+        <v>705</v>
+      </c>
+      <c r="M197" t="s" s="2">
+        <v>706</v>
+      </c>
+      <c r="N197" t="s" s="2">
+        <v>707</v>
+      </c>
+      <c r="O197" t="s" s="2">
+        <v>708</v>
+      </c>
+      <c r="P197" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q197" s="2"/>
+      <c r="R197" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S197" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T197" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U197" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V197" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W197" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X197" t="s" s="2">
+        <v>709</v>
+      </c>
+      <c r="Y197" t="s" s="2">
+        <v>710</v>
+      </c>
+      <c r="Z197" t="s" s="2">
+        <v>711</v>
+      </c>
+      <c r="AA197" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB197" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC197" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD197" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE197" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF197" t="s" s="2">
+        <v>704</v>
+      </c>
+      <c r="AG197" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH197" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI197" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ197" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK197" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="AL197" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AM197" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN197" t="s" s="2">
+        <v>712</v>
+      </c>
+      <c r="AO197" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP197" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="198" hidden="true">
+      <c r="A198" t="s" s="2">
+        <v>713</v>
+      </c>
+      <c r="B198" t="s" s="2">
+        <v>713</v>
+      </c>
+      <c r="C198" s="2"/>
+      <c r="D198" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E198" s="2"/>
+      <c r="F198" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G198" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H198" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I198" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J198" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K198" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="L198" t="s" s="2">
+        <v>714</v>
+      </c>
+      <c r="M198" t="s" s="2">
+        <v>715</v>
+      </c>
+      <c r="N198" t="s" s="2">
+        <v>716</v>
+      </c>
+      <c r="O198" t="s" s="2">
+        <v>717</v>
+      </c>
+      <c r="P198" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q198" s="2"/>
+      <c r="R198" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S198" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T198" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U198" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V198" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W198" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X198" t="s" s="2">
+        <v>709</v>
+      </c>
+      <c r="Y198" t="s" s="2">
+        <v>718</v>
+      </c>
+      <c r="Z198" t="s" s="2">
+        <v>719</v>
+      </c>
+      <c r="AA198" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB198" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC198" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD198" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE198" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF198" t="s" s="2">
+        <v>713</v>
+      </c>
+      <c r="AG198" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH198" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI198" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ198" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK198" t="s" s="2">
+        <v>720</v>
+      </c>
+      <c r="AL198" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AM198" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN198" t="s" s="2">
+        <v>721</v>
+      </c>
+      <c r="AO198" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP198" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="199" hidden="true">
+      <c r="A199" t="s" s="2">
+        <v>722</v>
+      </c>
+      <c r="B199" t="s" s="2">
+        <v>722</v>
+      </c>
+      <c r="C199" s="2"/>
+      <c r="D199" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E199" s="2"/>
+      <c r="F199" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G199" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H199" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I199" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J199" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K199" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="L199" t="s" s="2">
+        <v>723</v>
+      </c>
+      <c r="M199" t="s" s="2">
+        <v>724</v>
+      </c>
+      <c r="N199" s="2"/>
+      <c r="O199" t="s" s="2">
+        <v>725</v>
+      </c>
+      <c r="P199" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q199" s="2"/>
+      <c r="R199" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S199" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T199" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U199" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V199" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W199" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X199" t="s" s="2">
+        <v>709</v>
+      </c>
+      <c r="Y199" t="s" s="2">
+        <v>726</v>
+      </c>
+      <c r="Z199" t="s" s="2">
+        <v>727</v>
+      </c>
+      <c r="AA199" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB199" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC199" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD199" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE199" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF199" t="s" s="2">
+        <v>722</v>
+      </c>
+      <c r="AG199" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH199" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI199" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ199" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK199" t="s" s="2">
+        <v>728</v>
+      </c>
+      <c r="AL199" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AM199" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN199" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AO199" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP199" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="200" hidden="true">
+      <c r="A200" t="s" s="2">
+        <v>729</v>
+      </c>
+      <c r="B200" t="s" s="2">
+        <v>729</v>
+      </c>
+      <c r="C200" s="2"/>
+      <c r="D200" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E200" s="2"/>
+      <c r="F200" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G200" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H200" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I200" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J200" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K200" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="L200" t="s" s="2">
+        <v>730</v>
+      </c>
+      <c r="M200" t="s" s="2">
+        <v>731</v>
+      </c>
+      <c r="N200" t="s" s="2">
+        <v>732</v>
+      </c>
+      <c r="O200" t="s" s="2">
+        <v>733</v>
+      </c>
+      <c r="P200" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q200" s="2"/>
+      <c r="R200" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S200" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T200" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U200" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V200" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W200" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X200" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y200" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z200" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA200" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB200" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC200" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD200" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE200" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF200" t="s" s="2">
+        <v>729</v>
+      </c>
+      <c r="AG200" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH200" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI200" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ200" t="s" s="2">
+        <v>699</v>
+      </c>
+      <c r="AK200" t="s" s="2">
+        <v>734</v>
+      </c>
+      <c r="AL200" t="s" s="2">
+        <v>735</v>
+      </c>
+      <c r="AM200" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN200" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO200" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP200" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="201" hidden="true">
+      <c r="A201" t="s" s="2">
+        <v>736</v>
+      </c>
+      <c r="B201" t="s" s="2">
+        <v>736</v>
+      </c>
+      <c r="C201" s="2"/>
+      <c r="D201" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E201" s="2"/>
+      <c r="F201" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G201" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H201" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I201" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J201" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K201" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="L201" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="M201" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="N201" s="2"/>
+      <c r="O201" s="2"/>
+      <c r="P201" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q201" s="2"/>
+      <c r="R201" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S201" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T201" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U201" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V201" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W201" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X201" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y201" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z201" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA201" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB201" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC201" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD201" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE201" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF201" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AG201" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH201" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI201" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ201" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK201" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AL201" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM201" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN201" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO201" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP201" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="202" hidden="true">
+      <c r="A202" t="s" s="2">
+        <v>737</v>
+      </c>
+      <c r="B202" t="s" s="2">
+        <v>737</v>
+      </c>
+      <c r="C202" s="2"/>
+      <c r="D202" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="E202" s="2"/>
+      <c r="F202" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G202" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H202" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I202" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J202" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K202" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L202" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M202" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="N202" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="O202" s="2"/>
+      <c r="P202" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q202" s="2"/>
+      <c r="R202" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S202" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T202" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U202" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V202" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W202" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X202" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y202" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z202" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA202" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB202" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC202" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD202" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE202" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF202" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AG202" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH202" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI202" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ202" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK202" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AL202" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM202" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN202" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO202" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP202" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="203" hidden="true">
+      <c r="A203" t="s" s="2">
+        <v>738</v>
+      </c>
+      <c r="B203" t="s" s="2">
+        <v>738</v>
+      </c>
+      <c r="C203" s="2"/>
+      <c r="D203" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="E203" s="2"/>
+      <c r="F203" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G203" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H203" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I203" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="J203" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K203" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L203" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="M203" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="N203" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="O203" s="2"/>
+      <c r="P203" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q203" s="2"/>
+      <c r="R203" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S203" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T203" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U203" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V203" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W203" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X203" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y203" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z203" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA203" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB203" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC203" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD203" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE203" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF203" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="AG203" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH203" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI203" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ203" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK203" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AL203" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM203" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN203" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO203" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP203" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="204" hidden="true">
+      <c r="A204" t="s" s="2">
+        <v>739</v>
+      </c>
+      <c r="B204" t="s" s="2">
+        <v>739</v>
+      </c>
+      <c r="C204" s="2"/>
+      <c r="D204" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E204" s="2"/>
+      <c r="F204" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G204" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H204" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I204" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J204" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K204" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="L204" t="s" s="2">
+        <v>740</v>
+      </c>
+      <c r="M204" t="s" s="2">
+        <v>741</v>
+      </c>
+      <c r="N204" t="s" s="2">
+        <v>742</v>
+      </c>
+      <c r="O204" t="s" s="2">
+        <v>743</v>
+      </c>
+      <c r="P204" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q204" s="2"/>
+      <c r="R204" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S204" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T204" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U204" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V204" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W204" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X204" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="Y204" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="Z204" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AA204" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB204" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC204" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD204" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE204" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF204" t="s" s="2">
+        <v>739</v>
+      </c>
+      <c r="AG204" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH204" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI204" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ204" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK204" t="s" s="2">
+        <v>744</v>
+      </c>
+      <c r="AL204" t="s" s="2">
+        <v>745</v>
+      </c>
+      <c r="AM204" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN204" t="s" s="2">
+        <v>746</v>
+      </c>
+      <c r="AO204" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP204" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="205" hidden="true">
+      <c r="A205" t="s" s="2">
+        <v>747</v>
+      </c>
+      <c r="B205" t="s" s="2">
+        <v>747</v>
+      </c>
+      <c r="C205" s="2"/>
+      <c r="D205" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E205" s="2"/>
+      <c r="F205" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G205" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H205" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I205" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J205" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K205" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="L205" t="s" s="2">
+        <v>748</v>
+      </c>
+      <c r="M205" t="s" s="2">
+        <v>749</v>
+      </c>
+      <c r="N205" t="s" s="2">
+        <v>750</v>
+      </c>
+      <c r="O205" t="s" s="2">
+        <v>751</v>
+      </c>
+      <c r="P205" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q205" s="2"/>
+      <c r="R205" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S205" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T205" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U205" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V205" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W205" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X205" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y205" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z205" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA205" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB205" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC205" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD205" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE205" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF205" t="s" s="2">
+        <v>747</v>
+      </c>
+      <c r="AG205" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH205" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI205" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ205" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK205" t="s" s="2">
+        <v>752</v>
+      </c>
+      <c r="AL205" t="s" s="2">
+        <v>753</v>
+      </c>
+      <c r="AM205" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN205" t="s" s="2">
+        <v>754</v>
+      </c>
+      <c r="AO205" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP205" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="206" hidden="true">
+      <c r="A206" t="s" s="2">
+        <v>755</v>
+      </c>
+      <c r="B206" t="s" s="2">
+        <v>755</v>
+      </c>
+      <c r="C206" s="2"/>
+      <c r="D206" t="s" s="2">
+        <v>756</v>
+      </c>
+      <c r="E206" s="2"/>
+      <c r="F206" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G206" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H206" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I206" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J206" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K206" t="s" s="2">
+        <v>757</v>
+      </c>
+      <c r="L206" t="s" s="2">
+        <v>758</v>
+      </c>
+      <c r="M206" t="s" s="2">
+        <v>759</v>
+      </c>
+      <c r="N206" t="s" s="2">
+        <v>760</v>
+      </c>
+      <c r="O206" s="2"/>
+      <c r="P206" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q206" s="2"/>
+      <c r="R206" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S206" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T206" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U206" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V206" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W206" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X206" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y206" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z206" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA206" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB206" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC206" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD206" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE206" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF206" t="s" s="2">
+        <v>755</v>
+      </c>
+      <c r="AG206" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH206" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI206" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ206" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK206" t="s" s="2">
+        <v>761</v>
+      </c>
+      <c r="AL206" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AM206" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN206" t="s" s="2">
+        <v>762</v>
+      </c>
+      <c r="AO206" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP206" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="207" hidden="true">
+      <c r="A207" t="s" s="2">
+        <v>763</v>
+      </c>
+      <c r="B207" t="s" s="2">
+        <v>763</v>
+      </c>
+      <c r="C207" s="2"/>
+      <c r="D207" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E207" s="2"/>
+      <c r="F207" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G207" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H207" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I207" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J207" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K207" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="L207" t="s" s="2">
+        <v>764</v>
+      </c>
+      <c r="M207" t="s" s="2">
+        <v>765</v>
+      </c>
+      <c r="N207" t="s" s="2">
+        <v>766</v>
+      </c>
+      <c r="O207" t="s" s="2">
+        <v>767</v>
+      </c>
+      <c r="P207" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q207" s="2"/>
+      <c r="R207" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S207" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T207" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U207" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V207" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W207" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X207" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y207" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z207" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA207" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB207" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC207" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD207" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE207" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF207" t="s" s="2">
+        <v>763</v>
+      </c>
+      <c r="AG207" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH207" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI207" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ207" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK207" t="s" s="2">
+        <v>688</v>
+      </c>
+      <c r="AL207" t="s" s="2">
+        <v>768</v>
+      </c>
+      <c r="AM207" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN207" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO207" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP207" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="208" hidden="true">
+      <c r="A208" t="s" s="2">
+        <v>769</v>
+      </c>
+      <c r="B208" t="s" s="2">
+        <v>769</v>
+      </c>
+      <c r="C208" s="2"/>
+      <c r="D208" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E208" s="2"/>
+      <c r="F208" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G208" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H208" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I208" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="J208" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K208" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="L208" t="s" s="2">
+        <v>770</v>
+      </c>
+      <c r="M208" t="s" s="2">
+        <v>771</v>
+      </c>
+      <c r="N208" t="s" s="2">
+        <v>772</v>
+      </c>
+      <c r="O208" t="s" s="2">
+        <v>773</v>
+      </c>
+      <c r="P208" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q208" s="2"/>
+      <c r="R208" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S208" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T208" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U208" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V208" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W208" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X208" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y208" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z208" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA208" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB208" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC208" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD208" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE208" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF208" t="s" s="2">
+        <v>769</v>
+      </c>
+      <c r="AG208" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH208" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI208" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ208" t="s" s="2">
+        <v>699</v>
+      </c>
+      <c r="AK208" t="s" s="2">
+        <v>774</v>
+      </c>
+      <c r="AL208" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AM208" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN208" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO208" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP208" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="209" hidden="true">
+      <c r="A209" t="s" s="2">
+        <v>775</v>
+      </c>
+      <c r="B209" t="s" s="2">
+        <v>775</v>
+      </c>
+      <c r="C209" s="2"/>
+      <c r="D209" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E209" s="2"/>
+      <c r="F209" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G209" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H209" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I209" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J209" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K209" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="L209" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="M209" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="N209" s="2"/>
+      <c r="O209" s="2"/>
+      <c r="P209" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q209" s="2"/>
+      <c r="R209" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S209" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T209" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U209" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V209" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W209" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X209" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y209" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z209" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA209" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB209" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC209" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD209" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE209" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF209" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AG209" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH209" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI209" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ209" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK209" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AL209" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM209" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN209" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO209" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP209" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="210" hidden="true">
+      <c r="A210" t="s" s="2">
+        <v>776</v>
+      </c>
+      <c r="B210" t="s" s="2">
+        <v>776</v>
+      </c>
+      <c r="C210" s="2"/>
+      <c r="D210" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="E210" s="2"/>
+      <c r="F210" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G210" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H210" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I210" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J210" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K210" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L210" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M210" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="N210" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="O210" s="2"/>
+      <c r="P210" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q210" s="2"/>
+      <c r="R210" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S210" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T210" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U210" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V210" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W210" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X210" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y210" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z210" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA210" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB210" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC210" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD210" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE210" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF210" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AG210" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH210" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI210" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ210" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK210" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AL210" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM210" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN210" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO210" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP210" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="211" hidden="true">
+      <c r="A211" t="s" s="2">
+        <v>777</v>
+      </c>
+      <c r="B211" t="s" s="2">
+        <v>777</v>
+      </c>
+      <c r="C211" s="2"/>
+      <c r="D211" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="E211" s="2"/>
+      <c r="F211" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G211" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H211" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I211" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="J211" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K211" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L211" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="M211" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="N211" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="O211" s="2"/>
+      <c r="P211" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q211" s="2"/>
+      <c r="R211" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S211" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T211" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U211" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V211" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W211" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X211" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y211" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z211" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA211" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB211" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC211" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD211" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE211" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF211" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="AG211" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH211" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI211" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ211" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK211" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AL211" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM211" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN211" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO211" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP211" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="212" hidden="true">
+      <c r="A212" t="s" s="2">
+        <v>778</v>
+      </c>
+      <c r="B212" t="s" s="2">
+        <v>778</v>
+      </c>
+      <c r="C212" s="2"/>
+      <c r="D212" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E212" s="2"/>
+      <c r="F212" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G212" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H212" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I212" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J212" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K212" t="s" s="2">
+        <v>779</v>
+      </c>
+      <c r="L212" t="s" s="2">
+        <v>780</v>
+      </c>
+      <c r="M212" t="s" s="2">
+        <v>781</v>
+      </c>
+      <c r="N212" t="s" s="2">
+        <v>782</v>
+      </c>
+      <c r="O212" s="2"/>
+      <c r="P212" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q212" s="2"/>
+      <c r="R212" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S212" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T212" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U212" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V212" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W212" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X212" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y212" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z212" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA212" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB212" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC212" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD212" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE212" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF212" t="s" s="2">
+        <v>778</v>
+      </c>
+      <c r="AG212" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH212" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI212" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ212" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK212" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AL212" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AM212" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN212" t="s" s="2">
+        <v>783</v>
+      </c>
+      <c r="AO212" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP212" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="213" hidden="true">
+      <c r="A213" t="s" s="2">
+        <v>784</v>
+      </c>
+      <c r="B213" t="s" s="2">
+        <v>784</v>
+      </c>
+      <c r="C213" s="2"/>
+      <c r="D213" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E213" s="2"/>
+      <c r="F213" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G213" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H213" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I213" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J213" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K213" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L213" t="s" s="2">
+        <v>785</v>
+      </c>
+      <c r="M213" t="s" s="2">
+        <v>786</v>
+      </c>
+      <c r="N213" s="2"/>
+      <c r="O213" s="2"/>
+      <c r="P213" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q213" s="2"/>
+      <c r="R213" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S213" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T213" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U213" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V213" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W213" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X213" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="Y213" t="s" s="2">
+        <v>786</v>
+      </c>
+      <c r="Z213" t="s" s="2">
+        <v>787</v>
+      </c>
+      <c r="AA213" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB213" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC213" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD213" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE213" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF213" t="s" s="2">
+        <v>784</v>
+      </c>
+      <c r="AG213" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH213" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI213" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ213" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK213" t="s" s="2">
+        <v>788</v>
+      </c>
+      <c r="AL213" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AM213" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN213" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO213" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP213" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AP193">
+  <autoFilter ref="A1:AP213">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -25966,7 +28441,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI192">
+  <conditionalFormatting sqref="A2:AI212">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/branches/master/StructureDefinition-patient-pemh-profile.xlsx
+++ b/branches/master/StructureDefinition-patient-pemh-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T09:10:53+00:00</t>
+    <t>2023-02-16T19:26:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-patient-pemh-profile.xlsx
+++ b/branches/master/StructureDefinition-patient-pemh-profile.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8873" uniqueCount="835">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8873" uniqueCount="836">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T20:28:10+00:00</t>
+    <t>2023-02-16T21:17:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -465,7 +465,7 @@
 </t>
   </si>
   <si>
-    <t>Contacto preferencial</t>
+    <t>Profissão do utente</t>
   </si>
   <si>
     <t>Extensão para a profissão do utente</t>
@@ -1740,10 +1740,10 @@
 </t>
   </si>
   <si>
-    <t>Custo</t>
-  </si>
-  <si>
-    <t>Extensão referente ao valor e a moeda da terapêutica</t>
+    <t>Endereço</t>
+  </si>
+  <si>
+    <t>Extensão referente ao endereço</t>
   </si>
   <si>
     <t>Patient.address.use</t>
@@ -2118,6 +2118,9 @@
   <si>
     <t xml:space="preserve">Extension {http://spms.min-saude.pt/rnu/extensions/preferred-contact}
 </t>
+  </si>
+  <si>
+    <t>Contacto preferencial</t>
   </si>
   <si>
     <t>Extensão para informar se o contacto atual é o preferencial</t>
@@ -25710,10 +25713,10 @@
         <v>681</v>
       </c>
       <c r="L190" t="s" s="2">
-        <v>144</v>
+        <v>682</v>
       </c>
       <c r="M190" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="N190" s="2"/>
       <c r="O190" s="2"/>
@@ -25799,14 +25802,14 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="E191" s="2"/>
       <c r="F191" t="s" s="2">
@@ -25831,7 +25834,7 @@
         <v>160</v>
       </c>
       <c r="M191" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="N191" t="s" s="2">
         <v>162</v>
@@ -25884,7 +25887,7 @@
         <v>82</v>
       </c>
       <c r="AF191" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="AG191" t="s" s="2">
         <v>80</v>
@@ -25919,10 +25922,10 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" t="s" s="2">
@@ -25948,14 +25951,14 @@
         <v>195</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="M192" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="N192" s="2"/>
       <c r="O192" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="P192" t="s" s="2">
         <v>82</v>
@@ -25983,10 +25986,10 @@
         <v>113</v>
       </c>
       <c r="Y192" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="Z192" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="AA192" t="s" s="2">
         <v>82</v>
@@ -26004,7 +26007,7 @@
         <v>82</v>
       </c>
       <c r="AF192" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AG192" t="s" s="2">
         <v>80</v>
@@ -26019,7 +26022,7 @@
         <v>82</v>
       </c>
       <c r="AK192" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="AL192" t="s" s="2">
         <v>178</v>
@@ -26028,7 +26031,7 @@
         <v>82</v>
       </c>
       <c r="AN192" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="AO192" t="s" s="2">
         <v>82</v>
@@ -26039,10 +26042,10 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" t="s" s="2">
@@ -26068,14 +26071,14 @@
         <v>445</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="M193" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="N193" s="2"/>
       <c r="O193" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="P193" t="s" s="2">
         <v>82</v>
@@ -26124,7 +26127,7 @@
         <v>82</v>
       </c>
       <c r="AF193" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="AG193" t="s" s="2">
         <v>80</v>
@@ -26148,7 +26151,7 @@
         <v>82</v>
       </c>
       <c r="AN193" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="AO193" t="s" s="2">
         <v>82</v>
@@ -26159,10 +26162,10 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" t="s" s="2">
@@ -26188,13 +26191,13 @@
         <v>509</v>
       </c>
       <c r="L194" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="M194" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="N194" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="O194" t="s" s="2">
         <v>513</v>
@@ -26246,7 +26249,7 @@
         <v>82</v>
       </c>
       <c r="AF194" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="AG194" t="s" s="2">
         <v>80</v>
@@ -26270,7 +26273,7 @@
         <v>82</v>
       </c>
       <c r="AN194" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="AO194" t="s" s="2">
         <v>82</v>
@@ -26281,10 +26284,10 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" t="s" s="2">
@@ -26310,14 +26313,14 @@
         <v>546</v>
       </c>
       <c r="L195" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="M195" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="N195" s="2"/>
       <c r="O195" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="P195" t="s" s="2">
         <v>82</v>
@@ -26366,7 +26369,7 @@
         <v>82</v>
       </c>
       <c r="AF195" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="AG195" t="s" s="2">
         <v>80</v>
@@ -26390,7 +26393,7 @@
         <v>82</v>
       </c>
       <c r="AN195" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="AO195" t="s" s="2">
         <v>82</v>
@@ -26401,10 +26404,10 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" t="s" s="2">
@@ -26519,10 +26522,10 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" t="s" s="2">
@@ -26637,10 +26640,10 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
+        <v>713</v>
+      </c>
+      <c r="B198" t="s" s="2">
         <v>712</v>
-      </c>
-      <c r="B198" t="s" s="2">
-        <v>711</v>
       </c>
       <c r="C198" t="s" s="2">
         <v>558</v>
@@ -26757,10 +26760,10 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" t="s" s="2">
@@ -26879,10 +26882,10 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" t="s" s="2">
@@ -26997,10 +27000,10 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" t="s" s="2">
@@ -27026,7 +27029,7 @@
         <v>174</v>
       </c>
       <c r="L201" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="M201" t="s" s="2">
         <v>582</v>
@@ -27119,10 +27122,10 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" t="s" s="2">
@@ -27148,7 +27151,7 @@
         <v>174</v>
       </c>
       <c r="L202" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="M202" t="s" s="2">
         <v>589</v>
@@ -27239,10 +27242,10 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="C203" s="2"/>
       <c r="D203" t="s" s="2">
@@ -27357,10 +27360,10 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" t="s" s="2">
@@ -27477,10 +27480,10 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" t="s" s="2">
@@ -27595,10 +27598,10 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" t="s" s="2">
@@ -27713,10 +27716,10 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" t="s" s="2">
@@ -27833,10 +27836,10 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" t="s" s="2">
@@ -27953,10 +27956,10 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" t="s" s="2">
@@ -27985,11 +27988,11 @@
         <v>518</v>
       </c>
       <c r="M209" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="N209" s="2"/>
       <c r="O209" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="P209" t="s" s="2">
         <v>82</v>
@@ -28038,7 +28041,7 @@
         <v>82</v>
       </c>
       <c r="AF209" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="AG209" t="s" s="2">
         <v>80</v>
@@ -28062,7 +28065,7 @@
         <v>82</v>
       </c>
       <c r="AN209" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="AO209" t="s" s="2">
         <v>82</v>
@@ -28073,10 +28076,10 @@
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" t="s" s="2">
@@ -28102,14 +28105,14 @@
         <v>288</v>
       </c>
       <c r="L210" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="M210" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="N210" s="2"/>
       <c r="O210" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="P210" t="s" s="2">
         <v>82</v>
@@ -28158,7 +28161,7 @@
         <v>82</v>
       </c>
       <c r="AF210" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="AG210" t="s" s="2">
         <v>80</v>
@@ -28167,13 +28170,13 @@
         <v>90</v>
       </c>
       <c r="AI210" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="AJ210" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AK210" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="AL210" t="s" s="2">
         <v>178</v>
@@ -28182,7 +28185,7 @@
         <v>82</v>
       </c>
       <c r="AN210" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="AO210" t="s" s="2">
         <v>82</v>
@@ -28193,10 +28196,10 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" t="s" s="2">
@@ -28222,10 +28225,10 @@
         <v>281</v>
       </c>
       <c r="L211" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="M211" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="N211" s="2"/>
       <c r="O211" s="2"/>
@@ -28276,7 +28279,7 @@
         <v>82</v>
       </c>
       <c r="AF211" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="AG211" t="s" s="2">
         <v>80</v>
@@ -28291,7 +28294,7 @@
         <v>82</v>
       </c>
       <c r="AK211" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="AL211" t="s" s="2">
         <v>178</v>
@@ -28311,10 +28314,10 @@
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" t="s" s="2">
@@ -28340,16 +28343,16 @@
         <v>666</v>
       </c>
       <c r="L212" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="M212" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="N212" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="O212" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="P212" t="s" s="2">
         <v>82</v>
@@ -28398,7 +28401,7 @@
         <v>82</v>
       </c>
       <c r="AF212" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="AG212" t="s" s="2">
         <v>80</v>
@@ -28410,10 +28413,10 @@
         <v>82</v>
       </c>
       <c r="AJ212" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="AK212" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="AL212" t="s" s="2">
         <v>178</v>
@@ -28433,10 +28436,10 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="C213" s="2"/>
       <c r="D213" t="s" s="2">
@@ -28551,10 +28554,10 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" t="s" s="2">
@@ -28671,14 +28674,14 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="E215" s="2"/>
       <c r="F215" t="s" s="2">
@@ -28703,7 +28706,7 @@
         <v>160</v>
       </c>
       <c r="M215" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="N215" t="s" s="2">
         <v>162</v>
@@ -28756,7 +28759,7 @@
         <v>82</v>
       </c>
       <c r="AF215" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="AG215" t="s" s="2">
         <v>80</v>
@@ -28791,10 +28794,10 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" t="s" s="2">
@@ -28820,16 +28823,16 @@
         <v>195</v>
       </c>
       <c r="L216" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="M216" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="N216" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="O216" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="P216" t="s" s="2">
         <v>82</v>
@@ -28854,13 +28857,13 @@
         <v>82</v>
       </c>
       <c r="X216" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="Y216" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="Z216" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="AA216" t="s" s="2">
         <v>82</v>
@@ -28878,7 +28881,7 @@
         <v>82</v>
       </c>
       <c r="AF216" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="AG216" t="s" s="2">
         <v>90</v>
@@ -28893,7 +28896,7 @@
         <v>82</v>
       </c>
       <c r="AK216" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="AL216" t="s" s="2">
         <v>178</v>
@@ -28902,7 +28905,7 @@
         <v>82</v>
       </c>
       <c r="AN216" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="AO216" t="s" s="2">
         <v>82</v>
@@ -28913,10 +28916,10 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" t="s" s="2">
@@ -28942,16 +28945,16 @@
         <v>195</v>
       </c>
       <c r="L217" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="M217" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="N217" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="O217" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="P217" t="s" s="2">
         <v>82</v>
@@ -28976,13 +28979,13 @@
         <v>82</v>
       </c>
       <c r="X217" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="Y217" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="Z217" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="AA217" t="s" s="2">
         <v>82</v>
@@ -29000,7 +29003,7 @@
         <v>82</v>
       </c>
       <c r="AF217" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="AG217" t="s" s="2">
         <v>80</v>
@@ -29015,7 +29018,7 @@
         <v>82</v>
       </c>
       <c r="AK217" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="AL217" t="s" s="2">
         <v>178</v>
@@ -29024,7 +29027,7 @@
         <v>82</v>
       </c>
       <c r="AN217" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="AO217" t="s" s="2">
         <v>82</v>
@@ -29035,10 +29038,10 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="C218" s="2"/>
       <c r="D218" t="s" s="2">
@@ -29064,14 +29067,14 @@
         <v>195</v>
       </c>
       <c r="L218" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="M218" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="N218" s="2"/>
       <c r="O218" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="P218" t="s" s="2">
         <v>82</v>
@@ -29096,13 +29099,13 @@
         <v>82</v>
       </c>
       <c r="X218" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="Y218" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="Z218" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="AA218" t="s" s="2">
         <v>82</v>
@@ -29120,7 +29123,7 @@
         <v>82</v>
       </c>
       <c r="AF218" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="AG218" t="s" s="2">
         <v>80</v>
@@ -29135,7 +29138,7 @@
         <v>82</v>
       </c>
       <c r="AK218" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="AL218" t="s" s="2">
         <v>178</v>
@@ -29155,10 +29158,10 @@
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" t="s" s="2">
@@ -29184,16 +29187,16 @@
         <v>666</v>
       </c>
       <c r="L219" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="M219" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="N219" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="O219" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="P219" t="s" s="2">
         <v>82</v>
@@ -29242,7 +29245,7 @@
         <v>82</v>
       </c>
       <c r="AF219" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="AG219" t="s" s="2">
         <v>80</v>
@@ -29254,13 +29257,13 @@
         <v>82</v>
       </c>
       <c r="AJ219" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="AK219" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="AL219" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="AM219" t="s" s="2">
         <v>82</v>
@@ -29277,10 +29280,10 @@
     </row>
     <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" t="s" s="2">
@@ -29395,10 +29398,10 @@
     </row>
     <row r="221" hidden="true">
       <c r="A221" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" t="s" s="2">
@@ -29515,14 +29518,14 @@
     </row>
     <row r="222" hidden="true">
       <c r="A222" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="E222" s="2"/>
       <c r="F222" t="s" s="2">
@@ -29547,7 +29550,7 @@
         <v>160</v>
       </c>
       <c r="M222" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="N222" t="s" s="2">
         <v>162</v>
@@ -29600,7 +29603,7 @@
         <v>82</v>
       </c>
       <c r="AF222" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="AG222" t="s" s="2">
         <v>80</v>
@@ -29635,10 +29638,10 @@
     </row>
     <row r="223" hidden="true">
       <c r="A223" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="C223" s="2"/>
       <c r="D223" t="s" s="2">
@@ -29664,16 +29667,16 @@
         <v>195</v>
       </c>
       <c r="L223" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="M223" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="N223" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="O223" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="P223" t="s" s="2">
         <v>82</v>
@@ -29722,7 +29725,7 @@
         <v>82</v>
       </c>
       <c r="AF223" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="AG223" t="s" s="2">
         <v>90</v>
@@ -29737,16 +29740,16 @@
         <v>82</v>
       </c>
       <c r="AK223" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="AL223" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="AM223" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN223" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="AO223" t="s" s="2">
         <v>82</v>
@@ -29757,10 +29760,10 @@
     </row>
     <row r="224" hidden="true">
       <c r="A224" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" t="s" s="2">
@@ -29786,16 +29789,16 @@
         <v>248</v>
       </c>
       <c r="L224" t="s" s="2">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="M224" t="s" s="2">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="N224" t="s" s="2">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="O224" t="s" s="2">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="P224" t="s" s="2">
         <v>82</v>
@@ -29844,7 +29847,7 @@
         <v>82</v>
       </c>
       <c r="AF224" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="AG224" t="s" s="2">
         <v>80</v>
@@ -29859,16 +29862,16 @@
         <v>82</v>
       </c>
       <c r="AK224" t="s" s="2">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="AL224" t="s" s="2">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="AM224" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN224" t="s" s="2">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="AO224" t="s" s="2">
         <v>82</v>
@@ -29879,14 +29882,14 @@
     </row>
     <row r="225" hidden="true">
       <c r="A225" t="s" s="2">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="C225" s="2"/>
       <c r="D225" t="s" s="2">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="E225" s="2"/>
       <c r="F225" t="s" s="2">
@@ -29905,16 +29908,16 @@
         <v>82</v>
       </c>
       <c r="K225" t="s" s="2">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="L225" t="s" s="2">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="M225" t="s" s="2">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="N225" t="s" s="2">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="O225" s="2"/>
       <c r="P225" t="s" s="2">
@@ -29964,7 +29967,7 @@
         <v>82</v>
       </c>
       <c r="AF225" t="s" s="2">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="AG225" t="s" s="2">
         <v>80</v>
@@ -29979,7 +29982,7 @@
         <v>82</v>
       </c>
       <c r="AK225" t="s" s="2">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="AL225" t="s" s="2">
         <v>178</v>
@@ -29988,7 +29991,7 @@
         <v>82</v>
       </c>
       <c r="AN225" t="s" s="2">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="AO225" t="s" s="2">
         <v>82</v>
@@ -29999,10 +30002,10 @@
     </row>
     <row r="226" hidden="true">
       <c r="A226" t="s" s="2">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B226" t="s" s="2">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="C226" s="2"/>
       <c r="D226" t="s" s="2">
@@ -30028,16 +30031,16 @@
         <v>288</v>
       </c>
       <c r="L226" t="s" s="2">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="M226" t="s" s="2">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="N226" t="s" s="2">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="O226" t="s" s="2">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="P226" t="s" s="2">
         <v>82</v>
@@ -30086,7 +30089,7 @@
         <v>82</v>
       </c>
       <c r="AF226" t="s" s="2">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="AG226" t="s" s="2">
         <v>80</v>
@@ -30101,10 +30104,10 @@
         <v>82</v>
       </c>
       <c r="AK226" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="AL226" t="s" s="2">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="AM226" t="s" s="2">
         <v>82</v>
@@ -30121,10 +30124,10 @@
     </row>
     <row r="227" hidden="true">
       <c r="A227" t="s" s="2">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="C227" s="2"/>
       <c r="D227" t="s" s="2">
@@ -30150,16 +30153,16 @@
         <v>666</v>
       </c>
       <c r="L227" t="s" s="2">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="M227" t="s" s="2">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="N227" t="s" s="2">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="O227" t="s" s="2">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="P227" t="s" s="2">
         <v>82</v>
@@ -30208,7 +30211,7 @@
         <v>82</v>
       </c>
       <c r="AF227" t="s" s="2">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="AG227" t="s" s="2">
         <v>80</v>
@@ -30220,10 +30223,10 @@
         <v>82</v>
       </c>
       <c r="AJ227" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="AK227" t="s" s="2">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="AL227" t="s" s="2">
         <v>178</v>
@@ -30243,10 +30246,10 @@
     </row>
     <row r="228" hidden="true">
       <c r="A228" t="s" s="2">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="C228" s="2"/>
       <c r="D228" t="s" s="2">
@@ -30361,10 +30364,10 @@
     </row>
     <row r="229" hidden="true">
       <c r="A229" t="s" s="2">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="C229" s="2"/>
       <c r="D229" t="s" s="2">
@@ -30481,14 +30484,14 @@
     </row>
     <row r="230" hidden="true">
       <c r="A230" t="s" s="2">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="C230" s="2"/>
       <c r="D230" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="E230" s="2"/>
       <c r="F230" t="s" s="2">
@@ -30513,7 +30516,7 @@
         <v>160</v>
       </c>
       <c r="M230" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="N230" t="s" s="2">
         <v>162</v>
@@ -30566,7 +30569,7 @@
         <v>82</v>
       </c>
       <c r="AF230" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="AG230" t="s" s="2">
         <v>80</v>
@@ -30601,10 +30604,10 @@
     </row>
     <row r="231" hidden="true">
       <c r="A231" t="s" s="2">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B231" t="s" s="2">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="C231" s="2"/>
       <c r="D231" t="s" s="2">
@@ -30627,16 +30630,16 @@
         <v>91</v>
       </c>
       <c r="K231" t="s" s="2">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="L231" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="M231" t="s" s="2">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="N231" t="s" s="2">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="O231" s="2"/>
       <c r="P231" t="s" s="2">
@@ -30686,7 +30689,7 @@
         <v>82</v>
       </c>
       <c r="AF231" t="s" s="2">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="AG231" t="s" s="2">
         <v>90</v>
@@ -30710,7 +30713,7 @@
         <v>82</v>
       </c>
       <c r="AN231" t="s" s="2">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="AO231" t="s" s="2">
         <v>82</v>
@@ -30721,10 +30724,10 @@
     </row>
     <row r="232" hidden="true">
       <c r="A232" t="s" s="2">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="B232" t="s" s="2">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="C232" s="2"/>
       <c r="D232" t="s" s="2">
@@ -30750,10 +30753,10 @@
         <v>109</v>
       </c>
       <c r="L232" t="s" s="2">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="M232" t="s" s="2">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="N232" s="2"/>
       <c r="O232" s="2"/>
@@ -30783,10 +30786,10 @@
         <v>189</v>
       </c>
       <c r="Y232" t="s" s="2">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="Z232" t="s" s="2">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="AA232" t="s" s="2">
         <v>82</v>
@@ -30804,7 +30807,7 @@
         <v>82</v>
       </c>
       <c r="AF232" t="s" s="2">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="AG232" t="s" s="2">
         <v>90</v>
@@ -30819,7 +30822,7 @@
         <v>82</v>
       </c>
       <c r="AK232" t="s" s="2">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="AL232" t="s" s="2">
         <v>178</v>

--- a/branches/master/StructureDefinition-patient-pemh-profile.xlsx
+++ b/branches/master/StructureDefinition-patient-pemh-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T21:17:23+00:00</t>
+    <t>2023-02-16T21:36:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
